--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B7EC26-12E8-44C4-86CF-A8EE0D7F5782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBFE8E9-4891-4B83-B041-317742DBC4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="配置表中的" sheetId="1" r:id="rId1"/>
+    <sheet name="代码中的" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="346">
   <si>
     <t>##var</t>
   </si>
@@ -465,6 +477,731 @@
   </si>
   <si>
     <t>加速塔</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
+    <t>Fire Totem</t>
+  </si>
+  <si>
+    <t>Speed Tower</t>
+  </si>
+  <si>
+    <t>Speed Tower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Totem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tesla</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-Bow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Poison </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dragon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tower</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice Tower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_GameMode_All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+  </si>
+  <si>
+    <t>TextCode_Key_GameMode_GamePlayTowerDefense1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔防</t>
+  </si>
+  <si>
+    <t>TextCode_Key_GameMode_GamePlayPK1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TeamMode_All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TeamMode_AllPlayersOneGroup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>团体合作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TeamMode_PlayerAlone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>各自为战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TeamMode_PlayerTeam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组队合作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_RoomMemberStatus_StartGame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始游戏</t>
+  </si>
+  <si>
+    <t>TextCode_Key_RoomMemberStatus_WaitAllReady</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待全部准备</t>
+  </si>
+  <si>
+    <t>TextCode_Key_RoomMemberStatus_Ready</t>
+  </si>
+  <si>
+    <t>点击准备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_RoomMemberStatus_CancelReady</t>
+  </si>
+  <si>
+    <t>取消准备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_RoomMemberStatus_SeatIndex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空位:{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_RoomMemberStatus_ChgSeat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>换位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_RoomMemberStatus_KickMember</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢出房间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_RoomMemberStatus_SeeMemberInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_RoomMemberStatus_Self</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[自己]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_IsQuitRoom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认退出房间?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Net_ChkDisconnect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络已断开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Net_ChkConnect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前没有联网，请您先联网后再进行操作！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Res_DownLoadSuccess</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Res_UpdateErr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源更新发生错误:{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Res_DownLoadResErr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载资源失败: {0} {1}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_IsQuitBattle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认退出战斗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Hall_RoomNotExist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Hall_CreateRoomError</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间创建失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Login_IsReturnRoom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到还在房间中,是否返回房间?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Login_IsReturnBattle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到还在战斗中,是否返回战斗?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_WaveRewardGold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波次结束奖励金币:{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_InterestOnDeposit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得波次结算存款利息:{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_DivideEquallyTeamCoin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平分战斗期间杀怪金币,得到:{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请按住拖拉放置大本营</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_PutHomeText1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_PutHomeText2</t>
+  </si>
+  <si>
+    <t>请等待其他阵营进行放置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请等待本阵营进行放置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_PutHomeText3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_PutMonsterPoint1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请等待其他玩家放置刷怪点{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请按住拖拉放置刷怪点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_PutMonsterPoint2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一波到来:{0}s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_NextMonsterWaveTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前波剩余时间:{0}s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_CurMonsterWaveLeftTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_MonsterWaveOverTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已达到最大放置数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_CurPutTowerCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_MaxPutTowerCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还可放置{0}个预防塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_TowerBuyDone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已买</t>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_TowerBuyButton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币不足</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_TowerBuy_NotEnough</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前放置位置 没有投射点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前放置位置 太陡峭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_ChkPutMesh_IsRaycast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_ChkPutMesh_IsCliffy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前手指在UI上,请挪开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_ChkPutMesh_IsOnUI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前放置位置 没法到达大本营,请重新选位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_ChkPutMesh_IsReachHome</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前放置位置 太靠近塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_ChkPutMesh_IsNearTower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能放置在路线上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_ChkPutMesh_IsOnRoad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前放置位置 必须在塔附近</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_ChkPutMesh_IsNotNearTower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这不是你的塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_Click_IsNotYouTower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有这个塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_NotHaveThisTower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Tower Defense</t>
+  </si>
+  <si>
+    <t>All players in one team</t>
+  </si>
+  <si>
+    <t>Every player fights individually</t>
+  </si>
+  <si>
+    <t>Team Cooperation</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Waiting for All to Be Ready</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Empty : {0}</t>
+  </si>
+  <si>
+    <t>Swap</t>
+  </si>
+  <si>
+    <t>Kick from Room</t>
+  </si>
+  <si>
+    <t>View Information</t>
+  </si>
+  <si>
+    <t>[Self]</t>
+  </si>
+  <si>
+    <t>Are you want to leave the room?</t>
+  </si>
+  <si>
+    <t>Network Disconnected</t>
+  </si>
+  <si>
+    <t>Currently not connected, please connect to the internet before proceeding!</t>
+  </si>
+  <si>
+    <t>Update Complete</t>
+  </si>
+  <si>
+    <t>Resource Update Error: {0}</t>
+  </si>
+  <si>
+    <t>Failed to Download Resources: {0} {1}</t>
+  </si>
+  <si>
+    <t>Are you want to exit the battle?</t>
+  </si>
+  <si>
+    <t>Room Does Not Exist</t>
+  </si>
+  <si>
+    <t>Room Creation Failed</t>
+  </si>
+  <si>
+    <t>Detected that you are still in the room, do you want to return to the room?</t>
+  </si>
+  <si>
+    <t>Detected that you are still in a battle, do you want to return to the battle?</t>
+  </si>
+  <si>
+    <t>Wave End Reward Coins: {0}</t>
+  </si>
+  <si>
+    <t>Received Wave Settlement Interest: {0}</t>
+  </si>
+  <si>
+    <t>Evenly Distributed Monster Kill Coins during Battle, Received: {0}</t>
+  </si>
+  <si>
+    <t>Hold and Drag to Place Headquarters</t>
+  </si>
+  <si>
+    <t>Please Wait for Other Camps to Place</t>
+  </si>
+  <si>
+    <t>Please Wait for Your Camp to Place</t>
+  </si>
+  <si>
+    <t>Please Wait for Other Players to Place Spawning Point {0}</t>
+  </si>
+  <si>
+    <t>Hold and Drag to Place Spawning Point</t>
+  </si>
+  <si>
+    <t>Next Wave Arrives in: {0}s</t>
+  </si>
+  <si>
+    <t>Remaining Time for Current Wave: {0}s</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Maximum tower limit reached</t>
+  </si>
+  <si>
+    <t>You can still place {0}  towers</t>
+  </si>
+  <si>
+    <t>Purchased</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Not Enough Coins</t>
+  </si>
+  <si>
+    <t>No Projectile Point at the Current Placement</t>
+  </si>
+  <si>
+    <t>Current Placement Is Too Steep</t>
+  </si>
+  <si>
+    <t>Your Finger Is Currently on the UI, Please Move It</t>
+  </si>
+  <si>
+    <t>Cannot Reach Headquarters from Current Placement, Please Choose Another Location</t>
+  </si>
+  <si>
+    <t>Current Placement Is Too Close to a Tower</t>
+  </si>
+  <si>
+    <t>Cannot Place on the Path</t>
+  </si>
+  <si>
+    <t>Current Placement Must Be Near a Tower</t>
+  </si>
+  <si>
+    <t>This is not your tower.</t>
+  </si>
+  <si>
+    <t>No such tower.</t>
+  </si>
+  <si>
+    <t>Wave: {0}/{1}</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_CurMonsterWaveIndex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波数:{0}/{1}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_CurMonsterWaveIndex_EndlessChallenge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波数:{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave: {0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_MaxLevelTower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_CanLevelUpTower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanUpgrade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow1_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow1_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow1_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow2_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow2_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow2_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow3_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow3_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow3_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow4_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow4_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow4_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow5_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow5_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow5_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow6_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow6_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow6_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow7_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow7_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow7_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow8_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow8_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow8_3</t>
   </si>
 </sst>
 </file>
@@ -876,21 +1613,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:E82"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -924,7 +1661,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -958,7 +1695,7 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -988,7 +1725,7 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -999,7 +1736,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1747,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1021,7 +1758,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1769,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1043,7 +1780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -1054,7 +1791,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1065,7 +1802,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -1076,7 +1813,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1087,7 +1824,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -1098,7 +1835,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -1109,7 +1846,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -1120,7 +1857,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -1131,7 +1868,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -1142,7 +1879,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -1153,7 +1890,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -1164,7 +1901,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -1175,7 +1912,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -1186,7 +1923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -1197,7 +1934,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -1208,7 +1945,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -1219,7 +1956,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -1230,7 +1967,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>33</v>
       </c>
@@ -1241,7 +1978,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -1252,7 +1989,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -1263,7 +2000,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -1274,7 +2011,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -1285,7 +2022,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -1296,7 +2033,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>39</v>
       </c>
@@ -1307,7 +2044,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>40</v>
       </c>
@@ -1318,7 +2055,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>41</v>
       </c>
@@ -1329,7 +2066,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>42</v>
       </c>
@@ -1340,7 +2077,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>43</v>
       </c>
@@ -1351,7 +2088,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>44</v>
       </c>
@@ -1362,7 +2099,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>45</v>
       </c>
@@ -1373,7 +2110,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>46</v>
       </c>
@@ -1384,7 +2121,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>47</v>
       </c>
@@ -1395,7 +2132,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>48</v>
       </c>
@@ -1406,7 +2143,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>49</v>
       </c>
@@ -1417,7 +2154,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>50</v>
       </c>
@@ -1428,7 +2165,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>51</v>
       </c>
@@ -1439,7 +2176,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -1450,7 +2187,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>53</v>
       </c>
@@ -1461,7 +2198,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>54</v>
       </c>
@@ -1472,7 +2209,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>55</v>
       </c>
@@ -1483,7 +2220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>56</v>
       </c>
@@ -1494,7 +2231,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>57</v>
       </c>
@@ -1505,7 +2242,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>58</v>
       </c>
@@ -1516,7 +2253,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>59</v>
       </c>
@@ -1527,7 +2264,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>60</v>
       </c>
@@ -1538,7 +2275,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>61</v>
       </c>
@@ -1549,7 +2286,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>62</v>
       </c>
@@ -1560,7 +2297,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>63</v>
       </c>
@@ -1571,7 +2308,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>64</v>
       </c>
@@ -1582,268 +2319,580 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>113</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>114</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E60" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>115</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>116</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>117</v>
       </c>
       <c r="C63" t="s">
         <v>139</v>
       </c>
+      <c r="D63" s="8"/>
       <c r="E63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>118</v>
       </c>
       <c r="C64" t="s">
         <v>139</v>
       </c>
+      <c r="D64" s="8"/>
       <c r="E64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>119</v>
       </c>
       <c r="C65" t="s">
         <v>140</v>
       </c>
-      <c r="E65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>120</v>
       </c>
       <c r="C66" t="s">
         <v>140</v>
       </c>
+      <c r="D66" s="8"/>
       <c r="E66" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>121</v>
       </c>
       <c r="C67" t="s">
         <v>140</v>
       </c>
+      <c r="D67" s="8"/>
       <c r="E67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>122</v>
       </c>
       <c r="C68" t="s">
         <v>141</v>
       </c>
-      <c r="E68" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>123</v>
       </c>
       <c r="C69" t="s">
         <v>141</v>
       </c>
-      <c r="E69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>124</v>
       </c>
       <c r="C70" t="s">
         <v>141</v>
       </c>
-      <c r="E70" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>126</v>
       </c>
       <c r="C71" t="s">
         <v>142</v>
       </c>
-      <c r="E71" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>127</v>
       </c>
       <c r="C72" t="s">
         <v>142</v>
       </c>
-      <c r="E72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>128</v>
       </c>
       <c r="C73" t="s">
         <v>142</v>
       </c>
-      <c r="E73" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>129</v>
       </c>
       <c r="C74" t="s">
         <v>143</v>
       </c>
-      <c r="E74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>130</v>
       </c>
       <c r="C75" t="s">
         <v>143</v>
       </c>
-      <c r="E75" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>131</v>
       </c>
       <c r="C76" t="s">
         <v>143</v>
       </c>
-      <c r="E76" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>132</v>
       </c>
       <c r="C77" t="s">
         <v>144</v>
       </c>
-      <c r="E77" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>133</v>
       </c>
       <c r="C78" t="s">
         <v>144</v>
       </c>
-      <c r="E78" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>134</v>
       </c>
       <c r="C79" t="s">
         <v>144</v>
       </c>
-      <c r="E79" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>135</v>
       </c>
-      <c r="C80" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C80" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>136</v>
       </c>
       <c r="C81" t="s">
         <v>145</v>
       </c>
+      <c r="D81" s="8"/>
       <c r="E81" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>137</v>
       </c>
       <c r="C82" t="s">
         <v>145</v>
       </c>
+      <c r="D82" s="8"/>
       <c r="E82" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>322</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>323</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>324</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>325</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>326</v>
+      </c>
+      <c r="C88" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>327</v>
+      </c>
+      <c r="C89" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>328</v>
+      </c>
+      <c r="C90" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>329</v>
+      </c>
+      <c r="C91" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>330</v>
+      </c>
+      <c r="C92" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>331</v>
+      </c>
+      <c r="C93" t="s">
+        <v>141</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>332</v>
+      </c>
+      <c r="C94" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>333</v>
+      </c>
+      <c r="C95" t="s">
+        <v>141</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>334</v>
+      </c>
+      <c r="C96" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>335</v>
+      </c>
+      <c r="C97" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>336</v>
+      </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>337</v>
+      </c>
+      <c r="C99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>338</v>
+      </c>
+      <c r="C100" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>339</v>
+      </c>
+      <c r="C101" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>341</v>
+      </c>
+      <c r="C103" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>342</v>
+      </c>
+      <c r="C104" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>343</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>344</v>
+      </c>
+      <c r="C106" t="s">
         <v>145</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>345</v>
+      </c>
+      <c r="C107" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1851,4 +2900,687 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DFB74-DA56-4C85-9A26-21F67180F990}">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+    <col min="3" max="5" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E48" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E55" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E56" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
@@ -1,38 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBFE8E9-4891-4B83-B041-317742DBC4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD6A4B7-EBCE-4932-A093-FBD7D36D4203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置表中的" sheetId="1" r:id="rId1"/>
     <sheet name="代码中的" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="515">
   <si>
     <t>##var</t>
   </si>
@@ -953,9 +942,6 @@
     <t>Start</t>
   </si>
   <si>
-    <t>Waiting for All to Be Ready</t>
-  </si>
-  <si>
     <t>Ready</t>
   </si>
   <si>
@@ -977,15 +963,6 @@
     <t>[Self]</t>
   </si>
   <si>
-    <t>Are you want to leave the room?</t>
-  </si>
-  <si>
-    <t>Network Disconnected</t>
-  </si>
-  <si>
-    <t>Currently not connected, please connect to the internet before proceeding!</t>
-  </si>
-  <si>
     <t>Update Complete</t>
   </si>
   <si>
@@ -995,21 +972,12 @@
     <t>Failed to Download Resources: {0} {1}</t>
   </si>
   <si>
-    <t>Are you want to exit the battle?</t>
-  </si>
-  <si>
     <t>Room Does Not Exist</t>
   </si>
   <si>
     <t>Room Creation Failed</t>
   </si>
   <si>
-    <t>Detected that you are still in the room, do you want to return to the room?</t>
-  </si>
-  <si>
-    <t>Detected that you are still in a battle, do you want to return to the battle?</t>
-  </si>
-  <si>
     <t>Wave End Reward Coins: {0}</t>
   </si>
   <si>
@@ -1019,33 +987,9 @@
     <t>Evenly Distributed Monster Kill Coins during Battle, Received: {0}</t>
   </si>
   <si>
-    <t>Hold and Drag to Place Headquarters</t>
-  </si>
-  <si>
-    <t>Please Wait for Other Camps to Place</t>
-  </si>
-  <si>
-    <t>Please Wait for Your Camp to Place</t>
-  </si>
-  <si>
-    <t>Please Wait for Other Players to Place Spawning Point {0}</t>
-  </si>
-  <si>
-    <t>Hold and Drag to Place Spawning Point</t>
-  </si>
-  <si>
-    <t>Next Wave Arrives in: {0}s</t>
-  </si>
-  <si>
-    <t>Remaining Time for Current Wave: {0}s</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>Maximum tower limit reached</t>
-  </si>
-  <si>
     <t>You can still place {0}  towers</t>
   </si>
   <si>
@@ -1055,39 +999,6 @@
     <t>Buy</t>
   </si>
   <si>
-    <t>Not Enough Coins</t>
-  </si>
-  <si>
-    <t>No Projectile Point at the Current Placement</t>
-  </si>
-  <si>
-    <t>Current Placement Is Too Steep</t>
-  </si>
-  <si>
-    <t>Your Finger Is Currently on the UI, Please Move It</t>
-  </si>
-  <si>
-    <t>Cannot Reach Headquarters from Current Placement, Please Choose Another Location</t>
-  </si>
-  <si>
-    <t>Current Placement Is Too Close to a Tower</t>
-  </si>
-  <si>
-    <t>Cannot Place on the Path</t>
-  </si>
-  <si>
-    <t>Current Placement Must Be Near a Tower</t>
-  </si>
-  <si>
-    <t>This is not your tower.</t>
-  </si>
-  <si>
-    <t>No such tower.</t>
-  </si>
-  <si>
-    <t>Wave: {0}/{1}</t>
-  </si>
-  <si>
     <t>TextCode_Key_Battle_CurMonsterWaveIndex</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1104,10 +1015,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Wave: {0}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>最高级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1202,13 +1109,680 @@
   </si>
   <si>
     <t>Text_Key_Desc_Tow8_3</t>
+  </si>
+  <si>
+    <t>存活&lt;color=#ffffff&gt;&lt;size=150&gt;{0}&lt;/size&gt;&lt;/color&gt;波</t>
+  </si>
+  <si>
+    <t>Survived &lt;color=#ffffff&gt;&lt;size=150&gt;{0}&lt;/size&gt;&lt;/color&gt; Waves</t>
+  </si>
+  <si>
+    <t>TextCode_Key_BattleEnd_ChallengeEnds1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_BattleEnd_ChallengeEnds2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战胜{0}%的玩家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defeated {0}% of Players</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abandon current scan?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>You will lose your progress and need to redo the scanning.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abandon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resume</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close without saving?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you leaving?</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>Leave the room?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave the game?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃当前扫描？</t>
+  </si>
+  <si>
+    <t>这将丢失你的进度，需要重新扫描。</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>放弃</t>
+  </si>
+  <si>
+    <t>关闭而不保存？</t>
+  </si>
+  <si>
+    <t>你的所有更改将不会被保存。</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>确定要离开吗？</t>
+  </si>
+  <si>
+    <t>离开房间？</t>
+  </si>
+  <si>
+    <t>留下</t>
+  </si>
+  <si>
+    <t>离开</t>
+  </si>
+  <si>
+    <t>退出游戏？</t>
+  </si>
+  <si>
+    <t>Are you sure you wanna log out from {0}?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你确定要登出{0}吗？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_AbandonCurrentScan_Title</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_AbandonCurrentScan_Des</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_AbandonCurrentScan_Cancel</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_AbandonCurrentScan_Confirm</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_CloseWithoutSaving_Title</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_CloseWithoutSaving_Des</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_CloseWithoutSaving_Cancel</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_CloseWithoutSaving_Confirm</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_AreYouLeaving_Title</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_AreYouLeaving_Cancel</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_AreYouLeaving_Confirm</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_LeaveTheRoom_Title</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_LeaveTheRoom_Des</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_LeaveTheRoom_Cancel</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_LeaveTheRoom_Confirm</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_LeaveTheGame_Title</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_LeaveTheGame_Des</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_LeaveTheGame_Cancel</t>
+  </si>
+  <si>
+    <t>离开后将无法回到本局游戏。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Name_TowCallMonster_1</t>
+  </si>
+  <si>
+    <t>突击小队</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_TowCallMonster_2</t>
+  </si>
+  <si>
+    <t>疗伤小队</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_TowCallMonster_3</t>
+  </si>
+  <si>
+    <t>怪物大军</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_TowCallMonster_4</t>
+  </si>
+  <si>
+    <t>蝙蝠男爵</t>
+  </si>
+  <si>
+    <t>Assault Team</t>
+  </si>
+  <si>
+    <t>Healing Team</t>
+  </si>
+  <si>
+    <t>Monster Army</t>
+  </si>
+  <si>
+    <t>Baron of Bats</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_Cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_Confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIPS</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>Sure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terrain thoroughly scanned? Click again to proceed.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_LeaveTheGame_Confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_WorldDes2</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_WorldDes3</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_WorldDes4</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_PicDes1</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_ScanBegin</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_ScanFinish</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_ScanConfirm</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_RoomStart</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_PlaceHQ</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_PlaceSP</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_BuyTower</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_CloseDLG</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_PlaceTower</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_TowerDetail</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_WaveStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold and drag your HQ onto the battlefield. 
+If it falls to the enemy, game over! </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase your preferred towers to fend off the invaders. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap to close.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>You may start the game once ready.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Drag to deploy defense towers. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remember, upgrades require 2 towers of the same type and level.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ready to start? Hit it now!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">They lurk in unseen dimensions, wreaking havoc on our homeland. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortunately, our top scientists have come up with “Space-Time Defense Towers' that put an end to their shenanigans. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander, annihilate the invaders and protect the world!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move gently to survey the area and bring the battlefield to life! The lighting is better not too dark or bright.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥官，歼灭入侵者，保卫世界！</t>
+  </si>
+  <si>
+    <t>准备好后，您可以开始游戏。</t>
+  </si>
+  <si>
+    <t>Evil spirits from a parallel realm have breached the boundaries of our reality.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>它们潜伏在看不见的位面中，肆虐着我们的家园。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运的是，科学家们设计出了“时空防御塔”，阻止它们作乱。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find an empty surface (tabletop or ground). Set up some obstacles to construct a easily defendable terrain.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>找一个空旷的表面（桌面或地面）。设置一些障碍物，构建一个易守的战场。</t>
+  </si>
+  <si>
+    <t>缓慢移动，扫描地形，生成战场！光线最好不要太暗或太亮。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住并拖动您的大本营到战场上。_x000D_如果它被敌人摧毁，游戏结束！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶灵从另一个平行空间侵入现实世界。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置恶灵的生成点。_x000D_它们将攻击您的大本营，谨慎设计路线！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买您喜欢的防御塔来抵挡恶灵。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击关闭。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖动部署防御塔。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形扫描完毕？再次点击继续。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需要消耗2个相同类型和级别的塔。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备好战斗了吗？点击开始！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果生成了理想的战场，点击确认！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you've created the ideal battlefield, click confirm!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_AreYouLeaving_Des</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_SaleTower_Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_SaleTower_Des</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_SaleTower_Cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_SaleTower_Confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售炮塔？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否以{0}价格出售炮塔?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_WorldDes1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_TapTower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击放置的防御塔。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总下载数量:{0}</t>
+  </si>
+  <si>
+    <t>当前已下载数量:{0}</t>
+  </si>
+  <si>
+    <t>总下载大小:{0}</t>
+  </si>
+  <si>
+    <t>当前已下载大小:{0}</t>
+  </si>
+  <si>
+    <t>TextCode_Key_UpdateRes_TotalNum</t>
+  </si>
+  <si>
+    <t>TextCode_Key_UpdateRes_CurDownNum</t>
+  </si>
+  <si>
+    <t>TextCode_Key_UpdateRes_TotalDownSize</t>
+  </si>
+  <si>
+    <t>TextCode_Key_UpdateRes_CurDownSize</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Total Downloads: {0}</t>
+  </si>
+  <si>
+    <t>Current Downloads: {0}</t>
+  </si>
+  <si>
+    <t>Total Download Size: {0}</t>
+  </si>
+  <si>
+    <t>Current Download Size: {0}</t>
+  </si>
+  <si>
+    <t>TextCode_Key_PersonalInfo_Abandon_Des</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否放弃修改?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_TowerLabel_Aoe</t>
+  </si>
+  <si>
+    <t>Text_Key_TowerLabel_ST</t>
+  </si>
+  <si>
+    <t>Aoe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_CannotLevelUpTower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CannotUpgrade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Room_MemberCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} player</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Room_MemberCountVs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}VS{1}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drag to place the headquarter</t>
+  </si>
+  <si>
+    <t>Drag to place your spawn point</t>
+  </si>
+  <si>
+    <t>Wave {0}/{1}</t>
+  </si>
+  <si>
+    <t>Wave {0}</t>
+  </si>
+  <si>
+    <t>Wait for other players to place their spawn points</t>
+  </si>
+  <si>
+    <t>Wait for the components to place their headquarter</t>
+  </si>
+  <si>
+    <t>Wait for your headquarter to be placed</t>
+  </si>
+  <si>
+    <t>Next wave in {0}s</t>
+  </si>
+  <si>
+    <t>Wave ends in {0}s</t>
+  </si>
+  <si>
+    <t>No changes will be saved.</t>
+  </si>
+  <si>
+    <t>You'll have to wait for the current game to end before rejoining your friends.</t>
+  </si>
+  <si>
+    <t>Place it within the battle field</t>
+  </si>
+  <si>
+    <t>This area is too steep. Opt for a flatter location.</t>
+  </si>
+  <si>
+    <t>This spot can’t reach the basecamp. Try another place.</t>
+  </si>
+  <si>
+    <t>Too close to other towers</t>
+  </si>
+  <si>
+    <t>Can't place it on the attack path</t>
+  </si>
+  <si>
+    <t>Place it near another tower</t>
+  </si>
+  <si>
+    <t>Move your finger from the UI</t>
+  </si>
+  <si>
+    <t>Waiting for all to be ready</t>
+  </si>
+  <si>
+    <t>Tap the tower you just placed.</t>
+  </si>
+  <si>
+    <t>Place the spawn point for the spirits. They will head for your HQ. So strategize your defense!</t>
+  </si>
+  <si>
+    <t>Sell the tower?</t>
+  </si>
+  <si>
+    <t>You will trade the cannon for {0}?</t>
+  </si>
+  <si>
+    <t>离开后，需要等待游戏结束、并重扫二维码加入</t>
+  </si>
+  <si>
+    <t>This is not your tower</t>
+  </si>
+  <si>
+    <t>No such tower</t>
+  </si>
+  <si>
+    <t>We noticed you exited a game without confirmation. It is still running. Do you want to continue?</t>
+  </si>
+  <si>
+    <t>We noticed you left a room without confirmation. Do you want to rejpin?</t>
+  </si>
+  <si>
+    <t>Not enough coins</t>
+  </si>
+  <si>
+    <t>You've reached the tower placement limit</t>
+  </si>
+  <si>
+    <t>Do you want to quit the battle?</t>
+  </si>
+  <si>
+    <t>Do you want to leave the room?</t>
+  </si>
+  <si>
+    <t>Please check your network and try connecting again.</t>
+  </si>
+  <si>
+    <t>Failed to connect</t>
+  </si>
+  <si>
+    <t>This game will end and you’ll need to start over.</t>
+  </si>
+  <si>
+    <t>TextCode_Key_BattlePut_IsOK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在此位置进行放置?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Place it in this location?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1253,6 +1827,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1322,7 +1903,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1336,6 +1917,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -1613,17 +2195,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.77734375" customWidth="1"/>
-    <col min="3" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2609,7 +3191,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>138</v>
@@ -2621,7 +3203,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>138</v>
@@ -2633,7 +3215,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>138</v>
@@ -2645,7 +3227,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>139</v>
@@ -2657,7 +3239,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="C88" t="s">
         <v>139</v>
@@ -2669,7 +3251,7 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="C89" t="s">
         <v>139</v>
@@ -2681,7 +3263,7 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="C90" t="s">
         <v>140</v>
@@ -2693,7 +3275,7 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C91" t="s">
         <v>140</v>
@@ -2705,7 +3287,7 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="C92" t="s">
         <v>140</v>
@@ -2717,7 +3299,7 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="C93" t="s">
         <v>141</v>
@@ -2729,7 +3311,7 @@
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="C94" t="s">
         <v>141</v>
@@ -2741,7 +3323,7 @@
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="C95" t="s">
         <v>141</v>
@@ -2753,7 +3335,7 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="C96" t="s">
         <v>142</v>
@@ -2765,7 +3347,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C97" t="s">
         <v>142</v>
@@ -2777,7 +3359,7 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="C98" t="s">
         <v>142</v>
@@ -2789,7 +3371,7 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="C99" t="s">
         <v>143</v>
@@ -2801,7 +3383,7 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="C100" t="s">
         <v>143</v>
@@ -2813,7 +3395,7 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C101" t="s">
         <v>143</v>
@@ -2825,7 +3407,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="C102" t="s">
         <v>144</v>
@@ -2837,7 +3419,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C103" t="s">
         <v>144</v>
@@ -2849,7 +3431,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="C104" t="s">
         <v>144</v>
@@ -2861,7 +3443,7 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>156</v>
@@ -2873,7 +3455,7 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="C106" t="s">
         <v>145</v>
@@ -2885,7 +3467,7 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="C107" t="s">
         <v>145</v>
@@ -2893,6 +3475,72 @@
       <c r="D107" s="8"/>
       <c r="E107" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>373</v>
+      </c>
+      <c r="C108" t="s">
+        <v>374</v>
+      </c>
+      <c r="E108" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>375</v>
+      </c>
+      <c r="C109" t="s">
+        <v>376</v>
+      </c>
+      <c r="E109" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>377</v>
+      </c>
+      <c r="C110" t="s">
+        <v>378</v>
+      </c>
+      <c r="E110" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>379</v>
+      </c>
+      <c r="C111" t="s">
+        <v>380</v>
+      </c>
+      <c r="E111" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>465</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>466</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -2904,16 +3552,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DFB74-DA56-4C85-9A26-21F67180F990}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="50.44140625" customWidth="1"/>
-    <col min="3" max="5" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2965,622 +3615,1260 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" t="s">
-        <v>260</v>
+        <v>454</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" t="s">
-        <v>261</v>
+        <v>455</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" t="s">
-        <v>162</v>
+        <v>456</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" t="s">
-        <v>260</v>
+        <v>457</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" t="s">
-        <v>173</v>
+        <v>164</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>174</v>
+      <c r="B13" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>176</v>
+      <c r="B14" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" t="s">
-        <v>270</v>
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>182</v>
+      <c r="B17" t="s">
+        <v>174</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>184</v>
+      <c r="B18" t="s">
+        <v>176</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>274</v>
+        <v>181</v>
+      </c>
+      <c r="E20" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E21" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E22" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E23" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>196</v>
+        <v>472</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" t="s">
-        <v>278</v>
+        <v>474</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>198</v>
+        <v>475</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" t="s">
-        <v>279</v>
+        <v>476</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E26" t="s">
-        <v>280</v>
+        <v>189</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E27" t="s">
-        <v>281</v>
+        <v>191</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E28" t="s">
-        <v>282</v>
+        <v>193</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E29" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E31" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" t="s">
-        <v>286</v>
+        <v>201</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E33" t="s">
-        <v>287</v>
+        <v>203</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" t="s">
-        <v>216</v>
-      </c>
-      <c r="E35" t="s">
-        <v>288</v>
+        <v>206</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E36" t="s">
-        <v>289</v>
+        <v>209</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E37" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E38" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E40" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>315</v>
+        <v>217</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E42" t="s">
-        <v>293</v>
+        <v>219</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E43" t="s">
-        <v>294</v>
+        <v>220</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44" t="s">
-        <v>295</v>
+        <v>223</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E45" t="s">
-        <v>296</v>
+        <v>224</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E46" t="s">
-        <v>297</v>
+        <v>286</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E47" t="s">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E48" t="s">
-        <v>299</v>
+        <v>226</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E49" t="s">
-        <v>300</v>
+        <v>228</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E50" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E51" t="s">
-        <v>302</v>
+        <v>232</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E52" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E53" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E54" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E55" t="s">
-        <v>306</v>
+        <v>240</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E56" t="s">
-        <v>307</v>
+        <v>242</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E58" t="s">
-        <v>308</v>
+        <v>246</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E59" t="s">
-        <v>309</v>
+        <v>248</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>320</v>
+        <v>250</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C70" t="s">
         <v>319</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>321</v>
+      <c r="E70" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C75" t="s">
+        <v>389</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C78" t="s">
+        <v>340</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C79" t="s">
+        <v>341</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C80" t="s">
+        <v>342</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C81" t="s">
+        <v>343</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C82" t="s">
+        <v>344</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C83" t="s">
+        <v>345</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C84" t="s">
+        <v>346</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C86" t="s">
+        <v>344</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C88" t="s">
+        <v>347</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C90" t="s">
+        <v>348</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C91" t="s">
+        <v>349</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C92" t="s">
+        <v>350</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C94" t="s">
+        <v>348</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C95" t="s">
+        <v>349</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C105" t="s">
+        <v>419</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C106" t="s">
+        <v>425</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3F1734-5E2C-4CC1-A3A0-DDC865143DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83072867-1364-4022-904B-31408E52CC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置表中的" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1006">
   <si>
     <t>##var</t>
   </si>
@@ -1637,12 +1637,6 @@
     <t>TextCode_Key_Battle_PutHomeText2</t>
   </si>
   <si>
-    <t>请等待其他阵营进行放置</t>
-  </si>
-  <si>
-    <t>Wait for the components to place their headquarter</t>
-  </si>
-  <si>
     <t>TextCode_Key_Battle_PutHomeText3</t>
   </si>
   <si>
@@ -1655,19 +1649,10 @@
     <t>TextCode_Key_Battle_PutMonsterPoint1</t>
   </si>
   <si>
-    <t>请等待其他玩家放置刷怪点{0}</t>
-  </si>
-  <si>
-    <t>Wait for other players to place their spawn points</t>
-  </si>
-  <si>
     <t>TextCode_Key_Battle_PutMonsterPoint2</t>
   </si>
   <si>
     <t>请按住拖拉放置刷怪点</t>
-  </si>
-  <si>
-    <t>Drag to place your spawn point</t>
   </si>
   <si>
     <t>TextCode_Key_Battle_CurMonsterWaveIndex</t>
@@ -2775,13 +2760,6 @@
     <t>TextCode_Key_NeedCameraPermission</t>
   </si>
   <si>
-    <t>Summons lightning to strike a single enemy. Since it requires accumulating energy from the cloud layer, the higher it is from the enemy, the greater the damage.</t>
-  </si>
-  <si>
-    <t>召唤雷电攻击单个敌人。因为需要积蓄云层中的能量，所以它相对敌人的位置越高，伤害越高。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>TextCode_Key_OwnerRescan_Member</t>
   </si>
   <si>
@@ -2857,10 +2835,6 @@
     <t>There will be no rewards for this game</t>
   </si>
   <si>
-    <t>点击后开始扫描战场，请缓慢拍摄场景。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Drag your castle onto the battlefield and protect it.</t>
   </si>
   <si>
@@ -2887,9 +2861,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Tap to start scanning the battlefield. Please take the scene slowly.</t>
-  </si>
-  <si>
     <t>After scanning a large enough battlefield, Tap to continue.</t>
   </si>
   <si>
@@ -2912,13 +2883,362 @@
   <si>
     <t>消耗2个相同的塔进行升级。</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_MiFeng1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_MiFeng2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_MiFeng3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_BianFu1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_BianFu2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_BianFu3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhiZhu1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhiZhu2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhiZhu3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhongZi1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Gui1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Gui2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Gui3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Dan1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Dan2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Niao1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Niao3</t>
+  </si>
+  <si>
+    <t>随处可见的黄蜂士兵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>身强体壮的黄蜂队长</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大而凶猛的黄蜂女王</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Bee Soldier  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mighty Bee Captain  </t>
+  </si>
+  <si>
+    <t>Gigantic and Fierce Bee Queen</t>
+  </si>
+  <si>
+    <t>成群的小型蝙蝠</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>成群的巨型蝙蝠</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>强大的蝙蝠领主</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Swarming Giant Bats  </t>
+  </si>
+  <si>
+    <t>Powerful Bat Lord</t>
+  </si>
+  <si>
+    <t>行动迅速的小型蜘蛛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速且强大的蜘蛛女王</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动迅速的巨型蜘蛛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有强大治愈能力的魔王花</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有治疗能力的邪恶之花</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有治疗能力的邪恶种子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能短暂隐身的小幽灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能短暂隐身的大型幽灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能短暂隐身的幽灵之王</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost King with Short Invisibility</t>
+  </si>
+  <si>
+    <t>Large Ghost with Short Invisibility</t>
+  </si>
+  <si>
+    <t>来自深渊的恶魔士兵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能弱化敌人的暗影恶魔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能弱化敌人的恶魔领主</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demon Lord, can weaken foes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Demon Soldier  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能加速友军的雏鸟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能加速友军的巨鸟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能加速友军的强大的天空领主</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Swarming Little Bats  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Swift Small Spiders  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Swift Giant Spiders  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast and Mighty Spider Queen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Evil </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seed,can heal allies</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evil Flower,can heal allies</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powerful Demon Flower,can heal allies</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small Ghost with Short Invisibility</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Demon, can weaken foes  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chick, speeds up allies  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Bird, speeds up allies  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mighty Sky Lord, speeds up allies</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待房主放置大本营</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>请等待其他玩家放置刷怪点{0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait for other players to place the {0}.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drag to place the portal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait for  other players to place the headquarter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summons lightning to strike two enemies. Since it requires accumulating energy from the cloud layer, the higher it is from the enemy, the greater the damage.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>The ultimate form, with a chance to critically strike on every attack, deals massive damage.</t>
+  </si>
+  <si>
+    <t>Ultimate form, capable of firing powerful ammunition that causes massive area explosions.</t>
+  </si>
+  <si>
+    <t>终极形态，不仅威力强大，还有概率产生暴击，造成高高额伤害。</t>
+  </si>
+  <si>
+    <t>终极形态，能够射出产生超大范围爆炸的强力弹药。</t>
+  </si>
+  <si>
+    <t>终极形态，持续喷出的火焰将点燃所有触碰到的敌人。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate form, continuously emits flames that ignite any enemy they touch.</t>
+  </si>
+  <si>
+    <t>终极形态，产生全范围无死角的致命剧毒，消灭范围内的所有敌人。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate form, generates a deadly poison that covers the entire area, eliminating all enemies within range.</t>
+  </si>
+  <si>
+    <t>Ultimate form, able to unleash three powerful projectiles in succession, annihilating any formidable foes.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极形态，能够连续发出3发强大的炮弹，摧毁任何可怕的敌人。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤雷电攻击1个敌人。因为需要积蓄云层中的能量，所以它相对敌人的位置越高，伤害越高。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极形态，召唤雷电攻击3个敌人。在高处能发挥全部实力。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate form, summons lightning to strike three enemies. It's most effective when positioned high above.</t>
+  </si>
+  <si>
+    <t>终极形态，能够发射2个冰球来减速不同位置的大片敌人。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate form, launches two ice balls to slow down large groups of enemies in different locations.</t>
+  </si>
+  <si>
+    <t>终极形态，超大的作用范围能轻松地强化所有友军。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate form, with an enormous range, can easily enhance all allied forces.</t>
+  </si>
+  <si>
+    <t>TextCode_Key_Net_LoginInAtOtherWhere</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的账号已在其他地方登录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your account is logged in elsewhere</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎来到教学！请点击开始扫描战场。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome to the tutorial! Please tap to begin scanning the battlefield.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_Refresh</t>
+  </si>
+  <si>
+    <t>点击刷新购买列表。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click to refresh the purchase list.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3055,7 +3375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3082,7 +3402,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -3360,13 +3685,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V262"/>
+  <dimension ref="A1:V292"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="33.625" customWidth="1"/>
@@ -3375,7 +3700,7 @@
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="10" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3409,7 +3734,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="11" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3443,7 +3768,7 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="10" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3473,7 +3798,7 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -3484,7 +3809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -3495,7 +3820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -3506,7 +3831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -3517,7 +3842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -3528,7 +3853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -3539,7 +3864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -3550,7 +3875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -3561,7 +3886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -3572,7 +3897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -3583,7 +3908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -3594,7 +3919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -3605,7 +3930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -3616,7 +3941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -3627,7 +3952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -3638,7 +3963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>43</v>
       </c>
@@ -3649,7 +3974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -3660,7 +3985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>49</v>
       </c>
@@ -3671,7 +3996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>52</v>
       </c>
@@ -3682,7 +4007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -3693,7 +4018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
         <v>56</v>
       </c>
@@ -3704,7 +4029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
         <v>57</v>
       </c>
@@ -3715,7 +4040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>60</v>
       </c>
@@ -3726,7 +4051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
         <v>61</v>
       </c>
@@ -3737,7 +4062,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -3748,7 +4073,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
         <v>67</v>
       </c>
@@ -3759,7 +4084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5">
       <c r="B30" t="s">
         <v>68</v>
       </c>
@@ -3770,7 +4095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
         <v>69</v>
       </c>
@@ -3781,7 +4106,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5">
       <c r="B32" t="s">
         <v>72</v>
       </c>
@@ -3792,7 +4117,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>73</v>
       </c>
@@ -3803,7 +4128,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5">
       <c r="B34" t="s">
         <v>74</v>
       </c>
@@ -3814,7 +4139,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
         <v>77</v>
       </c>
@@ -3825,7 +4150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
         <v>78</v>
       </c>
@@ -3836,7 +4161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
         <v>79</v>
       </c>
@@ -3847,7 +4172,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5">
       <c r="B38" t="s">
         <v>82</v>
       </c>
@@ -3858,7 +4183,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5">
       <c r="B39" t="s">
         <v>85</v>
       </c>
@@ -3869,7 +4194,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5">
       <c r="B40" t="s">
         <v>86</v>
       </c>
@@ -3880,7 +4205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5">
       <c r="B41" t="s">
         <v>87</v>
       </c>
@@ -3891,7 +4216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5">
       <c r="B42" t="s">
         <v>88</v>
       </c>
@@ -3902,7 +4227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5">
       <c r="B43" t="s">
         <v>89</v>
       </c>
@@ -3913,7 +4238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5">
       <c r="B44" t="s">
         <v>90</v>
       </c>
@@ -3924,7 +4249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5">
       <c r="B45" t="s">
         <v>91</v>
       </c>
@@ -3935,7 +4260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5">
       <c r="B46" t="s">
         <v>92</v>
       </c>
@@ -3946,7 +4271,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5">
       <c r="B47" t="s">
         <v>93</v>
       </c>
@@ -3957,7 +4282,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5">
       <c r="B48" t="s">
         <v>94</v>
       </c>
@@ -3968,7 +4293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5">
       <c r="B49" t="s">
         <v>95</v>
       </c>
@@ -3979,7 +4304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5">
       <c r="B50" t="s">
         <v>96</v>
       </c>
@@ -3990,7 +4315,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5">
       <c r="B51" t="s">
         <v>99</v>
       </c>
@@ -4001,7 +4326,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5">
       <c r="B52" t="s">
         <v>102</v>
       </c>
@@ -4012,7 +4337,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5">
       <c r="B53" t="s">
         <v>105</v>
       </c>
@@ -4023,7 +4348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5">
       <c r="B54" t="s">
         <v>106</v>
       </c>
@@ -4034,7 +4359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5">
       <c r="B55" t="s">
         <v>107</v>
       </c>
@@ -4045,7 +4370,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5">
       <c r="B56" t="s">
         <v>110</v>
       </c>
@@ -4056,7 +4381,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5">
       <c r="B57" t="s">
         <v>111</v>
       </c>
@@ -4067,295 +4392,295 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5">
       <c r="B59" t="s">
         <v>112</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
       <c r="B60" t="s">
         <v>113</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
       <c r="B61" t="s">
         <v>114</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>869</v>
+        <v>983</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
       <c r="B62" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
       <c r="B63" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
       <c r="B64" t="s">
         <v>117</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>867</v>
+        <v>984</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
       <c r="B65" t="s">
         <v>118</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
       <c r="B66" t="s">
         <v>119</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
       <c r="B67" t="s">
         <v>120</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>868</v>
+        <v>985</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
       <c r="B68" t="s">
         <v>121</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
       <c r="B69" t="s">
         <v>122</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
       <c r="B70" t="s">
         <v>123</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>870</v>
+        <v>987</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
       <c r="B71" t="s">
         <v>124</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
       <c r="B72" t="s">
         <v>125</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
       <c r="B73" t="s">
         <v>126</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>871</v>
+        <v>990</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
       <c r="B74" t="s">
         <v>127</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>883</v>
+        <v>991</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
       <c r="B75" t="s">
         <v>128</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>883</v>
+        <v>991</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
       <c r="B76" t="s">
         <v>129</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>883</v>
+        <v>992</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
       <c r="B77" t="s">
         <v>130</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
       <c r="B78" t="s">
         <v>131</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
       <c r="B79" t="s">
         <v>132</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>872</v>
+        <v>994</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
       <c r="B80" t="s">
         <v>133</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
       <c r="B81" t="s">
         <v>134</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
       <c r="B82" t="s">
         <v>135</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>873</v>
+        <v>996</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
       <c r="B83" t="s">
         <v>136</v>
       </c>
@@ -4366,7 +4691,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5">
       <c r="B84" t="s">
         <v>139</v>
       </c>
@@ -4377,7 +4702,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5">
       <c r="B85" t="s">
         <v>140</v>
       </c>
@@ -4388,7 +4713,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5">
       <c r="B86" t="s">
         <v>141</v>
       </c>
@@ -4399,7 +4724,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5">
       <c r="B87" t="s">
         <v>144</v>
       </c>
@@ -4410,7 +4735,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5">
       <c r="B88" t="s">
         <v>145</v>
       </c>
@@ -4421,7 +4746,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5">
       <c r="B89" t="s">
         <v>146</v>
       </c>
@@ -4432,7 +4757,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5">
       <c r="B90" t="s">
         <v>149</v>
       </c>
@@ -4443,7 +4768,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5">
       <c r="B91" t="s">
         <v>150</v>
       </c>
@@ -4454,7 +4779,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5">
       <c r="B92" t="s">
         <v>151</v>
       </c>
@@ -4465,7 +4790,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5">
       <c r="B93" t="s">
         <v>154</v>
       </c>
@@ -4476,7 +4801,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5">
       <c r="B94" t="s">
         <v>155</v>
       </c>
@@ -4487,7 +4812,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5">
       <c r="B95" t="s">
         <v>156</v>
       </c>
@@ -4498,7 +4823,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5">
       <c r="B96" t="s">
         <v>159</v>
       </c>
@@ -4509,7 +4834,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5">
       <c r="B97" t="s">
         <v>160</v>
       </c>
@@ -4520,7 +4845,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5">
       <c r="B98" t="s">
         <v>161</v>
       </c>
@@ -4531,7 +4856,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5">
       <c r="B99" t="s">
         <v>164</v>
       </c>
@@ -4542,7 +4867,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5">
       <c r="B100" t="s">
         <v>165</v>
       </c>
@@ -4553,7 +4878,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5">
       <c r="B101" t="s">
         <v>166</v>
       </c>
@@ -4564,7 +4889,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5">
       <c r="B102" t="s">
         <v>169</v>
       </c>
@@ -4575,7 +4900,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5">
       <c r="B103" t="s">
         <v>170</v>
       </c>
@@ -4586,7 +4911,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5">
       <c r="B104" t="s">
         <v>171</v>
       </c>
@@ -4597,7 +4922,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5">
       <c r="B105" t="s">
         <v>174</v>
       </c>
@@ -4608,7 +4933,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5">
       <c r="B106" t="s">
         <v>175</v>
       </c>
@@ -4619,7 +4944,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5">
       <c r="B107" t="s">
         <v>176</v>
       </c>
@@ -4630,7 +4955,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5">
       <c r="B108" t="s">
         <v>179</v>
       </c>
@@ -4641,7 +4966,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5">
       <c r="B109" t="s">
         <v>180</v>
       </c>
@@ -4652,7 +4977,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5">
       <c r="B110" t="s">
         <v>181</v>
       </c>
@@ -4663,7 +4988,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5">
       <c r="B111" t="s">
         <v>184</v>
       </c>
@@ -4674,7 +4999,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5">
       <c r="B112" t="s">
         <v>185</v>
       </c>
@@ -4685,7 +5010,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5">
       <c r="B113" t="s">
         <v>186</v>
       </c>
@@ -4696,7 +5021,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5">
       <c r="B114" t="s">
         <v>189</v>
       </c>
@@ -4707,7 +5032,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5">
       <c r="B115" t="s">
         <v>190</v>
       </c>
@@ -4718,7 +5043,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5">
       <c r="B116" t="s">
         <v>191</v>
       </c>
@@ -4729,7 +5054,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5">
       <c r="B117" t="s">
         <v>194</v>
       </c>
@@ -4740,7 +5065,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5">
       <c r="B118" t="s">
         <v>195</v>
       </c>
@@ -4751,7 +5076,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5">
       <c r="B119" t="s">
         <v>196</v>
       </c>
@@ -4762,7 +5087,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5">
       <c r="B120" t="s">
         <v>199</v>
       </c>
@@ -4773,7 +5098,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5">
       <c r="B121" t="s">
         <v>200</v>
       </c>
@@ -4784,7 +5109,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5">
       <c r="B122" t="s">
         <v>201</v>
       </c>
@@ -4795,7 +5120,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5">
       <c r="B123" t="s">
         <v>204</v>
       </c>
@@ -4806,7 +5131,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5">
       <c r="B124" t="s">
         <v>205</v>
       </c>
@@ -4817,7 +5142,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5">
       <c r="B125" t="s">
         <v>206</v>
       </c>
@@ -4828,7 +5153,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5">
       <c r="B126" t="s">
         <v>209</v>
       </c>
@@ -4839,7 +5164,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5">
       <c r="B127" t="s">
         <v>210</v>
       </c>
@@ -4850,7 +5175,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5">
       <c r="B128" t="s">
         <v>211</v>
       </c>
@@ -4861,7 +5186,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5">
       <c r="B129" t="s">
         <v>214</v>
       </c>
@@ -4872,7 +5197,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5">
       <c r="B130" t="s">
         <v>215</v>
       </c>
@@ -4883,7 +5208,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5">
       <c r="B132" t="s">
         <v>216</v>
       </c>
@@ -4894,7 +5219,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5">
       <c r="B133" t="s">
         <v>219</v>
       </c>
@@ -4905,7 +5230,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5">
       <c r="B134" t="s">
         <v>222</v>
       </c>
@@ -4916,7 +5241,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5">
       <c r="B135" t="s">
         <v>225</v>
       </c>
@@ -4927,7 +5252,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5">
       <c r="B137" s="6" t="s">
         <v>228</v>
       </c>
@@ -4938,7 +5263,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5">
       <c r="B138" s="6" t="s">
         <v>231</v>
       </c>
@@ -4949,7 +5274,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5">
       <c r="B139" s="6" t="s">
         <v>234</v>
       </c>
@@ -4960,7 +5285,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5">
       <c r="B140" s="6" t="s">
         <v>237</v>
       </c>
@@ -4971,7 +5296,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5">
       <c r="B141" s="6" t="s">
         <v>240</v>
       </c>
@@ -4982,7 +5307,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5">
       <c r="B142" s="6" t="s">
         <v>243</v>
       </c>
@@ -4993,7 +5318,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5">
       <c r="B143" s="6" t="s">
         <v>245</v>
       </c>
@@ -5004,7 +5329,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5">
       <c r="B144" s="6" t="s">
         <v>247</v>
       </c>
@@ -5015,7 +5340,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5">
       <c r="B145" s="6" t="s">
         <v>249</v>
       </c>
@@ -5026,7 +5351,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5">
       <c r="B147" s="12" t="s">
         <v>251</v>
       </c>
@@ -5037,7 +5362,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5">
       <c r="B148" s="12" t="s">
         <v>254</v>
       </c>
@@ -5048,7 +5373,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5">
       <c r="B149" s="12" t="s">
         <v>255</v>
       </c>
@@ -5059,7 +5384,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5">
       <c r="B150" s="12" t="s">
         <v>256</v>
       </c>
@@ -5070,7 +5395,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5">
       <c r="B151" s="12" t="s">
         <v>259</v>
       </c>
@@ -5081,7 +5406,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5">
       <c r="B152" s="12" t="s">
         <v>260</v>
       </c>
@@ -5092,7 +5417,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5">
       <c r="B153" s="12" t="s">
         <v>261</v>
       </c>
@@ -5103,7 +5428,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5">
       <c r="B154" s="12" t="s">
         <v>264</v>
       </c>
@@ -5114,7 +5439,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5">
       <c r="B155" s="12" t="s">
         <v>265</v>
       </c>
@@ -5125,7 +5450,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5">
       <c r="B156" s="12" t="s">
         <v>266</v>
       </c>
@@ -5136,7 +5461,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5">
       <c r="B157" s="12" t="s">
         <v>269</v>
       </c>
@@ -5147,7 +5472,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5">
       <c r="B158" s="12" t="s">
         <v>270</v>
       </c>
@@ -5158,7 +5483,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5">
       <c r="B159" s="12" t="s">
         <v>271</v>
       </c>
@@ -5169,7 +5494,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5">
       <c r="B160" s="12" t="s">
         <v>274</v>
       </c>
@@ -5180,7 +5505,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5">
       <c r="B161" s="12" t="s">
         <v>275</v>
       </c>
@@ -5191,7 +5516,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5">
       <c r="B162" s="12" t="s">
         <v>276</v>
       </c>
@@ -5202,7 +5527,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5">
       <c r="B163" s="12" t="s">
         <v>279</v>
       </c>
@@ -5213,7 +5538,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5">
       <c r="B164" s="12" t="s">
         <v>280</v>
       </c>
@@ -5224,7 +5549,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5">
       <c r="B165" s="12" t="s">
         <v>281</v>
       </c>
@@ -5235,7 +5560,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5">
       <c r="B166" s="12" t="s">
         <v>284</v>
       </c>
@@ -5246,7 +5571,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5">
       <c r="B167" s="12" t="s">
         <v>285</v>
       </c>
@@ -5257,7 +5582,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5">
       <c r="B168" s="12" t="s">
         <v>286</v>
       </c>
@@ -5268,7 +5593,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:5">
       <c r="B169" s="12" t="s">
         <v>289</v>
       </c>
@@ -5279,7 +5604,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5">
       <c r="B170" s="12" t="s">
         <v>290</v>
       </c>
@@ -5290,7 +5615,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5">
       <c r="B171" s="12" t="s">
         <v>291</v>
       </c>
@@ -5301,7 +5626,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5">
       <c r="B172" s="12" t="s">
         <v>294</v>
       </c>
@@ -5312,7 +5637,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5">
       <c r="B173" s="12" t="s">
         <v>295</v>
       </c>
@@ -5323,7 +5648,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:5">
       <c r="B174" s="12" t="s">
         <v>296</v>
       </c>
@@ -5334,7 +5659,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5">
       <c r="B175" s="12" t="s">
         <v>299</v>
       </c>
@@ -5345,7 +5670,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:5">
       <c r="B176" s="12" t="s">
         <v>300</v>
       </c>
@@ -5356,7 +5681,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5">
       <c r="B177" s="12" t="s">
         <v>301</v>
       </c>
@@ -5367,7 +5692,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:5">
       <c r="B178" s="12" t="s">
         <v>304</v>
       </c>
@@ -5378,7 +5703,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:5">
       <c r="B179" s="12" t="s">
         <v>305</v>
       </c>
@@ -5389,7 +5714,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:5">
       <c r="B180" s="12" t="s">
         <v>306</v>
       </c>
@@ -5400,7 +5725,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:5">
       <c r="B181" s="12" t="s">
         <v>309</v>
       </c>
@@ -5411,7 +5736,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5">
       <c r="B182" s="12" t="s">
         <v>310</v>
       </c>
@@ -5422,7 +5747,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:5">
       <c r="B183" s="12" t="s">
         <v>311</v>
       </c>
@@ -5433,7 +5758,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5">
       <c r="B184" s="12" t="s">
         <v>314</v>
       </c>
@@ -5444,7 +5769,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5">
       <c r="B185" s="12" t="s">
         <v>315</v>
       </c>
@@ -5455,7 +5780,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5">
       <c r="B186" s="12" t="s">
         <v>316</v>
       </c>
@@ -5466,7 +5791,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5">
       <c r="B187" s="12" t="s">
         <v>319</v>
       </c>
@@ -5477,7 +5802,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:5">
       <c r="B188" s="12" t="s">
         <v>320</v>
       </c>
@@ -5488,7 +5813,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5">
       <c r="B189" s="12" t="s">
         <v>321</v>
       </c>
@@ -5499,7 +5824,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5">
       <c r="B190" s="12" t="s">
         <v>324</v>
       </c>
@@ -5510,7 +5835,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5">
       <c r="B191" s="12" t="s">
         <v>325</v>
       </c>
@@ -5521,7 +5846,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:5">
       <c r="B192" s="12" t="s">
         <v>326</v>
       </c>
@@ -5532,7 +5857,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:5">
       <c r="B193" s="12" t="s">
         <v>329</v>
       </c>
@@ -5543,7 +5868,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5">
       <c r="B194" s="12" t="s">
         <v>330</v>
       </c>
@@ -5554,7 +5879,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:5">
       <c r="B195" s="12" t="s">
         <v>331</v>
       </c>
@@ -5565,7 +5890,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:5">
       <c r="B196" s="12" t="s">
         <v>334</v>
       </c>
@@ -5576,7 +5901,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:5">
       <c r="B197" s="12" t="s">
         <v>335</v>
       </c>
@@ -5587,7 +5912,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:5">
       <c r="B198" s="12" t="s">
         <v>336</v>
       </c>
@@ -5598,7 +5923,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:5">
       <c r="B199" s="12" t="s">
         <v>339</v>
       </c>
@@ -5609,7 +5934,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:5">
       <c r="B200" s="12" t="s">
         <v>340</v>
       </c>
@@ -5620,7 +5945,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:5">
       <c r="B201" s="12" t="s">
         <v>341</v>
       </c>
@@ -5631,7 +5956,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:5">
       <c r="B202" s="12" t="s">
         <v>344</v>
       </c>
@@ -5642,7 +5967,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:5">
       <c r="B203" s="12" t="s">
         <v>345</v>
       </c>
@@ -5653,7 +5978,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:5">
       <c r="B204" s="12" t="s">
         <v>346</v>
       </c>
@@ -5664,7 +5989,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:5">
       <c r="B205" s="12" t="s">
         <v>349</v>
       </c>
@@ -5675,7 +6000,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:5">
       <c r="B206" s="12" t="s">
         <v>350</v>
       </c>
@@ -5686,7 +6011,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:5">
       <c r="B207" s="12" t="s">
         <v>351</v>
       </c>
@@ -5697,7 +6022,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:5">
       <c r="B208" s="12" t="s">
         <v>354</v>
       </c>
@@ -5708,7 +6033,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:5">
       <c r="B209" s="12" t="s">
         <v>355</v>
       </c>
@@ -5719,7 +6044,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:5">
       <c r="B210" s="12" t="s">
         <v>356</v>
       </c>
@@ -5730,7 +6055,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:5">
       <c r="B211" s="12" t="s">
         <v>359</v>
       </c>
@@ -5741,7 +6066,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:5">
       <c r="B212" s="12" t="s">
         <v>360</v>
       </c>
@@ -5752,7 +6077,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:5">
       <c r="B213" s="12" t="s">
         <v>361</v>
       </c>
@@ -5763,7 +6088,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:5">
       <c r="B214" s="12" t="s">
         <v>364</v>
       </c>
@@ -5774,7 +6099,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:5">
       <c r="B215" s="12" t="s">
         <v>365</v>
       </c>
@@ -5785,7 +6110,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:5">
       <c r="B216" s="12" t="s">
         <v>366</v>
       </c>
@@ -5796,7 +6121,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:5">
       <c r="B217" s="12" t="s">
         <v>369</v>
       </c>
@@ -5807,7 +6132,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:5">
       <c r="B218" s="12" t="s">
         <v>370</v>
       </c>
@@ -5818,7 +6143,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:5">
       <c r="B220" s="6" t="s">
         <v>371</v>
       </c>
@@ -5829,7 +6154,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:5">
       <c r="B221" t="s">
         <v>372</v>
       </c>
@@ -5840,7 +6165,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:5">
       <c r="B222" t="s">
         <v>373</v>
       </c>
@@ -5851,7 +6176,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:5">
       <c r="B223" t="s">
         <v>374</v>
       </c>
@@ -5862,7 +6187,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:5">
       <c r="B224" t="s">
         <v>375</v>
       </c>
@@ -5873,7 +6198,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:5">
       <c r="B225" t="s">
         <v>376</v>
       </c>
@@ -5884,7 +6209,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:5">
       <c r="B226" t="s">
         <v>377</v>
       </c>
@@ -5895,7 +6220,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:5">
       <c r="B227" t="s">
         <v>379</v>
       </c>
@@ -5906,7 +6231,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:5">
       <c r="B228" t="s">
         <v>380</v>
       </c>
@@ -5917,7 +6242,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:5">
       <c r="B229" t="s">
         <v>381</v>
       </c>
@@ -5928,7 +6253,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:5">
       <c r="B230" t="s">
         <v>383</v>
       </c>
@@ -5939,7 +6264,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:5">
       <c r="B231" t="s">
         <v>384</v>
       </c>
@@ -5950,7 +6275,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:5">
       <c r="B232" t="s">
         <v>385</v>
       </c>
@@ -5961,7 +6286,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:5">
       <c r="B233" t="s">
         <v>387</v>
       </c>
@@ -5972,7 +6297,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:5">
       <c r="B234" t="s">
         <v>388</v>
       </c>
@@ -5983,7 +6308,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:5">
       <c r="B235" t="s">
         <v>389</v>
       </c>
@@ -5994,7 +6319,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:5">
       <c r="B236" t="s">
         <v>390</v>
       </c>
@@ -6005,7 +6330,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:5">
       <c r="B237" t="s">
         <v>391</v>
       </c>
@@ -6016,7 +6341,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:5">
       <c r="B238" t="s">
         <v>392</v>
       </c>
@@ -6027,7 +6352,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:5">
       <c r="B239" t="s">
         <v>393</v>
       </c>
@@ -6038,7 +6363,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:5">
       <c r="B240" t="s">
         <v>394</v>
       </c>
@@ -6049,7 +6374,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:6">
       <c r="B241" t="s">
         <v>395</v>
       </c>
@@ -6060,7 +6385,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:6">
       <c r="B242" t="s">
         <v>397</v>
       </c>
@@ -6071,9 +6396,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:6">
       <c r="B243" s="5" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C243" s="12" t="s">
         <v>287</v>
@@ -6082,209 +6407,464 @@
         <v>396</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:6">
       <c r="B245" s="5" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="5" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6">
       <c r="B246" s="5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="5" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6">
       <c r="B247" s="5" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="5" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6">
       <c r="B248" s="5" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="5" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="F248" s="5"/>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:6">
       <c r="B249" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
       <c r="B250" s="5" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="5" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6">
       <c r="B251" s="5" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F251" s="5"/>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:6">
       <c r="B252" s="5" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6">
       <c r="B253" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="5" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6">
       <c r="B254" s="5" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="5" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="F254" s="5"/>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:6">
       <c r="B255" s="5" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="5" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="F255" s="5"/>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:6">
       <c r="B256" s="5" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="5" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5">
       <c r="B257" s="5" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="D257" s="5"/>
       <c r="E257" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5">
       <c r="B259" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="B260" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C260" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="E260" s="5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="B262" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="C262" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="E259" s="5" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B260" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="E260" s="5" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B261" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E261" s="5" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B262" s="5" t="s">
+      <c r="E262" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="C262" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="E262" s="5" t="s">
-        <v>844</v>
-      </c>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="B264" s="16" t="s">
+        <v>912</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="E264" s="16" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="B265" s="16" t="s">
+        <v>913</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="E265" s="16" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="B266" s="16" t="s">
+        <v>914</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="E266" s="16" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" s="16" t="s">
+        <v>915</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="E267" s="16" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="B268" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="E268" s="16" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="B269" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="E269" s="16" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="B270" s="16" t="s">
+        <v>918</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="E270" s="16" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" s="16" t="s">
+        <v>919</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="E271" s="16" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="B272" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="E272" s="16" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5">
+      <c r="B273" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="E273" s="17" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5">
+      <c r="B274" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="E274" s="16" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5">
+      <c r="B275" s="16" t="s">
+        <v>923</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="E275" s="16" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5">
+      <c r="B276" s="16" t="s">
+        <v>924</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="E276" s="16" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5">
+      <c r="B277" s="16" t="s">
+        <v>925</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="E277" s="16" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5">
+      <c r="B278" s="16" t="s">
+        <v>926</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="E278" s="16" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5">
+      <c r="B279" s="16" t="s">
+        <v>927</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="E279" s="16" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5">
+      <c r="B280" s="16" t="s">
+        <v>928</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="E280" s="16" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5">
+      <c r="B281" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="E281" s="16" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5">
+      <c r="B282" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="E282" s="16" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5">
+      <c r="B283" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="E283" s="16" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5">
+      <c r="B284" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="E284" s="16" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5">
+      <c r="C285" s="5"/>
+    </row>
+    <row r="286" spans="2:5">
+      <c r="C286" s="5"/>
+    </row>
+    <row r="287" spans="2:5">
+      <c r="C287" s="5"/>
+    </row>
+    <row r="288" spans="2:5">
+      <c r="C288" s="5"/>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289" s="5"/>
+    </row>
+    <row r="290" spans="3:3">
+      <c r="C290" s="5"/>
+    </row>
+    <row r="291" spans="3:3">
+      <c r="C291" s="5"/>
+    </row>
+    <row r="292" spans="3:3">
+      <c r="C292" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -6295,13 +6875,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="50.5" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
@@ -6309,7 +6889,7 @@
     <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6326,7 +6906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -6343,7 +6923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -6356,7 +6936,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="B4" s="5" t="s">
         <v>398</v>
       </c>
@@ -6367,7 +6947,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" s="5" t="s">
         <v>401</v>
       </c>
@@ -6378,7 +6958,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" s="5" t="s">
         <v>404</v>
       </c>
@@ -6389,7 +6969,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" s="5" t="s">
         <v>407</v>
       </c>
@@ -6400,7 +6980,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8" s="5" t="s">
         <v>410</v>
       </c>
@@ -6411,7 +6991,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="5" t="s">
         <v>413</v>
       </c>
@@ -6422,7 +7002,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" s="5" t="s">
         <v>416</v>
       </c>
@@ -6433,7 +7013,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11" s="5" t="s">
         <v>419</v>
       </c>
@@ -6444,7 +7024,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12" s="5" t="s">
         <v>422</v>
       </c>
@@ -6455,7 +7035,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" s="5" t="s">
         <v>425</v>
       </c>
@@ -6466,7 +7046,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" s="5" t="s">
         <v>428</v>
       </c>
@@ -6477,7 +7057,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="B15" s="5" t="s">
         <v>431</v>
       </c>
@@ -6488,7 +7068,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="B16" s="5" t="s">
         <v>432</v>
       </c>
@@ -6499,7 +7079,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5">
       <c r="B17" s="5" t="s">
         <v>435</v>
       </c>
@@ -6510,7 +7090,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="B18" s="5" t="s">
         <v>438</v>
       </c>
@@ -6521,7 +7101,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5">
       <c r="B19" s="5" t="s">
         <v>441</v>
       </c>
@@ -6532,7 +7112,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5">
       <c r="B20" s="5" t="s">
         <v>444</v>
       </c>
@@ -6543,7 +7123,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>447</v>
       </c>
@@ -6554,7 +7134,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>450</v>
       </c>
@@ -6565,7 +7145,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5">
       <c r="B23" s="5" t="s">
         <v>453</v>
       </c>
@@ -6576,7 +7156,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5">
       <c r="B24" s="5" t="s">
         <v>456</v>
       </c>
@@ -6587,7 +7167,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5">
       <c r="B25" s="5" t="s">
         <v>459</v>
       </c>
@@ -6598,7 +7178,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5">
       <c r="B26" s="5" t="s">
         <v>462</v>
       </c>
@@ -6609,7 +7189,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5">
       <c r="B27" s="5" t="s">
         <v>465</v>
       </c>
@@ -6620,7 +7200,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5">
       <c r="B28" s="5" t="s">
         <v>468</v>
       </c>
@@ -6631,7 +7211,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5">
       <c r="B29" s="5" t="s">
         <v>471</v>
       </c>
@@ -6642,7 +7222,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5">
       <c r="B30" s="5" t="s">
         <v>473</v>
       </c>
@@ -6653,7 +7233,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5">
       <c r="B31" s="5" t="s">
         <v>476</v>
       </c>
@@ -6664,7 +7244,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5">
       <c r="B32" s="5" t="s">
         <v>479</v>
       </c>
@@ -6675,7 +7255,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5">
       <c r="B33" s="5" t="s">
         <v>482</v>
       </c>
@@ -6686,7 +7266,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5">
       <c r="B34" s="5" t="s">
         <v>485</v>
       </c>
@@ -6697,7 +7277,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5">
       <c r="B35" s="5" t="s">
         <v>488</v>
       </c>
@@ -6708,7 +7288,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5">
       <c r="B36" s="5" t="s">
         <v>491</v>
       </c>
@@ -6719,7 +7299,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5">
       <c r="B37" s="5" t="s">
         <v>494</v>
       </c>
@@ -6730,7 +7310,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5">
       <c r="B38" s="5" t="s">
         <v>497</v>
       </c>
@@ -6741,7 +7321,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5">
       <c r="B39" s="5" t="s">
         <v>500</v>
       </c>
@@ -6752,1409 +7332,1431 @@
         <v>502</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="5" t="s">
+    <row r="40" spans="2:5">
+      <c r="B40" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
+    <row r="43" spans="2:5">
+      <c r="B43" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
+    <row r="44" spans="2:5">
+      <c r="B44" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
+    <row r="45" spans="2:5">
+      <c r="B45" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="5" t="s">
+    <row r="46" spans="2:5">
+      <c r="B46" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
+    <row r="47" spans="2:5">
+      <c r="B47" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
+    <row r="48" spans="2:5">
+      <c r="B48" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
+    <row r="49" spans="2:5">
+      <c r="B49" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="5" t="s">
+    <row r="50" spans="2:5">
+      <c r="B50" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>528</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
+    <row r="51" spans="2:5">
+      <c r="B51" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C51" s="5" t="s">
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="C53" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="5" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="E54" s="5" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C53" s="5" t="s">
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="C54" s="5" t="s">
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C55" s="5" t="s">
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="C58" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="5" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="E59" t="s">
         <v>549</v>
       </c>
-      <c r="E56" s="5" t="s">
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="5" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>900</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="C58" s="5" t="s">
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="E58" t="s">
+      <c r="C61" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="5" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="E62" t="s">
         <v>556</v>
       </c>
-      <c r="E59" s="5" t="s">
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="5" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="5" t="s">
+      <c r="E63" t="s">
         <v>559</v>
       </c>
-      <c r="C61" s="5" t="s">
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="E61" t="s">
+      <c r="C64" s="5" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C62" s="5" t="s">
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E62" t="s">
+      <c r="C65" s="5" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="C63" s="5" t="s">
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C64" s="5" t="s">
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C65" s="5" t="s">
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C66" s="5" t="s">
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C67" s="5" t="s">
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="C68" s="5" t="s">
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C69" s="5" t="s">
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C70" s="5" t="s">
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="C71" s="5" t="s">
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="C72" s="5" t="s">
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="C73" s="5" t="s">
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="C74" s="5" t="s">
+    </row>
+    <row r="77" spans="1:5">
+      <c r="B77" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="C77" s="6" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="5" t="s">
+      <c r="E77" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="C75" s="5" t="s">
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="5"/>
       <c r="B79" s="5" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="5"/>
       <c r="B80" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C80" t="s">
-        <v>615</v>
+        <v>607</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>608</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="5"/>
       <c r="B81" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>618</v>
+        <v>609</v>
+      </c>
+      <c r="C81" t="s">
+        <v>610</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="5"/>
       <c r="B82" s="5" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="5"/>
       <c r="B83" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="C83" t="s">
-        <v>624</v>
+        <v>615</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>616</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="5"/>
       <c r="B84" s="5" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C84" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C85" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C86" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C87" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C88" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="5"/>
       <c r="B89" s="5" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C89" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="5"/>
       <c r="B90" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>643</v>
+        <v>634</v>
+      </c>
+      <c r="C90" t="s">
+        <v>635</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="5"/>
       <c r="B91" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="C91" t="s">
-        <v>613</v>
+        <v>637</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>638</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>647</v>
+        <v>640</v>
+      </c>
+      <c r="C92" t="s">
+        <v>608</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="5"/>
       <c r="B93" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C93" t="s">
-        <v>650</v>
+        <v>641</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>642</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="5"/>
       <c r="B94" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>653</v>
+        <v>644</v>
+      </c>
+      <c r="C94" t="s">
+        <v>645</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="5"/>
       <c r="B95" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="C95" t="s">
-        <v>656</v>
+        <v>647</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>648</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="5"/>
       <c r="B96" s="5" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="C96" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="5"/>
       <c r="B97" s="5" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C97" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="5"/>
       <c r="B98" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>665</v>
+        <v>656</v>
+      </c>
+      <c r="C98" t="s">
+        <v>657</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="5"/>
       <c r="B99" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="C99" t="s">
-        <v>656</v>
+        <v>659</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>660</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="5"/>
       <c r="B100" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C100" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="5"/>
       <c r="B101" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>670</v>
+        <v>663</v>
+      </c>
+      <c r="C101" t="s">
+        <v>654</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="5"/>
       <c r="B102" s="5" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="5"/>
       <c r="B103" s="5" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>627</v>
+        <v>668</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="5"/>
       <c r="B104" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="B106" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E106" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="C104" s="5" t="s">
+    </row>
+    <row r="107" spans="1:5">
+      <c r="B107" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="5" t="s">
+      <c r="E107" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="C105" s="5" t="s">
+    </row>
+    <row r="108" spans="1:5">
+      <c r="B108" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="5" t="s">
+      <c r="E108" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C106" s="5" t="s">
+    </row>
+    <row r="109" spans="1:5">
+      <c r="B109" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="C109" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="5" t="s">
+      <c r="E109" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="C107" s="5" t="s">
+    </row>
+    <row r="110" spans="1:5">
+      <c r="B110" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="C110" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="5" t="s">
+      <c r="E110" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="111" spans="1:5">
+      <c r="B111" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="C111" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="B112" s="5" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="5" t="s">
+      <c r="C112" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C113" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="C114" s="5" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="5" t="s">
+      <c r="E114" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="5" t="s">
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="5" t="s">
+      <c r="C115" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C116" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="E119" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="C114" s="5" t="s">
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="E114" s="16" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>912</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="C119" s="5" t="s">
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="C124" s="5" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="5" t="s">
+      <c r="E124" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>920</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="E125" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="E121" s="5" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="5" t="s">
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C126" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="E122" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="5" t="s">
+      <c r="E126" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="C123" s="5" t="s">
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="5" t="s">
+      <c r="E127" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C128" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E128" s="6" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="5" t="s">
+    <row r="129" spans="2:5">
+      <c r="B129" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C129" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="E125" s="5" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="6" t="s">
+      <c r="E129" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="C126" s="6" t="s">
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="C130" s="6" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="6" t="s">
+      <c r="E130" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="C127" s="6" t="s">
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="C131" s="6" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="6" t="s">
+      <c r="E131" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="C128" s="6" t="s">
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="C132" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="6" t="s">
+      <c r="E132" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="C129" s="6" t="s">
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="C133" s="6" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="6" t="s">
+      <c r="E133" t="s">
         <v>736</v>
       </c>
-      <c r="C130" t="s">
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="C134" s="6" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="C131" s="6" t="s">
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="E131" t="s">
+      <c r="C135" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="6" t="s">
+      <c r="E135" t="s">
         <v>742</v>
       </c>
-      <c r="C132" s="6" t="s">
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="C136" s="6" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="6" t="s">
+      <c r="E136" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="C133" t="s">
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="E133" t="s">
+      <c r="C137" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="6" t="s">
+      <c r="E137" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="C134" s="6" t="s">
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="C138" s="6" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="6" t="s">
+      <c r="E138" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="C135" s="6" t="s">
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" ht="42.75">
+      <c r="B142" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="C142" s="8" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="6" t="s">
+      <c r="E142" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="C136" s="6" t="s">
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="C143" s="6" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="5" t="s">
+      <c r="E143" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" t="s">
+        <v>761</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="E146" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="C147" t="s">
+        <v>768</v>
+      </c>
+      <c r="E147" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="C151" s="6"/>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" t="s">
+        <v>775</v>
+      </c>
+      <c r="C152" t="s">
+        <v>776</v>
+      </c>
+      <c r="E152" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" t="s">
+        <v>777</v>
+      </c>
+      <c r="C153" t="s">
+        <v>778</v>
+      </c>
+      <c r="E153" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" t="s">
+        <v>780</v>
+      </c>
+      <c r="C154" t="s">
+        <v>781</v>
+      </c>
+      <c r="E154" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" t="s">
+        <v>782</v>
+      </c>
+      <c r="C155" t="s">
+        <v>783</v>
+      </c>
+      <c r="E155" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="E157" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="5" t="s">
+      <c r="E158" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="E159" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B140" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
-        <v>766</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="E144" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="C145" t="s">
-        <v>773</v>
-      </c>
-      <c r="E145" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C149" s="6"/>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>780</v>
-      </c>
-      <c r="C150" t="s">
-        <v>781</v>
-      </c>
-      <c r="E150" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>782</v>
-      </c>
-      <c r="C151" t="s">
-        <v>783</v>
-      </c>
-      <c r="E151" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>785</v>
-      </c>
-      <c r="C152" t="s">
-        <v>786</v>
-      </c>
-      <c r="E152" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
-        <v>787</v>
-      </c>
-      <c r="C153" t="s">
-        <v>788</v>
-      </c>
-      <c r="E153" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="15" t="s">
+      <c r="E160" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="E155" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B156" s="15" t="s">
-        <v>792</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="E156" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="15" t="s">
+      <c r="C162" s="5" t="s">
         <v>790</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="E157" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="15" t="s">
-        <v>791</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="E158" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="15" t="s">
-        <v>794</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="E160" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>847</v>
       </c>
       <c r="E162" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
+    <row r="164" spans="2:5">
+      <c r="B164" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E164" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" t="s">
+        <v>856</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E167" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" t="s">
+        <v>876</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170" t="s">
+        <v>877</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
+      <c r="E170" s="5" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" t="s">
+        <v>878</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" t="s">
+        <v>879</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" t="s">
+        <v>880</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="C168" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="E168" s="5" t="s">
+      <c r="E173" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" s="5" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
-        <v>885</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="E169" s="5" t="s">
+      <c r="C174" t="s">
+        <v>654</v>
+      </c>
+      <c r="E174" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="C176" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
-        <v>886</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" t="s">
-        <v>887</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="E171" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B172" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="C172" t="s">
-        <v>659</v>
-      </c>
-      <c r="E172" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B174" s="5" t="s">
-        <v>902</v>
-      </c>
-      <c r="C174" t="s">
-        <v>903</v>
-      </c>
-      <c r="E174" t="s">
-        <v>904</v>
+      <c r="E176" t="s">
+        <v>897</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83072867-1364-4022-904B-31408E52CC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F99A8C5-9D11-4C06-97CA-22D38E51F869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置表中的" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1182">
   <si>
     <t>##var</t>
   </si>
@@ -464,12 +464,6 @@
     <t>Text_Key_Desc_Tow11_1</t>
   </si>
   <si>
-    <t>毒蝎射出带毒的子弹，让命中的怪物中毒并持续掉血。</t>
-  </si>
-  <si>
-    <t>The scorpion fires poisonous bullets. Monsters hit by it are poisoned and lose health over time.</t>
-  </si>
-  <si>
     <t>Text_Key_Desc_Tow11_2</t>
   </si>
   <si>
@@ -1080,9 +1074,6 @@
   </si>
   <si>
     <t>窃贼哥布林</t>
-  </si>
-  <si>
-    <t>Thief</t>
   </si>
   <si>
     <t>Text_Key_Name_Tow21_2</t>
@@ -1724,9 +1715,6 @@
     <t>Buy</t>
   </si>
   <si>
-    <t>TextCode_Key_Battle_TowerBuy_NotEnough</t>
-  </si>
-  <si>
     <t>金币不足</t>
   </si>
   <si>
@@ -2365,9 +2353,6 @@
     <t>Downloading {0}MB/{1}MB</t>
   </si>
   <si>
-    <t>TextCode_Key_PhysicalStrength_IsFull</t>
-  </si>
-  <si>
     <t>体力已满</t>
   </si>
   <si>
@@ -2717,10 +2702,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>长时间蓄力后将发射出强大炮弹。当然，你不会把他用来对付小喽啰的吧？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>发射冰球减速大片敌人。可惜的是，它难以对敌人造成有效的伤害。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2745,10 +2726,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Launches a powerful projectile after a long charge. Of course, you wouldn't use it against small fry, would you?</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Fires ice orbs to slow down a large group of enemies. Unfortunately, it struggles to deal effective damage.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2757,18 +2734,9 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>TextCode_Key_NeedCameraPermission</t>
-  </si>
-  <si>
     <t>TextCode_Key_OwnerRescan_Member</t>
   </si>
   <si>
-    <t>TextCode_Key_Dialog_RescanTheGame_Title</t>
-  </si>
-  <si>
-    <t>TextCode_Key_Dialog_RescanTheGame_Des</t>
-  </si>
-  <si>
     <t>TextCode_Key_Dialog_RescanTheGame_Cancel</t>
   </si>
   <si>
@@ -2786,13 +2754,6 @@
   <si>
     <t>留下</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要摄像机权限才能继续游戏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>You need camera permission to continue the game.</t>
   </si>
   <si>
     <t>The captain wants to rescan and is about to exit.</t>
@@ -3141,10 +3102,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Summons lightning to strike two enemies. Since it requires accumulating energy from the cloud layer, the higher it is from the enemy, the greater the damage.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>The ultimate form, with a chance to critically strike on every attack, deals massive damage.</t>
   </si>
   <si>
@@ -3171,10 +3128,6 @@
     <t>Ultimate form, generates a deadly poison that covers the entire area, eliminating all enemies within range.</t>
   </si>
   <si>
-    <t>Ultimate form, able to unleash three powerful projectiles in succession, annihilating any formidable foes.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>终极形态，能够连续发出3发强大的炮弹，摧毁任何可怕的敌人。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3187,58 +3140,849 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Ultimate form, summons lightning to strike three enemies. It's most effective when positioned high above.</t>
-  </si>
-  <si>
     <t>终极形态，能够发射2个冰球来减速不同位置的大片敌人。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Ultimate form, launches two ice balls to slow down large groups of enemies in different locations.</t>
-  </si>
-  <si>
     <t>终极形态，超大的作用范围能轻松地强化所有友军。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>TextCode_Key_Net_LoginInAtOtherWhere</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的账号已在其他地方登录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your account is logged in elsewhere</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎来到教学！请点击开始扫描战场。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome to the tutorial! Please tap to begin scanning the battlefield.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_Refresh</t>
+  </si>
+  <si>
+    <t>点击刷新购买列表。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click to refresh the purchase list.</t>
+  </si>
+  <si>
+    <t>Text_Key_Tower_UIAttribute_DuShang</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒伤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison Damage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能让命中的敌人中毒，每秒造成当前生命一定比例的伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can poison enemies upon hit, dealing a certain percentage of their current health as damage per second.</t>
+  </si>
+  <si>
     <t>Ultimate form, with an enormous range, can easily enhance all allied forces.</t>
-  </si>
-  <si>
-    <t>TextCode_Key_Net_LoginInAtOtherWhere</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的账号已在其他地方登录</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your account is logged in elsewhere</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎来到教学！请点击开始扫描战场。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome to the tutorial! Please tap to begin scanning the battlefield.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextCode_Key_TutorialText_Refresh</t>
-  </si>
-  <si>
-    <t>点击刷新购买列表。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click to refresh the purchase list.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极形态，能将敌人掠夺一空，并且同时攻击两个敌人。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goblin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Tower_UIAttribute_Content_OnlySeconds</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}秒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}s</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow25_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow25_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow25_3</t>
+  </si>
+  <si>
+    <t>炸弹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow25_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow25_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow25_3</t>
+  </si>
+  <si>
+    <t>感应到敌人后爆炸，造成巨量伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极形态，造成巨大伤害的同时也能眩晕敌人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detonates upon sensing enemies, causing massive damage.</t>
+  </si>
+  <si>
+    <t>Ultimate form,  can stun enemies while dealing massive damage.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_TowerBuy_NotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Battle_TowerBuy_AlreadyBuy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot purchase again.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可重复购买</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reality Guard needs camera permission for its AR magic. Go to your phone settings and grant us access to the camera!</t>
+  </si>
+  <si>
+    <t>需要摄像机权限才能使用AR功能，请前往系统设置开启权限！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_RescanTheGame_Title</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_NeedCameraPermission_Title</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Dialog_RescanTheGame_Des</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_NeedCameraPermission_Des</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_NeedCameraPermission_Confirm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Got It</t>
+  </si>
+  <si>
+    <t>Camera Request</t>
+  </si>
+  <si>
+    <t>相机请求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_FunctionMenu_IsOpenSoon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将开启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Desc_FunctionMenu_ARPVE</t>
+  </si>
+  <si>
+    <t>挑战模式</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_FunctionMenu_AREndlessChallenge</t>
+  </si>
+  <si>
+    <t>无尽模式</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_FunctionMenu_ARPVP</t>
+  </si>
+  <si>
+    <t>对战模式</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_FunctionMenu_AREndlessChallenge</t>
+  </si>
+  <si>
+    <t>解锁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Infinite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mode</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Name_FunctionMenu_ARPVP</t>
+  </si>
+  <si>
+    <r>
+      <t>Coming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> soon</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VP Mode</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Name_FunctionMenu_ARPVE</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_FunctionMenu_Unlocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNLOCKED</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_ARPVE_Challenge</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_ARPVE_Select</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_ARPVE_Reload</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战更强敌人，收集更多防御塔！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择最新关卡并开始。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击这里，可以快速使用之前扫描的战场。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select the latest level and begin.</t>
+  </si>
+  <si>
+    <t>Challenge stronger enemies and collect more towers!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Tap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to quickly use the previously scanned battlefield.</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_AREndlessChallenge_Infinite</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_AREndlessChallenge_Rank</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>面临无尽的敌人，尽可能地存活下去！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活越久，可以获得越高的全球排名。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face endless enemies and survive as long as possible!</t>
+  </si>
+  <si>
+    <t>The longer you survive, the higher your global ranking will be.</t>
+  </si>
+  <si>
+    <t>解锁了新功能,快来看看吧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlocked the new features, check it out</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_FunctionMenu_MenuStatusUnlocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Hall_JoinRoomError</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Hall_RoomMemberFull</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间成员已满</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入房间失败</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to join the room</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>The members of the room are full</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Desc_FunctionMenu_PersonInfo</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_FunctionMenu_BackPack</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_FunctionMenu_BattleDeck</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_FunctionMenu_Rank</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_FunctionMenu_Tutorial</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_FunctionMenu_Discord</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_FunctionMenu_BattleDeckOperate</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_FunctionMenu_DiscordOperate</t>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Name_FunctionMenu_PersonInfo</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_FunctionMenu_BackPack</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_FunctionMenu_BattleDeck</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_FunctionMenu_Rank</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_FunctionMenu_Tutorial</t>
+  </si>
+  <si>
+    <t>教程</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_FunctionMenu_Discord</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_FunctionMenu_BattleDeckOperate</t>
+  </si>
+  <si>
+    <t>上阵引导</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_FunctionMenu_DiscordOperate</t>
+  </si>
+  <si>
+    <t>discord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>discord引导</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Discord</t>
+  </si>
+  <si>
+    <t>Profile</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towers</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eam settings</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战模式(des)</t>
+  </si>
+  <si>
+    <t>无尽模式(des)</t>
+  </si>
+  <si>
+    <t>对战模式(des)</t>
+  </si>
+  <si>
+    <t>个人信息(des)</t>
+  </si>
+  <si>
+    <t>背包(des)</t>
+  </si>
+  <si>
+    <t>防御塔(des)</t>
+  </si>
+  <si>
+    <t>排行榜(des)</t>
+  </si>
+  <si>
+    <t>教程(des)</t>
+  </si>
+  <si>
+    <t>discord(des)</t>
+  </si>
+  <si>
+    <t>上阵引导(des)</t>
+  </si>
+  <si>
+    <t>discord引导(des)</t>
+  </si>
+  <si>
+    <t>Challenge(des)</t>
+  </si>
+  <si>
+    <t>Infinite Mode(des)</t>
+  </si>
+  <si>
+    <t>PVP Mode(des)</t>
+  </si>
+  <si>
+    <t>Profile(des)</t>
+  </si>
+  <si>
+    <t>Bag(des)</t>
+  </si>
+  <si>
+    <t>Towers(des)</t>
+  </si>
+  <si>
+    <t>Rank(des)</t>
+  </si>
+  <si>
+    <t>Tutorial(des)</t>
+  </si>
+  <si>
+    <t>Discord(des)</t>
+  </si>
+  <si>
+    <t>Team settings(des)</t>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_ARPVE_Load</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击继续</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap to continue.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_BattleDeck_TapTowers</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_BattleDeck_Select</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_BattleDeck_Switch</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里可以查看已有的防御塔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击查看详情</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击切换不同等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can view the available towers here.</t>
+  </si>
+  <si>
+    <t>Tap to view details.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap to switch between different levels.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_BattleDeckOperate_TapTowers</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以编辑队伍了</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_BattleDeckOperate_Drag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>将想要出战的防御塔拖拽到上方</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editing your team is now available.</t>
+  </si>
+  <si>
+    <t>Drag the towers you want to deploy to the top.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_TutorialText_DiscordOperate_Discord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎加入我们的社群，与全球玩家分享交流！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Welcome to join our community</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,have fun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with players from all over the world!</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discord(des)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy not enough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力不足</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_PhysicalStrength_IsFull</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_PhysicalStrength_NotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡未解锁</t>
+  </si>
+  <si>
+    <t>TextCode_Key_ChallengeMode_Unlocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>The level is locked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>长时间蓄力后将发射出强大炮弹，优先攻击最强大的敌人。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>After charging for a long time, a powerful projectile will be fired, attacking the strongest enemies first.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极形态，能同时给最多3个敌人施加剧毒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate form,  can inflict poison on up to 3 enemies at the same time.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate form, able to unleash 3 powerful projectiles in succession, annihilating any formidable foes.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate form, summons lightning to strike 3 enemies. It's most effective when positioned high above.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate form, launches 2 ice balls to slow down large groups of enemies in different locations.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate form,  can plunder enemies completely and simultaneously attack 2 enemies.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_FunctionMenu_OpenCondition_Default</t>
+  </si>
+  <si>
+    <t>默认开启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_FunctionMenu_OpenCondition_TutorialFirstFinished</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手指引完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish TutorialFirst</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_FunctionMenu_OpenCondition_BattleNumARAny</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意模式完成{0}局</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish {0} games</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_FunctionMenu_OpenCondition_BattleNumARPVE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战模式完成{0}局</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish {0} challenge games</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_FunctionMenu_OpenCondition_BattleNumARPVP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战模式完成{0}局</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish {0} PVP games</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_FunctionMenu_OpenCondition_BattleNumAREndlessChallenge</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽模式完成{0}句</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish {0} infinite games</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_FunctionMenu_OpenCondition_IndexWhenARPVE</t>
+  </si>
+  <si>
+    <t>挑战模式通关第{0}关</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear challenge Lv{0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_FunctionMenu_OpenCondition_IndexWhenAREndlessChallenge</t>
+  </si>
+  <si>
+    <t>无尽模式存活第{0}波</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear infinite wave{0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summons lightning to strike  an enemy. Since it requires accumulating energy from the cloud layer, the higher it is from the enemy, the greater the damage.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3685,13 +4429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V292"/>
+  <dimension ref="A1:V316"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="33.625" customWidth="1"/>
@@ -3700,7 +4444,7 @@
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1">
+    <row r="1" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3734,7 +4478,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" s="11" customFormat="1">
+    <row r="2" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3768,7 +4512,7 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" s="10" customFormat="1">
+    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3798,7 +4542,7 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -3809,7 +4553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -3820,7 +4564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -3831,7 +4575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -3842,7 +4586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -3853,7 +4597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -3864,7 +4608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -3875,7 +4619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -3886,7 +4630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -3897,7 +4641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -3908,7 +4652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -3919,7 +4663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -3930,7 +4674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -3941,7 +4685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -3952,7 +4696,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -3963,7 +4707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>43</v>
       </c>
@@ -3974,7 +4718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -3985,7 +4729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>49</v>
       </c>
@@ -3996,7 +4740,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>52</v>
       </c>
@@ -4007,7 +4751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -4018,7 +4762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>56</v>
       </c>
@@ -4029,7 +4773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>57</v>
       </c>
@@ -4040,7 +4784,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>60</v>
       </c>
@@ -4051,7 +4795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>61</v>
       </c>
@@ -4062,7 +4806,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -4073,7 +4817,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>67</v>
       </c>
@@ -4084,7 +4828,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>68</v>
       </c>
@@ -4095,7 +4839,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>69</v>
       </c>
@@ -4106,7 +4850,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>72</v>
       </c>
@@ -4117,7 +4861,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>73</v>
       </c>
@@ -4128,7 +4872,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>74</v>
       </c>
@@ -4139,7 +4883,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>77</v>
       </c>
@@ -4150,7 +4894,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>78</v>
       </c>
@@ -4161,7 +4905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>79</v>
       </c>
@@ -4172,7 +4916,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>82</v>
       </c>
@@ -4183,7 +4927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>85</v>
       </c>
@@ -4194,7 +4938,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>86</v>
       </c>
@@ -4205,7 +4949,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>87</v>
       </c>
@@ -4216,7 +4960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>88</v>
       </c>
@@ -4227,7 +4971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>89</v>
       </c>
@@ -4238,7 +4982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>90</v>
       </c>
@@ -4249,7 +4993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>91</v>
       </c>
@@ -4260,7 +5004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>92</v>
       </c>
@@ -4271,7 +5015,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>93</v>
       </c>
@@ -4282,7 +5026,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>94</v>
       </c>
@@ -4293,7 +5037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>95</v>
       </c>
@@ -4304,7 +5048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>96</v>
       </c>
@@ -4315,7 +5059,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>99</v>
       </c>
@@ -4326,7 +5070,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>102</v>
       </c>
@@ -4337,7 +5081,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>105</v>
       </c>
@@ -4348,7 +5092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>106</v>
       </c>
@@ -4359,7 +5103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>107</v>
       </c>
@@ -4370,7 +5114,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>110</v>
       </c>
@@ -4381,7 +5125,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>111</v>
       </c>
@@ -4392,295 +5136,295 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>112</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>113</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>114</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>117</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>118</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>119</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>120</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>121</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>122</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>123</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>124</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>866</v>
+        <v>1149</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>125</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>866</v>
+        <v>1149</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>126</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>127</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>128</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>129</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>130</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>131</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>132</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>133</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>134</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>135</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>136</v>
       </c>
@@ -4691,7 +5435,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>139</v>
       </c>
@@ -4702,7 +5446,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>140</v>
       </c>
@@ -4713,7 +5457,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="2:5">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>141</v>
       </c>
@@ -4724,7 +5468,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>144</v>
       </c>
@@ -4735,7 +5479,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>145</v>
       </c>
@@ -4746,2125 +5490,2440 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>146</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="E89" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>147</v>
       </c>
-      <c r="E89" t="s">
+      <c r="C90" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="E90" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" t="s">
+      <c r="C91" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
         <v>149</v>
       </c>
-      <c r="C90" t="s">
-        <v>147</v>
-      </c>
-      <c r="E90" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" t="s">
+      <c r="C92" t="s">
         <v>150</v>
       </c>
-      <c r="C91" t="s">
-        <v>147</v>
-      </c>
-      <c r="E91" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" t="s">
+      <c r="E92" t="s">
         <v>151</v>
       </c>
-      <c r="C92" t="s">
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>152</v>
       </c>
-      <c r="E92" t="s">
+      <c r="C93" t="s">
+        <v>150</v>
+      </c>
+      <c r="E93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" t="s">
+      <c r="C94" t="s">
+        <v>150</v>
+      </c>
+      <c r="E94" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>154</v>
       </c>
-      <c r="C93" t="s">
-        <v>152</v>
-      </c>
-      <c r="E93" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" t="s">
+      <c r="C95" t="s">
         <v>155</v>
       </c>
-      <c r="C94" t="s">
-        <v>152</v>
-      </c>
-      <c r="E94" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" t="s">
+      <c r="E95" t="s">
         <v>156</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>157</v>
       </c>
-      <c r="E95" t="s">
+      <c r="C96" t="s">
+        <v>155</v>
+      </c>
+      <c r="E96" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" t="s">
+      <c r="C97" t="s">
+        <v>155</v>
+      </c>
+      <c r="E97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
         <v>159</v>
       </c>
-      <c r="C96" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" t="s">
+      <c r="C98" t="s">
         <v>160</v>
       </c>
-      <c r="C97" t="s">
-        <v>157</v>
-      </c>
-      <c r="E97" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" t="s">
+      <c r="E98" t="s">
         <v>161</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>162</v>
       </c>
-      <c r="E98" t="s">
+      <c r="C99" t="s">
+        <v>160</v>
+      </c>
+      <c r="E99" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" t="s">
+      <c r="C100" t="s">
+        <v>160</v>
+      </c>
+      <c r="E100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
         <v>164</v>
       </c>
-      <c r="C99" t="s">
-        <v>162</v>
-      </c>
-      <c r="E99" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" t="s">
+      <c r="C101" t="s">
         <v>165</v>
       </c>
-      <c r="C100" t="s">
-        <v>162</v>
-      </c>
-      <c r="E100" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" t="s">
+      <c r="E101" t="s">
         <v>166</v>
       </c>
-      <c r="C101" t="s">
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
         <v>167</v>
       </c>
-      <c r="E101" t="s">
+      <c r="C102" t="s">
+        <v>165</v>
+      </c>
+      <c r="E102" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" t="s">
+      <c r="C103" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
         <v>169</v>
       </c>
-      <c r="C102" t="s">
-        <v>167</v>
-      </c>
-      <c r="E102" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" t="s">
+      <c r="C104" t="s">
         <v>170</v>
       </c>
-      <c r="C103" t="s">
-        <v>167</v>
-      </c>
-      <c r="E103" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" t="s">
+      <c r="E104" t="s">
         <v>171</v>
       </c>
-      <c r="C104" t="s">
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
         <v>172</v>
       </c>
-      <c r="E104" t="s">
+      <c r="C105" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="B105" t="s">
+      <c r="C106" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
         <v>174</v>
       </c>
-      <c r="C105" t="s">
-        <v>172</v>
-      </c>
-      <c r="E105" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" t="s">
+      <c r="C107" t="s">
         <v>175</v>
       </c>
-      <c r="C106" t="s">
-        <v>172</v>
-      </c>
-      <c r="E106" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="B107" t="s">
+      <c r="E107" t="s">
         <v>176</v>
       </c>
-      <c r="C107" t="s">
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
         <v>177</v>
       </c>
-      <c r="E107" t="s">
+      <c r="C108" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="108" spans="2:5">
-      <c r="B108" t="s">
+      <c r="C109" t="s">
+        <v>175</v>
+      </c>
+      <c r="E109" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
         <v>179</v>
       </c>
-      <c r="C108" t="s">
-        <v>177</v>
-      </c>
-      <c r="E108" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5">
-      <c r="B109" t="s">
+      <c r="C110" t="s">
         <v>180</v>
       </c>
-      <c r="C109" t="s">
-        <v>177</v>
-      </c>
-      <c r="E109" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" t="s">
+      <c r="E110" t="s">
         <v>181</v>
       </c>
-      <c r="C110" t="s">
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
         <v>182</v>
       </c>
-      <c r="E110" t="s">
+      <c r="C111" t="s">
+        <v>180</v>
+      </c>
+      <c r="E111" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111" t="s">
+      <c r="C112" t="s">
+        <v>180</v>
+      </c>
+      <c r="E112" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
         <v>184</v>
       </c>
-      <c r="C111" t="s">
-        <v>182</v>
-      </c>
-      <c r="E111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" t="s">
+      <c r="C113" t="s">
         <v>185</v>
       </c>
-      <c r="C112" t="s">
-        <v>182</v>
-      </c>
-      <c r="E112" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5">
-      <c r="B113" t="s">
+      <c r="E113" t="s">
         <v>186</v>
       </c>
-      <c r="C113" t="s">
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>187</v>
       </c>
-      <c r="E113" t="s">
+      <c r="C114" t="s">
+        <v>185</v>
+      </c>
+      <c r="E114" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" t="s">
+      <c r="C115" t="s">
+        <v>185</v>
+      </c>
+      <c r="E115" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
         <v>189</v>
       </c>
-      <c r="C114" t="s">
-        <v>187</v>
-      </c>
-      <c r="E114" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="B115" t="s">
+      <c r="C116" t="s">
         <v>190</v>
       </c>
-      <c r="C115" t="s">
-        <v>187</v>
-      </c>
-      <c r="E115" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="B116" t="s">
+      <c r="E116" t="s">
         <v>191</v>
       </c>
-      <c r="C116" t="s">
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
         <v>192</v>
       </c>
-      <c r="E116" t="s">
+      <c r="C117" t="s">
+        <v>190</v>
+      </c>
+      <c r="E117" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117" t="s">
+      <c r="C118" t="s">
+        <v>190</v>
+      </c>
+      <c r="E118" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
         <v>194</v>
       </c>
-      <c r="C117" t="s">
-        <v>192</v>
-      </c>
-      <c r="E117" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="B118" t="s">
+      <c r="C119" t="s">
         <v>195</v>
       </c>
-      <c r="C118" t="s">
-        <v>192</v>
-      </c>
-      <c r="E118" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="B119" t="s">
+      <c r="E119" t="s">
         <v>196</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
         <v>197</v>
       </c>
-      <c r="E119" t="s">
+      <c r="C120" t="s">
+        <v>195</v>
+      </c>
+      <c r="E120" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120" t="s">
+      <c r="C121" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
         <v>199</v>
       </c>
-      <c r="C120" t="s">
-        <v>197</v>
-      </c>
-      <c r="E120" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="B121" t="s">
+      <c r="C122" t="s">
         <v>200</v>
       </c>
-      <c r="C121" t="s">
-        <v>197</v>
-      </c>
-      <c r="E121" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5">
-      <c r="B122" t="s">
+      <c r="E122" t="s">
         <v>201</v>
       </c>
-      <c r="C122" t="s">
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
         <v>202</v>
       </c>
-      <c r="E122" t="s">
+      <c r="C123" t="s">
+        <v>200</v>
+      </c>
+      <c r="E123" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123" t="s">
+      <c r="C124" t="s">
+        <v>200</v>
+      </c>
+      <c r="E124" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
         <v>204</v>
       </c>
-      <c r="C123" t="s">
-        <v>202</v>
-      </c>
-      <c r="E123" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" t="s">
+      <c r="C125" t="s">
         <v>205</v>
       </c>
-      <c r="C124" t="s">
-        <v>202</v>
-      </c>
-      <c r="E124" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="B125" t="s">
+      <c r="E125" t="s">
         <v>206</v>
       </c>
-      <c r="C125" t="s">
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
         <v>207</v>
       </c>
-      <c r="E125" t="s">
+      <c r="C126" t="s">
+        <v>205</v>
+      </c>
+      <c r="E126" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="126" spans="2:5">
-      <c r="B126" t="s">
+      <c r="C127" t="s">
+        <v>205</v>
+      </c>
+      <c r="E127" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
         <v>209</v>
       </c>
-      <c r="C126" t="s">
-        <v>207</v>
-      </c>
-      <c r="E126" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5">
-      <c r="B127" t="s">
+      <c r="C128" t="s">
         <v>210</v>
       </c>
-      <c r="C127" t="s">
-        <v>207</v>
-      </c>
-      <c r="E127" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128" t="s">
+      <c r="E128" t="s">
         <v>211</v>
       </c>
-      <c r="C128" t="s">
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
         <v>212</v>
       </c>
-      <c r="E128" t="s">
+      <c r="C129" t="s">
+        <v>210</v>
+      </c>
+      <c r="E129" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="129" spans="2:5">
-      <c r="B129" t="s">
+      <c r="C130" t="s">
+        <v>210</v>
+      </c>
+      <c r="E130" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
         <v>214</v>
       </c>
-      <c r="C129" t="s">
-        <v>212</v>
-      </c>
-      <c r="E129" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" t="s">
+      <c r="C135" t="s">
         <v>215</v>
       </c>
-      <c r="C130" t="s">
-        <v>212</v>
-      </c>
-      <c r="E130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" t="s">
+      <c r="E135" t="s">
         <v>216</v>
       </c>
-      <c r="C132" t="s">
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
         <v>217</v>
       </c>
-      <c r="E132" t="s">
+      <c r="C136" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" t="s">
+      <c r="E136" t="s">
         <v>219</v>
       </c>
-      <c r="C133" t="s">
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
         <v>220</v>
       </c>
-      <c r="E133" t="s">
+      <c r="C137" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" t="s">
+      <c r="E137" t="s">
         <v>222</v>
       </c>
-      <c r="C134" t="s">
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
         <v>223</v>
       </c>
-      <c r="E134" t="s">
+      <c r="C138" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" t="s">
+      <c r="E138" t="s">
         <v>225</v>
       </c>
-      <c r="C135" t="s">
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E135" t="s">
+      <c r="C140" s="5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" s="6" t="s">
+      <c r="E140" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C137" s="5" t="s">
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="C141" s="5" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138" s="6" t="s">
+      <c r="E141" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C138" s="5" t="s">
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="C142" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="139" spans="2:5">
-      <c r="B139" s="6" t="s">
+      <c r="E142" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C139" s="5" t="s">
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E139" s="5" t="s">
+      <c r="C143" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="140" spans="2:5">
-      <c r="B140" s="6" t="s">
+      <c r="E143" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C140" s="5" t="s">
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="C144" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="141" spans="2:5">
-      <c r="B141" s="6" t="s">
+      <c r="E144" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C141" s="5" t="s">
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="C145" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E145" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="142" spans="2:5">
-      <c r="B142" s="6" t="s">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E142" s="5" t="s">
+      <c r="C146" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E146" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="143" spans="2:5">
-      <c r="B143" s="6" t="s">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E143" s="5" t="s">
+      <c r="C147" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E147" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="144" spans="2:5">
-      <c r="B144" s="6" t="s">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E144" s="5" t="s">
+      <c r="C148" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E148" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="145" spans="2:5">
-      <c r="B145" s="6" t="s">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E145" s="5" t="s">
+      <c r="C150" s="13" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="147" spans="2:5">
-      <c r="B147" s="12" t="s">
+      <c r="E150" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C147" s="13" t="s">
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="C151" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="12" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="B148" s="12" t="s">
+      <c r="C152" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C148" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5">
-      <c r="B149" s="12" t="s">
+      <c r="C153" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C149" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="B150" s="12" t="s">
+      <c r="E153" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C150" s="13" t="s">
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="C154" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E154" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="12" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="151" spans="2:5">
-      <c r="B151" s="12" t="s">
+      <c r="C155" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E155" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C151" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="E151" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5">
-      <c r="B152" s="12" t="s">
+      <c r="C156" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C152" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="E152" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5">
-      <c r="B153" s="12" t="s">
+      <c r="E156" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C153" s="13" t="s">
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="C157" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="12" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="154" spans="2:5">
-      <c r="B154" s="12" t="s">
+      <c r="C158" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C154" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5">
-      <c r="B155" s="12" t="s">
+      <c r="C159" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C155" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5">
-      <c r="B156" s="12" t="s">
+      <c r="E159" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C156" s="13" t="s">
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="C160" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="12" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="157" spans="2:5">
-      <c r="B157" s="12" t="s">
+      <c r="C161" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C157" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5">
-      <c r="B158" s="12" t="s">
+      <c r="C162" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C158" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5">
-      <c r="B159" s="12" t="s">
+      <c r="E162" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C159" s="12" t="s">
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="C163" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="12" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="160" spans="2:5">
-      <c r="B160" s="12" t="s">
+      <c r="C164" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="C160" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5">
-      <c r="B161" s="12" t="s">
+      <c r="C165" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C161" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5">
-      <c r="B162" s="12" t="s">
+      <c r="E165" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C162" s="12" t="s">
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B166" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E162" s="5" t="s">
+      <c r="C166" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="12" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="163" spans="2:5">
-      <c r="B163" s="12" t="s">
+      <c r="C167" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C163" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5">
-      <c r="B164" s="12" t="s">
+      <c r="C168" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C164" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5">
-      <c r="B165" s="12" t="s">
+      <c r="E168" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C165" s="12" t="s">
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="C169" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="12" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="166" spans="2:5">
-      <c r="B166" s="12" t="s">
+      <c r="C170" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="C166" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5">
-      <c r="B167" s="12" t="s">
+      <c r="C171" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="C167" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5">
-      <c r="B168" s="12" t="s">
+      <c r="E171" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C168" s="12" t="s">
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="C172" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="12" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="169" spans="2:5">
-      <c r="B169" s="12" t="s">
+      <c r="C173" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B174" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="C169" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5">
-      <c r="B170" s="12" t="s">
+      <c r="C174" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="C170" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5">
-      <c r="B171" s="12" t="s">
+      <c r="E174" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="C171" s="12" t="s">
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E171" s="12" t="s">
+      <c r="C175" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B176" s="12" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="172" spans="2:5">
-      <c r="B172" s="12" t="s">
+      <c r="C176" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B177" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C172" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E172" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5">
-      <c r="B173" s="12" t="s">
+      <c r="C177" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="C173" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E173" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5">
-      <c r="B174" s="12" t="s">
+      <c r="E177" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C174" s="12" t="s">
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="E174" s="12" t="s">
+      <c r="C178" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="12" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="175" spans="2:5">
-      <c r="B175" s="12" t="s">
+      <c r="C179" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="C175" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="E175" s="12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5">
-      <c r="B176" s="12" t="s">
+      <c r="C180" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C176" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="E176" s="12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5">
-      <c r="B177" s="12" t="s">
+      <c r="E180" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C177" s="12" t="s">
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="E177" s="12" t="s">
+      <c r="C181" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B182" s="12" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="178" spans="2:5">
-      <c r="B178" s="12" t="s">
+      <c r="C182" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="C178" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E178" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5">
-      <c r="B179" s="12" t="s">
+      <c r="C183" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="C179" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E179" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5">
-      <c r="B180" s="12" t="s">
+      <c r="E183" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C180" s="12" t="s">
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B184" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="E180" s="12" t="s">
+      <c r="C184" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B185" s="12" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="181" spans="2:5">
-      <c r="B181" s="12" t="s">
+      <c r="C185" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B186" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C181" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="E181" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5">
-      <c r="B182" s="12" t="s">
+      <c r="C186" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C182" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="E182" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5">
-      <c r="B183" s="12" t="s">
+      <c r="E186" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C183" s="12" t="s">
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B187" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="E183" s="12" t="s">
+      <c r="C187" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B188" s="12" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="184" spans="2:5">
-      <c r="B184" s="12" t="s">
+      <c r="C188" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C184" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="E184" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5">
-      <c r="B185" s="12" t="s">
+      <c r="C189" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="C185" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="E185" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5">
-      <c r="B186" s="12" t="s">
+      <c r="E189" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="C186" s="12" t="s">
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B190" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="E186" s="12" t="s">
+      <c r="C190" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="12" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="187" spans="2:5">
-      <c r="B187" s="12" t="s">
+      <c r="C191" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="C187" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="E187" s="12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5">
-      <c r="B188" s="12" t="s">
+      <c r="C192" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C188" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="E188" s="12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5">
-      <c r="B189" s="12" t="s">
+      <c r="E192" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C189" s="12" t="s">
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B193" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E189" s="12" t="s">
+      <c r="C193" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B194" s="12" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="190" spans="2:5">
-      <c r="B190" s="12" t="s">
+      <c r="C194" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B195" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C190" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E190" s="12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5">
-      <c r="B191" s="12" t="s">
+      <c r="C195" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C191" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E191" s="12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5">
-      <c r="B192" s="12" t="s">
+      <c r="E195" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C192" s="12" t="s">
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E192" s="5" t="s">
+      <c r="C196" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B197" s="12" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="193" spans="2:5">
-      <c r="B193" s="12" t="s">
+      <c r="C197" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="C193" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5">
-      <c r="B194" s="12" t="s">
+      <c r="C198" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="C194" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5">
-      <c r="B195" s="12" t="s">
+      <c r="E198" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C195" s="12" t="s">
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B199" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="E195" s="14" t="s">
+      <c r="C199" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E199" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B200" s="12" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="196" spans="2:5">
-      <c r="B196" s="12" t="s">
+      <c r="C200" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B201" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="C196" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E196" s="14" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5">
-      <c r="B197" s="12" t="s">
+      <c r="C201" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="C197" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E197" s="14" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5">
-      <c r="B198" s="12" t="s">
+      <c r="E201" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C198" s="12" t="s">
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B202" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="E198" s="12" t="s">
+      <c r="C202" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B203" s="12" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="199" spans="2:5">
-      <c r="B199" s="12" t="s">
+      <c r="C203" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B204" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="C199" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="E199" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5">
-      <c r="B200" s="12" t="s">
+      <c r="C204" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C200" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="E200" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5">
-      <c r="B201" s="12" t="s">
+      <c r="E204" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C201" s="12" t="s">
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B205" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="E201" s="12" t="s">
+      <c r="C205" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="12" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="202" spans="2:5">
-      <c r="B202" s="12" t="s">
+      <c r="C206" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B207" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C202" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="E202" s="12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5">
-      <c r="B203" s="12" t="s">
+      <c r="C207" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="C203" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="E203" s="12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5">
-      <c r="B204" s="12" t="s">
+      <c r="E207" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="C204" s="12" t="s">
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B208" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="E204" s="12" t="s">
+      <c r="C208" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B209" s="12" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="205" spans="2:5">
-      <c r="B205" s="12" t="s">
+      <c r="C209" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B210" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C205" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="E205" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5">
-      <c r="B206" s="12" t="s">
+      <c r="C210" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="C206" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="E206" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5">
-      <c r="B207" s="12" t="s">
+      <c r="E210" s="12" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B211" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="C211" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="E207" s="12" t="s">
+      <c r="C212" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B213" s="12" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="208" spans="2:5">
-      <c r="B208" s="12" t="s">
+      <c r="C213" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="C208" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="E208" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5">
-      <c r="B209" s="12" t="s">
+      <c r="E213" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C209" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="E209" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5">
-      <c r="B210" s="12" t="s">
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B214" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="C214" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E214" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B215" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E210" s="12" t="s">
+      <c r="C215" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E215" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B216" s="12" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="211" spans="2:5">
-      <c r="B211" s="12" t="s">
+      <c r="C216" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C211" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E211" s="12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5">
-      <c r="B212" s="12" t="s">
+      <c r="E216" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C212" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E212" s="12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5">
-      <c r="B213" s="12" t="s">
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B217" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="C213" s="12" t="s">
+      <c r="C217" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B218" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="E213" s="12" t="s">
+      <c r="C218" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B219" s="12" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="214" spans="2:5">
-      <c r="B214" s="12" t="s">
+      <c r="C219" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="C214" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E214" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="215" spans="2:5">
-      <c r="B215" s="12" t="s">
+      <c r="E219" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="C215" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E215" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="216" spans="2:5">
-      <c r="B216" s="12" t="s">
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B220" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="C216" s="12" t="s">
+      <c r="C220" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B221" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="E216" s="12" t="s">
+      <c r="C221" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B223" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="217" spans="2:5">
-      <c r="B217" s="12" t="s">
+      <c r="C223" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
         <v>369</v>
       </c>
-      <c r="C217" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E217" s="12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5">
-      <c r="B218" s="12" t="s">
+      <c r="C224" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
         <v>370</v>
       </c>
-      <c r="C218" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E218" s="12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5">
-      <c r="B220" s="6" t="s">
+      <c r="C225" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
         <v>371</v>
       </c>
-      <c r="C220" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="221" spans="2:5">
-      <c r="B221" t="s">
+      <c r="C226" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
         <v>372</v>
       </c>
-      <c r="C221" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="222" spans="2:5">
-      <c r="B222" t="s">
+      <c r="C227" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E227" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
         <v>373</v>
       </c>
-      <c r="C222" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5">
-      <c r="B223" t="s">
+      <c r="C228" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E228" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
         <v>374</v>
       </c>
-      <c r="C223" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="E223" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="224" spans="2:5">
-      <c r="B224" t="s">
+      <c r="C229" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E229" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C224" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="E224" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5">
-      <c r="B225" t="s">
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
         <v>376</v>
       </c>
-      <c r="C225" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="E225" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5">
-      <c r="B226" t="s">
+      <c r="C230" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E230" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
         <v>377</v>
       </c>
-      <c r="C226" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E226" s="5" t="s">
+      <c r="C231" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E231" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="227" spans="2:5">
-      <c r="B227" t="s">
+      <c r="C232" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E232" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C227" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E227" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5">
-      <c r="B228" t="s">
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
         <v>380</v>
       </c>
-      <c r="C228" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E228" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5">
-      <c r="B229" t="s">
+      <c r="C233" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
         <v>381</v>
       </c>
-      <c r="C229" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="E229" s="5" t="s">
+      <c r="C234" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="230" spans="2:5">
-      <c r="B230" t="s">
+      <c r="C235" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E235" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C230" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="E230" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="231" spans="2:5">
-      <c r="B231" t="s">
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
         <v>384</v>
       </c>
-      <c r="C231" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="E231" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="232" spans="2:5">
-      <c r="B232" t="s">
+      <c r="C236" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
         <v>385</v>
       </c>
-      <c r="C232" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E232" s="5" t="s">
+      <c r="C237" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="233" spans="2:5">
-      <c r="B233" t="s">
+      <c r="C238" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
         <v>387</v>
       </c>
-      <c r="C233" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="234" spans="2:5">
-      <c r="B234" t="s">
+      <c r="C239" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
         <v>388</v>
       </c>
-      <c r="C234" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E234" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5">
-      <c r="B235" t="s">
+      <c r="C240" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
         <v>389</v>
       </c>
-      <c r="C235" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E235" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="236" spans="2:5">
-      <c r="B236" t="s">
+      <c r="C241" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
         <v>390</v>
       </c>
-      <c r="C236" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E236" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5">
-      <c r="B237" t="s">
+      <c r="C242" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
         <v>391</v>
       </c>
-      <c r="C237" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E237" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="238" spans="2:5">
-      <c r="B238" t="s">
+      <c r="C243" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
         <v>392</v>
       </c>
-      <c r="C238" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="239" spans="2:5">
-      <c r="B239" t="s">
+      <c r="C244" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E244" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C239" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="E239" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="240" spans="2:5">
-      <c r="B240" t="s">
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
         <v>394</v>
       </c>
-      <c r="C240" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="E240" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="241" spans="2:6">
-      <c r="B241" t="s">
-        <v>395</v>
-      </c>
-      <c r="C241" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="242" spans="2:6">
-      <c r="B242" t="s">
-        <v>397</v>
-      </c>
-      <c r="C242" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E242" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="243" spans="2:6">
-      <c r="B243" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="C243" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E243" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="245" spans="2:6">
-      <c r="B245" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="C245" s="5" t="s">
+      <c r="C245" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E245" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B246" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E246" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B251" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="246" spans="2:6">
-      <c r="B246" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="247" spans="2:6">
-      <c r="B247" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="D247" s="5"/>
-      <c r="E247" s="5" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="248" spans="2:6">
-      <c r="B248" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="D248" s="5"/>
-      <c r="E248" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="F248" s="5"/>
-    </row>
-    <row r="249" spans="2:6">
-      <c r="B249" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="D249" s="5"/>
-      <c r="E249" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="250" spans="2:6">
-      <c r="B250" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="D250" s="5"/>
-      <c r="E250" s="5" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="251" spans="2:6">
-      <c r="B251" s="5" t="s">
-        <v>811</v>
-      </c>
       <c r="C251" s="5" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="F251" s="5"/>
-    </row>
-    <row r="252" spans="2:6">
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B252" s="5" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="253" spans="2:6">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B253" s="5" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="254" spans="2:6">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B254" s="5" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="5" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F254" s="5"/>
     </row>
-    <row r="255" spans="2:6">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B255" s="5" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="D255" s="5"/>
-      <c r="E255" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="F255" s="5"/>
-    </row>
-    <row r="256" spans="2:6">
+      <c r="E255" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B256" s="5" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B257" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="F257" s="5"/>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B258" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B259" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B260" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="F260" s="5"/>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B261" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="257" spans="2:5">
-      <c r="B257" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="D257" s="5"/>
-      <c r="E257" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="259" spans="2:5">
-      <c r="B259" s="5" t="s">
+      <c r="F261" s="5"/>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B262" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B263" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="D263" s="5"/>
+      <c r="E263" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B264" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B266" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B267" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="C267" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="E267" s="5" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B268" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B269" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="C269" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="E259" s="5" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="260" spans="2:5">
-      <c r="B260" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="E260" s="5" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="261" spans="2:5">
-      <c r="B261" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="E261" s="5" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="262" spans="2:5">
-      <c r="B262" s="5" t="s">
+      <c r="E269" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="C262" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="E262" s="5" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="264" spans="2:5">
-      <c r="B264" s="16" t="s">
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B270" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B272" s="16" t="s">
+        <v>900</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="E272" s="16" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B273" s="16" t="s">
+        <v>901</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="E273" s="16" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B274" s="16" t="s">
+        <v>902</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="E274" s="16" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B275" s="16" t="s">
+        <v>903</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="E275" s="16" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B276" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="E276" s="16" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B277" s="16" t="s">
+        <v>905</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="E277" s="16" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B278" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="E278" s="16" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B279" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="E279" s="16" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B280" s="16" t="s">
+        <v>908</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="E280" s="16" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B281" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="E281" s="17" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B282" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E282" s="16" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B283" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="E283" s="16" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B284" s="16" t="s">
         <v>912</v>
       </c>
-      <c r="C264" s="5" t="s">
-        <v>933</v>
-      </c>
-      <c r="E264" s="16" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="265" spans="2:5">
-      <c r="B265" s="16" t="s">
+      <c r="C284" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="E284" s="16" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B285" s="16" t="s">
         <v>913</v>
       </c>
-      <c r="C265" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="E265" s="16" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5">
-      <c r="B266" s="16" t="s">
+      <c r="C285" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="E285" s="16" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B286" s="16" t="s">
         <v>914</v>
       </c>
-      <c r="C266" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="E266" s="16" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="267" spans="2:5">
-      <c r="B267" s="16" t="s">
+      <c r="C286" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="E286" s="16" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B287" s="16" t="s">
         <v>915</v>
       </c>
-      <c r="C267" s="5" t="s">
-        <v>939</v>
-      </c>
-      <c r="E267" s="16" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="268" spans="2:5">
-      <c r="B268" s="16" t="s">
+      <c r="C287" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="E287" s="16" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B288" s="16" t="s">
         <v>916</v>
       </c>
-      <c r="C268" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="E268" s="16" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="269" spans="2:5">
-      <c r="B269" s="16" t="s">
+      <c r="C288" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="E288" s="16" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B289" s="16" t="s">
         <v>917</v>
       </c>
-      <c r="C269" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="E269" s="16" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="270" spans="2:5">
-      <c r="B270" s="16" t="s">
+      <c r="C289" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="E289" s="16" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B290" s="16" t="s">
         <v>918</v>
       </c>
-      <c r="C270" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="E270" s="16" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5">
-      <c r="B271" s="16" t="s">
+      <c r="C290" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="E290" s="16" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B291" s="16" t="s">
         <v>919</v>
       </c>
-      <c r="C271" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="E271" s="16" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5">
-      <c r="B272" s="16" t="s">
+      <c r="C291" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="E291" s="16" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B292" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="C272" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="E272" s="16" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="273" spans="2:5">
-      <c r="B273" s="16" t="s">
-        <v>921</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="E273" s="17" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="274" spans="2:5">
-      <c r="B274" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="E274" s="16" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="275" spans="2:5">
-      <c r="B275" s="16" t="s">
-        <v>923</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>947</v>
-      </c>
-      <c r="E275" s="16" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="276" spans="2:5">
-      <c r="B276" s="16" t="s">
-        <v>924</v>
-      </c>
-      <c r="C276" s="5" t="s">
+      <c r="C292" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="E276" s="16" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="277" spans="2:5">
-      <c r="B277" s="16" t="s">
-        <v>925</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>951</v>
-      </c>
-      <c r="E277" s="16" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="278" spans="2:5">
-      <c r="B278" s="16" t="s">
-        <v>926</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="E278" s="16" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="279" spans="2:5">
-      <c r="B279" s="16" t="s">
-        <v>927</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>955</v>
-      </c>
-      <c r="E279" s="16" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="280" spans="2:5">
-      <c r="B280" s="16" t="s">
-        <v>928</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>956</v>
-      </c>
-      <c r="E280" s="16" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="281" spans="2:5">
-      <c r="B281" s="16" t="s">
-        <v>929</v>
-      </c>
-      <c r="C281" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="E281" s="16" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="282" spans="2:5">
-      <c r="B282" s="16" t="s">
-        <v>930</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="E282" s="16" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="283" spans="2:5">
-      <c r="B283" s="16" t="s">
-        <v>931</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="E283" s="16" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="284" spans="2:5">
-      <c r="B284" s="16" t="s">
-        <v>932</v>
-      </c>
-      <c r="C284" s="5" t="s">
+      <c r="E292" s="16" t="s">
         <v>962</v>
       </c>
-      <c r="E284" s="16" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="285" spans="2:5">
-      <c r="C285" s="5"/>
-    </row>
-    <row r="286" spans="2:5">
-      <c r="C286" s="5"/>
-    </row>
-    <row r="287" spans="2:5">
-      <c r="C287" s="5"/>
-    </row>
-    <row r="288" spans="2:5">
-      <c r="C288" s="5"/>
-    </row>
-    <row r="289" spans="3:3">
-      <c r="C289" s="5"/>
-    </row>
-    <row r="290" spans="3:3">
-      <c r="C290" s="5"/>
-    </row>
-    <row r="291" spans="3:3">
-      <c r="C291" s="5"/>
-    </row>
-    <row r="292" spans="3:3">
-      <c r="C292" s="5"/>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B293" s="16"/>
+      <c r="C293" s="5"/>
+      <c r="E293" s="16"/>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B294" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E294" s="16" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B295" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B296" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E296" s="16" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B297" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B298" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B299" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B300" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B301" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B302" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B303" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B304" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E305" s="5"/>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B306" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B307" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B308" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B309" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B310" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B311" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B312" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B313" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B314" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B315" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B316" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>1141</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -6875,13 +7934,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206:XFD213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="50.5" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
@@ -6889,7 +7948,7 @@
     <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6906,7 +7965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -6923,7 +7982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -6936,1827 +7995,2163 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" t="s">
         <v>408</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" s="6" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" t="s">
+        <v>408</v>
+      </c>
+      <c r="E15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="5" t="s">
+      <c r="E16" t="s">
         <v>431</v>
       </c>
-      <c r="C15" t="s">
-        <v>411</v>
-      </c>
-      <c r="E15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="5" t="s">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" s="7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" t="s">
         <v>439</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>442</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>444</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>447</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" s="7" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="5" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="5" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="5" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="5" t="s">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="5" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="5" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E33" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="5" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" s="6" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="5" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E35" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="5" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="5" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="5" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="5" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="5" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>999</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="5" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="5" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E44" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="5" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E47" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="5" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="5" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E49" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="5" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E50" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="5" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E51" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="5" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C52" t="s">
         <v>525</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E52" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="5" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C53" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>975</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="5" t="s">
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C55" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="5" t="s">
+      <c r="E56" s="5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>976</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="5" t="s">
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="5" t="s">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="5" t="s">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C60" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="5" t="s">
+      <c r="E61" t="s">
         <v>546</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="5" t="s">
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E62" s="5" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="5" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C63" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="5" t="s">
+      <c r="E64" t="s">
         <v>553</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="5" t="s">
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E65" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="5" t="s">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="E63" t="s">
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="5" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="E64" s="5" t="s">
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="5" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="B65" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="E65" s="5" t="s">
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="5" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="B66" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="E66" s="5" t="s">
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="5" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="B67" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="E67" s="5" t="s">
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="5" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="B68" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="E68" s="5" t="s">
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="5" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="B69" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="E69" s="5" t="s">
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="5" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="B70" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="E70" s="5" t="s">
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="5" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="B71" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="E71" s="5" t="s">
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="5" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="B72" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="E72" s="5" t="s">
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="B73" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="E73" s="5" t="s">
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="5" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="B74" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="E74" s="5" t="s">
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="5" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="B75" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="E75" s="5" t="s">
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="5" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="B76" s="5" t="s">
+      <c r="C80" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="E80" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="E76" s="5" t="s">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="5" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="B77" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="E81" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="B78" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="C81" t="s">
-        <v>610</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="C84" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="C85" t="s">
-        <v>622</v>
+        <v>608</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>609</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C86" t="s">
-        <v>625</v>
+        <v>611</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>612</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="C87" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="C88" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C89" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="C90" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>638</v>
+        <v>626</v>
+      </c>
+      <c r="C91" t="s">
+        <v>604</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="C92" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>642</v>
+        <v>630</v>
+      </c>
+      <c r="C93" t="s">
+        <v>631</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="C94" t="s">
-        <v>645</v>
+        <v>633</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>634</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>648</v>
+        <v>636</v>
+      </c>
+      <c r="C95" t="s">
+        <v>604</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="C96" t="s">
-        <v>651</v>
+        <v>637</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>638</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="C97" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="C98" t="s">
-        <v>657</v>
+        <v>643</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>644</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>660</v>
+        <v>646</v>
+      </c>
+      <c r="C99" t="s">
+        <v>647</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="C100" t="s">
+        <v>650</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="C101" t="s">
+        <v>653</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>668</v>
+        <v>658</v>
+      </c>
+      <c r="C103" t="s">
+        <v>647</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>622</v>
+        <v>659</v>
+      </c>
+      <c r="C104" t="s">
+        <v>650</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="E109" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="E105" s="5" t="s">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="5" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="B106" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="E110" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="E106" s="5" t="s">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="5" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="B107" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="E111" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="E107" s="5" t="s">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="B108" s="5" t="s">
+      <c r="C112" t="s">
         <v>680</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="E112" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="E108" s="5" t="s">
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="5" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="B109" s="5" t="s">
+      <c r="C113" t="s">
         <v>683</v>
       </c>
-      <c r="C109" t="s">
+      <c r="E113" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="E109" s="5" t="s">
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="5" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="B110" s="5" t="s">
+      <c r="C114" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C115" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="C116" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="5" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="B111" s="5" t="s">
+      <c r="C117" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="B112" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="C112" s="5" t="s">
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5">
-      <c r="B113" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>900</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="B115" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="E115" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="116" spans="2:5">
-      <c r="B116" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="B118" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="B119" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120" s="5" t="s">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E125" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="5" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="B121" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5">
-      <c r="B122" s="5" t="s">
+      <c r="E127" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C128" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="E122" s="5" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" s="5" t="s">
+      <c r="E128" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="C124" s="5" t="s">
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="B125" s="5" t="s">
+      <c r="C129" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="E129" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="E125" s="5" t="s">
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="5" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="126" spans="2:5">
-      <c r="B126" s="5" t="s">
+      <c r="C130" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="E130" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="C131" s="6" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="127" spans="2:5">
-      <c r="B127" s="5" t="s">
+      <c r="E131" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="C127" s="5" t="s">
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="E127" s="5" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128" s="6" t="s">
+      <c r="C132" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="E132" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="E128" s="6" t="s">
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="6" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="129" spans="2:5">
-      <c r="B129" s="6" t="s">
+      <c r="C133" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="E133" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="E129" s="6" t="s">
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="6" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" s="6" t="s">
+      <c r="C134" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="E130" s="6" t="s">
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="6" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" s="6" t="s">
+      <c r="C135" t="s">
         <v>728</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="E135" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="E131" s="6" t="s">
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="6" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" s="6" t="s">
+      <c r="C136" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="C132" t="s">
+      <c r="E136" t="s">
         <v>732</v>
       </c>
-      <c r="E132" s="6" t="s">
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="6" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" s="6" t="s">
+      <c r="C137" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="E137" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="E133" t="s">
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="6" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" s="6" t="s">
+      <c r="C138" t="s">
         <v>737</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="E138" t="s">
         <v>738</v>
       </c>
-      <c r="E134" s="6" t="s">
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="6" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" s="6" t="s">
+      <c r="C139" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="C135" t="s">
+      <c r="E139" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="E135" t="s">
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="6" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="136" spans="2:5">
-      <c r="B136" s="6" t="s">
+      <c r="C140" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="E140" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="E136" s="6" t="s">
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="6" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" s="6" t="s">
+      <c r="C141" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="E141" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="E137" s="6" t="s">
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B145" s="5" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138" s="6" t="s">
+      <c r="C145" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="E145" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="E138" s="6" t="s">
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="5" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="139" spans="2:5">
-      <c r="B139" s="5" t="s">
+      <c r="C146" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>757</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="E149" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="C150" t="s">
+        <v>764</v>
+      </c>
+      <c r="E150" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C152" s="5"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C155" s="6"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>770</v>
+      </c>
+      <c r="C156" t="s">
+        <v>771</v>
+      </c>
+      <c r="E156" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>772</v>
+      </c>
+      <c r="C157" t="s">
+        <v>773</v>
+      </c>
+      <c r="E157" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>775</v>
+      </c>
+      <c r="C158" t="s">
+        <v>776</v>
+      </c>
+      <c r="E158" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>777</v>
+      </c>
+      <c r="C159" t="s">
+        <v>778</v>
+      </c>
+      <c r="E159" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="E161" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>844</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5">
-      <c r="B140" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" ht="42.75">
-      <c r="B142" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5">
-      <c r="B143" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5">
-      <c r="B145" t="s">
-        <v>761</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5">
-      <c r="B146" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="E146" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5">
-      <c r="B147" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="C147" t="s">
-        <v>768</v>
-      </c>
-      <c r="E147" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="B148" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="B150" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5">
-      <c r="C151" s="6"/>
-    </row>
-    <row r="152" spans="2:5">
-      <c r="B152" t="s">
-        <v>775</v>
-      </c>
-      <c r="C152" t="s">
-        <v>776</v>
-      </c>
-      <c r="E152" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5">
-      <c r="B153" t="s">
-        <v>777</v>
-      </c>
-      <c r="C153" t="s">
-        <v>778</v>
-      </c>
-      <c r="E153" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5">
-      <c r="B154" t="s">
-        <v>780</v>
-      </c>
-      <c r="C154" t="s">
-        <v>781</v>
-      </c>
-      <c r="E154" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5">
-      <c r="B155" t="s">
-        <v>782</v>
-      </c>
-      <c r="C155" t="s">
-        <v>783</v>
-      </c>
-      <c r="E155" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5">
-      <c r="B157" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="E157" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5">
-      <c r="B158" s="15" t="s">
-        <v>787</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="E158" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5">
-      <c r="B159" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="E159" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5">
-      <c r="B160" s="15" t="s">
-        <v>786</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="E160" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5">
-      <c r="B162" s="15" t="s">
-        <v>789</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>790</v>
       </c>
       <c r="E162" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="164" spans="2:5">
-      <c r="B164" s="5" t="s">
-        <v>841</v>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="E163" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="15" t="s">
+        <v>781</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="E164" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B166" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="E166" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="166" spans="2:5">
-      <c r="B166" t="s">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="E168" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>851</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="E171" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5">
-      <c r="B167" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5">
-      <c r="B169" t="s">
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B174" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>869</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B177" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E178" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="C169" s="5" t="s">
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>870</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="E179" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C180" t="s">
+        <v>650</v>
+      </c>
+      <c r="E180" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B182" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="C182" t="s">
+        <v>884</v>
+      </c>
+      <c r="E182" t="s">
         <v>885</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5">
-      <c r="B170" t="s">
-        <v>877</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5">
-      <c r="B171" t="s">
-        <v>878</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5">
-      <c r="B172" t="s">
-        <v>879</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5">
-      <c r="B173" t="s">
-        <v>880</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="E173" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5">
-      <c r="B174" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="C174" t="s">
-        <v>654</v>
-      </c>
-      <c r="E174" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5">
-      <c r="B176" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="C176" t="s">
-        <v>896</v>
-      </c>
-      <c r="E176" t="s">
-        <v>897</v>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B184" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B185" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B186" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B187" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B190" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B193" s="5"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B194" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B195" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B197" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B199" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B201" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B202" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B204" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B207" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B208" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B209" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B210" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B211" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B213" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>1180</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F99A8C5-9D11-4C06-97CA-22D38E51F869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7EDED5-1EBF-4E0F-B129-93BD8C6DFC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置表中的" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="1248">
   <si>
     <t>##var</t>
   </si>
@@ -1619,9 +1619,6 @@
     <t>TextCode_Key_Battle_PutHomeText1</t>
   </si>
   <si>
-    <t>请按住拖拉放置大本营</t>
-  </si>
-  <si>
     <t>Drag to place the headquarter</t>
   </si>
   <si>
@@ -1643,9 +1640,6 @@
     <t>TextCode_Key_Battle_PutMonsterPoint2</t>
   </si>
   <si>
-    <t>请按住拖拉放置刷怪点</t>
-  </si>
-  <si>
     <t>TextCode_Key_Battle_CurMonsterWaveIndex</t>
   </si>
   <si>
@@ -1742,18 +1736,12 @@
     <t>TextCode_Key_Battle_ChkPutMesh_IsOnUI</t>
   </si>
   <si>
-    <t>当前手指在UI上,请挪开</t>
-  </si>
-  <si>
     <t>Move your finger from the UI</t>
   </si>
   <si>
     <t>TextCode_Key_Battle_ChkPutMesh_IsReachHome</t>
   </si>
   <si>
-    <t>当前放置位置 没法到达大本营,请重新选位置</t>
-  </si>
-  <si>
     <t>This spot can't reach the basecamp. Try another place.</t>
   </si>
   <si>
@@ -1976,9 +1964,6 @@
     <t>TextCode_Key_Dialog_LeaveTheRoom_Des</t>
   </si>
   <si>
-    <t>离开后，需要等待游戏结束、并重扫二维码加入</t>
-  </si>
-  <si>
     <t>You'll have to wait for the current game to end before rejoining your friends.</t>
   </si>
   <si>
@@ -2192,9 +2177,6 @@
     <t>TextCode_Key_Tip_NoWayToConnectHome</t>
   </si>
   <si>
-    <t>当前放置位置 没法连通大本营,请重新选位置</t>
-  </si>
-  <si>
     <t>The current placement cannot connect to the headquarters, please choose a new location.</t>
   </si>
   <si>
@@ -2237,16 +2219,10 @@
     <t>TextCode_Key_Room_WaitAllReady</t>
   </si>
   <si>
-    <t>请等待所有人员准备好</t>
-  </si>
-  <si>
     <t>Please wait for all players to be ready.</t>
   </si>
   <si>
     <t>TextCode_Key_Room_EachCampHaveSomeone</t>
-  </si>
-  <si>
-    <t>必须每个阵营都有人</t>
   </si>
   <si>
     <t>Each camp must have at least one player.</t>
@@ -2629,10 +2605,6 @@
   </si>
   <si>
     <t>Next</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一关</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -3086,10 +3058,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>请等待其他玩家放置刷怪点{0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Wait for other players to place the {0}.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3157,14 +3125,6 @@
   </si>
   <si>
     <t>Your account is logged in elsewhere</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎来到教学！请点击开始扫描战场。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome to the tutorial! Please tap to begin scanning the battlefield.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -3975,6 +3935,303 @@
   </si>
   <si>
     <t>Summons lightning to strike  an enemy. Since it requires accumulating energy from the cloud layer, the higher it is from the enemy, the greater the damage.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎来到教学！请保证光线明亮，并点击开始扫描战场。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome! Please ensure good lighting and tap to start scanning the battlefield.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please contact your administrator to scan the terrain before starting the game</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_ArcadeARSceneId_NotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形不存在,请联系管理员进行扫描后再开始游戏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须每个阵营都有玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>请等待所有玩家准备好</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前位置无法连通大本营,请重新选择</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否离开当前游戏房间？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前手指在UI上,请挪开</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>减益</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>请按住拖动放置大本营</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>请等待其他玩家放置传送门{0}</t>
+  </si>
+  <si>
+    <t>请按住拖拉放置传送门</t>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_PhysicalStrength_Regain</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_PhysicalStrength_WatchAd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regain &lt;sprite name=Energy&gt;{0} in {1}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get &lt;sprite name=Energy&gt;{0} now</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看广告获得 &lt;sprite name=Energy&gt;{0}能量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在{1}后获得 &lt;sprite name=Energy&gt;{0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You need &lt;sprite name=Energy&gt;{0} to play, Do you want more?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你需要 &lt;sprite name=Energy&gt;{0} 才能继续, 是否获取更多?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_PhysicalStrength_GetMore</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买代币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy tokens</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payment success</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrong password</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_ArcadeCoin_PaySuccessed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_ArcadeCoin_Msg</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_ArcadeCoin_Title</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_PasswordError</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费{0}元购买 &lt;sprite name=ArcadeCoin&gt; {1} ?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whether to spend {0} yuan to buy  &lt;sprite name=ArcadeCoin&gt; {1} ?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_Password_Title</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码验证</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password Authentification</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_ArcadeScanMesh_Tip</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>需进行密码验证</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password verification is required</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_ArcadePersonalInfo_Tip</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_Title</t>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_Confirm</t>
+  </si>
+  <si>
+    <t>请选择</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}秒后,退出战斗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费复活</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverFree_Msg</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverFree_Confirm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverFree_Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverFree_TimeOutMsg</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverFree_Confirm_Msg</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverFree_Confirm_TimeOutMsg</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待其他玩家就绪 或 时间到后 复活</t>
+  </si>
+  <si>
+    <t>{0}秒后复活</t>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverWatchAd_Msg</t>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverWatchAd_TimeOutMsg</t>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverWatchAd_Confirm</t>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverWatchAd_Cancel</t>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverWatchAd_Confirm_Msg</t>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverWatchAd_Confirm_TimeOutMsg</t>
+  </si>
+  <si>
+    <t>复活</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverArcadeCoin_Msg</t>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverArcadeCoin_TimeOutMsg</t>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverArcadeCoin_Confirm</t>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverArcadeCoin_Cancel</t>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverArcadeCoin_Confirm_Msg</t>
+  </si>
+  <si>
+    <t>TextCode_Key_CommonChoose_RecoverArcadeCoin_Confirm_TimeOutMsg</t>
+  </si>
+  <si>
+    <t>&lt;sprite name=ArcadeCoin&gt;{0} 复活</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否立即复活继续挑战?
+(剩余{0}次机会)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否观看广告来复活继续挑战?
+(剩余{0}次机会)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否消耗&lt;sprite name=ArcadeCoin&gt;{0}立即复活继续挑战?
+(剩余{1}次机会)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -4431,20 +4688,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="47.625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4478,7 +4735,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4512,7 +4769,7 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4542,7 +4799,7 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -4553,7 +4810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -4564,7 +4821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -4575,7 +4832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -4586,7 +4843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -4597,7 +4854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -4608,7 +4865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -4619,7 +4876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -4630,7 +4887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -4641,7 +4898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -4652,7 +4909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -4663,7 +4920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -4674,7 +4931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -4685,7 +4942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -4696,7 +4953,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -4707,7 +4964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>43</v>
       </c>
@@ -4718,7 +4975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -4729,7 +4986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>49</v>
       </c>
@@ -4740,7 +4997,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>52</v>
       </c>
@@ -4751,7 +5008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -4762,7 +5019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>56</v>
       </c>
@@ -4773,7 +5030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>57</v>
       </c>
@@ -4784,7 +5041,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>60</v>
       </c>
@@ -4795,7 +5052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>61</v>
       </c>
@@ -4806,7 +5063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -4817,7 +5074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>67</v>
       </c>
@@ -4828,7 +5085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>68</v>
       </c>
@@ -4839,7 +5096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>69</v>
       </c>
@@ -4850,7 +5107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>72</v>
       </c>
@@ -4861,7 +5118,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>73</v>
       </c>
@@ -4872,7 +5129,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>74</v>
       </c>
@@ -4883,7 +5140,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>77</v>
       </c>
@@ -4894,7 +5151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>78</v>
       </c>
@@ -4905,7 +5162,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>79</v>
       </c>
@@ -4916,7 +5173,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>82</v>
       </c>
@@ -4927,7 +5184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>85</v>
       </c>
@@ -4938,7 +5195,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>86</v>
       </c>
@@ -4949,7 +5206,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>87</v>
       </c>
@@ -4960,7 +5217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>88</v>
       </c>
@@ -4971,7 +5228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>89</v>
       </c>
@@ -4982,7 +5239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>90</v>
       </c>
@@ -4993,7 +5250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>91</v>
       </c>
@@ -5004,7 +5261,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>92</v>
       </c>
@@ -5015,7 +5272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>93</v>
       </c>
@@ -5026,7 +5283,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>94</v>
       </c>
@@ -5037,7 +5294,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>95</v>
       </c>
@@ -5048,7 +5305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>96</v>
       </c>
@@ -5059,7 +5316,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>99</v>
       </c>
@@ -5070,7 +5327,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>102</v>
       </c>
@@ -5081,7 +5338,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>105</v>
       </c>
@@ -5092,7 +5349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>106</v>
       </c>
@@ -5103,7 +5360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>107</v>
       </c>
@@ -5114,7 +5371,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>110</v>
       </c>
@@ -5125,7 +5382,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>111</v>
       </c>
@@ -5136,295 +5393,295 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>112</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>113</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>114</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>117</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>118</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>119</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>120</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>121</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>122</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>123</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>124</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>125</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>126</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>127</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>128</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>129</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>130</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>131</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>132</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>133</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>134</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>135</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>136</v>
       </c>
@@ -5435,7 +5692,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>139</v>
       </c>
@@ -5446,7 +5703,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>140</v>
       </c>
@@ -5457,7 +5714,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>141</v>
       </c>
@@ -5468,7 +5725,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>144</v>
       </c>
@@ -5479,7 +5736,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>145</v>
       </c>
@@ -5490,40 +5747,40 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>146</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="E89" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>147</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="E90" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>148</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>149</v>
       </c>
@@ -5534,7 +5791,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>152</v>
       </c>
@@ -5545,7 +5802,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>153</v>
       </c>
@@ -5556,7 +5813,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>154</v>
       </c>
@@ -5567,7 +5824,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>157</v>
       </c>
@@ -5578,7 +5835,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>158</v>
       </c>
@@ -5589,7 +5846,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>159</v>
       </c>
@@ -5600,7 +5857,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>162</v>
       </c>
@@ -5611,7 +5868,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>163</v>
       </c>
@@ -5622,7 +5879,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>164</v>
       </c>
@@ -5633,7 +5890,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>167</v>
       </c>
@@ -5644,7 +5901,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>168</v>
       </c>
@@ -5655,7 +5912,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>169</v>
       </c>
@@ -5666,7 +5923,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>172</v>
       </c>
@@ -5677,7 +5934,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>173</v>
       </c>
@@ -5688,7 +5945,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>174</v>
       </c>
@@ -5699,7 +5956,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>177</v>
       </c>
@@ -5710,7 +5967,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>178</v>
       </c>
@@ -5721,7 +5978,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>179</v>
       </c>
@@ -5732,7 +5989,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>182</v>
       </c>
@@ -5743,7 +6000,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>183</v>
       </c>
@@ -5754,7 +6011,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>184</v>
       </c>
@@ -5765,7 +6022,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>187</v>
       </c>
@@ -5776,7 +6033,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>188</v>
       </c>
@@ -5787,7 +6044,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>189</v>
       </c>
@@ -5798,7 +6055,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>192</v>
       </c>
@@ -5809,7 +6066,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>193</v>
       </c>
@@ -5820,7 +6077,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>194</v>
       </c>
@@ -5831,7 +6088,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>197</v>
       </c>
@@ -5842,18 +6099,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>198</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>199</v>
       </c>
@@ -5864,7 +6121,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>202</v>
       </c>
@@ -5875,7 +6132,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>203</v>
       </c>
@@ -5886,7 +6143,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>204</v>
       </c>
@@ -5897,7 +6154,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>207</v>
       </c>
@@ -5908,7 +6165,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>208</v>
       </c>
@@ -5919,7 +6176,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>209</v>
       </c>
@@ -5930,7 +6187,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>212</v>
       </c>
@@ -5941,7 +6198,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>213</v>
       </c>
@@ -5952,40 +6209,40 @@
         <v>211</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="E131" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="E132" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>214</v>
       </c>
@@ -5996,7 +6253,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>217</v>
       </c>
@@ -6007,7 +6264,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>220</v>
       </c>
@@ -6018,7 +6275,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>223</v>
       </c>
@@ -6029,7 +6286,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
         <v>226</v>
       </c>
@@ -6040,7 +6297,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="6" t="s">
         <v>229</v>
       </c>
@@ -6051,7 +6308,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="6" t="s">
         <v>232</v>
       </c>
@@ -6062,7 +6319,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="6" t="s">
         <v>235</v>
       </c>
@@ -6073,7 +6330,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="6" t="s">
         <v>238</v>
       </c>
@@ -6084,51 +6341,51 @@
         <v>240</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="6" t="s">
         <v>241</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>233</v>
+        <v>1180</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="6" t="s">
         <v>243</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>236</v>
+        <v>1181</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>239</v>
+        <v>792</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="6" t="s">
         <v>247</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>239</v>
+        <v>787</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="12" t="s">
         <v>249</v>
       </c>
@@ -6139,7 +6396,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="12" t="s">
         <v>252</v>
       </c>
@@ -6150,7 +6407,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="12" t="s">
         <v>253</v>
       </c>
@@ -6161,7 +6418,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="12" t="s">
         <v>254</v>
       </c>
@@ -6172,7 +6429,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="12" t="s">
         <v>257</v>
       </c>
@@ -6183,7 +6440,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="12" t="s">
         <v>258</v>
       </c>
@@ -6194,7 +6451,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="12" t="s">
         <v>259</v>
       </c>
@@ -6205,7 +6462,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="12" t="s">
         <v>262</v>
       </c>
@@ -6216,7 +6473,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="12" t="s">
         <v>263</v>
       </c>
@@ -6227,7 +6484,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="12" t="s">
         <v>264</v>
       </c>
@@ -6238,7 +6495,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="12" t="s">
         <v>267</v>
       </c>
@@ -6249,7 +6506,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="12" t="s">
         <v>268</v>
       </c>
@@ -6260,7 +6517,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="12" t="s">
         <v>269</v>
       </c>
@@ -6271,7 +6528,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="12" t="s">
         <v>272</v>
       </c>
@@ -6282,7 +6539,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="12" t="s">
         <v>273</v>
       </c>
@@ -6293,7 +6550,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="12" t="s">
         <v>274</v>
       </c>
@@ -6304,7 +6561,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="12" t="s">
         <v>277</v>
       </c>
@@ -6315,7 +6572,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="12" t="s">
         <v>278</v>
       </c>
@@ -6326,7 +6583,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="12" t="s">
         <v>279</v>
       </c>
@@ -6337,7 +6594,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="12" t="s">
         <v>282</v>
       </c>
@@ -6348,7 +6605,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="12" t="s">
         <v>283</v>
       </c>
@@ -6359,7 +6616,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="12" t="s">
         <v>284</v>
       </c>
@@ -6370,7 +6627,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="12" t="s">
         <v>287</v>
       </c>
@@ -6381,7 +6638,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="12" t="s">
         <v>288</v>
       </c>
@@ -6392,7 +6649,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="12" t="s">
         <v>289</v>
       </c>
@@ -6403,7 +6660,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="12" t="s">
         <v>292</v>
       </c>
@@ -6414,7 +6671,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="12" t="s">
         <v>293</v>
       </c>
@@ -6425,7 +6682,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="12" t="s">
         <v>294</v>
       </c>
@@ -6436,7 +6693,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="12" t="s">
         <v>297</v>
       </c>
@@ -6447,7 +6704,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="12" t="s">
         <v>298</v>
       </c>
@@ -6458,7 +6715,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="12" t="s">
         <v>299</v>
       </c>
@@ -6469,7 +6726,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="12" t="s">
         <v>302</v>
       </c>
@@ -6480,7 +6737,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="12" t="s">
         <v>303</v>
       </c>
@@ -6491,7 +6748,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="12" t="s">
         <v>304</v>
       </c>
@@ -6502,7 +6759,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="12" t="s">
         <v>307</v>
       </c>
@@ -6513,7 +6770,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
         <v>308</v>
       </c>
@@ -6524,7 +6781,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="12" t="s">
         <v>309</v>
       </c>
@@ -6535,7 +6792,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="12" t="s">
         <v>312</v>
       </c>
@@ -6546,7 +6803,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" s="12" t="s">
         <v>313</v>
       </c>
@@ -6557,7 +6814,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="12" t="s">
         <v>314</v>
       </c>
@@ -6568,7 +6825,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="12" t="s">
         <v>317</v>
       </c>
@@ -6579,7 +6836,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="12" t="s">
         <v>318</v>
       </c>
@@ -6590,7 +6847,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="12" t="s">
         <v>319</v>
       </c>
@@ -6601,7 +6858,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="12" t="s">
         <v>322</v>
       </c>
@@ -6612,7 +6869,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="12" t="s">
         <v>323</v>
       </c>
@@ -6623,7 +6880,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="12" t="s">
         <v>324</v>
       </c>
@@ -6634,7 +6891,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="12" t="s">
         <v>327</v>
       </c>
@@ -6645,7 +6902,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="12" t="s">
         <v>328</v>
       </c>
@@ -6656,7 +6913,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="12" t="s">
         <v>329</v>
       </c>
@@ -6667,7 +6924,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" s="12" t="s">
         <v>332</v>
       </c>
@@ -6678,7 +6935,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="12" t="s">
         <v>333</v>
       </c>
@@ -6689,7 +6946,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="12" t="s">
         <v>334</v>
       </c>
@@ -6700,7 +6957,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="12" t="s">
         <v>337</v>
       </c>
@@ -6711,7 +6968,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="12" t="s">
         <v>338</v>
       </c>
@@ -6722,7 +6979,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="12" t="s">
         <v>339</v>
       </c>
@@ -6733,7 +6990,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="12" t="s">
         <v>342</v>
       </c>
@@ -6744,7 +7001,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="12" t="s">
         <v>343</v>
       </c>
@@ -6755,7 +7012,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" s="12" t="s">
         <v>344</v>
       </c>
@@ -6766,7 +7023,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B208" s="12" t="s">
         <v>347</v>
       </c>
@@ -6777,7 +7034,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B209" s="12" t="s">
         <v>348</v>
       </c>
@@ -6788,7 +7045,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B210" s="12" t="s">
         <v>349</v>
       </c>
@@ -6796,10 +7053,10 @@
         <v>350</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" s="12" t="s">
         <v>351</v>
       </c>
@@ -6807,10 +7064,10 @@
         <v>350</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="12" t="s">
         <v>352</v>
       </c>
@@ -6818,10 +7075,10 @@
         <v>350</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="12" t="s">
         <v>353</v>
       </c>
@@ -6832,7 +7089,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" s="12" t="s">
         <v>356</v>
       </c>
@@ -6843,7 +7100,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B215" s="12" t="s">
         <v>357</v>
       </c>
@@ -6854,7 +7111,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" s="12" t="s">
         <v>358</v>
       </c>
@@ -6865,7 +7122,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B217" s="12" t="s">
         <v>361</v>
       </c>
@@ -6876,7 +7133,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B218" s="12" t="s">
         <v>362</v>
       </c>
@@ -6887,7 +7144,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B219" s="12" t="s">
         <v>363</v>
       </c>
@@ -6898,7 +7155,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B220" s="12" t="s">
         <v>366</v>
       </c>
@@ -6909,7 +7166,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B221" s="12" t="s">
         <v>367</v>
       </c>
@@ -6920,7 +7177,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B223" s="6" t="s">
         <v>368</v>
       </c>
@@ -6931,7 +7188,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>369</v>
       </c>
@@ -6942,7 +7199,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>370</v>
       </c>
@@ -6953,7 +7210,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>371</v>
       </c>
@@ -6964,7 +7221,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>372</v>
       </c>
@@ -6975,7 +7232,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>373</v>
       </c>
@@ -6986,7 +7243,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>374</v>
       </c>
@@ -6997,7 +7254,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>376</v>
       </c>
@@ -7008,7 +7265,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>377</v>
       </c>
@@ -7019,7 +7276,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>378</v>
       </c>
@@ -7030,7 +7287,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>380</v>
       </c>
@@ -7041,7 +7298,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>381</v>
       </c>
@@ -7052,7 +7309,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>382</v>
       </c>
@@ -7063,7 +7320,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>384</v>
       </c>
@@ -7074,7 +7331,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>385</v>
       </c>
@@ -7085,7 +7342,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>386</v>
       </c>
@@ -7096,7 +7353,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>387</v>
       </c>
@@ -7107,7 +7364,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>388</v>
       </c>
@@ -7118,7 +7375,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>389</v>
       </c>
@@ -7129,7 +7386,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>390</v>
       </c>
@@ -7140,7 +7397,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>391</v>
       </c>
@@ -7151,7 +7408,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>392</v>
       </c>
@@ -7162,7 +7419,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>394</v>
       </c>
@@ -7173,9 +7430,9 @@
         <v>393</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246" s="5" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="C246" s="12" t="s">
         <v>285</v>
@@ -7184,745 +7441,745 @@
         <v>393</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" s="5" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="5" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" s="5" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="5" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" s="5" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="5" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="F254" s="5"/>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" s="5" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" s="5" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="5" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" s="5" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="D257" s="5"/>
       <c r="E257" s="5" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="F257" s="5"/>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" s="5" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="5" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259" s="5" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="5" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" s="5" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="5" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F260" s="5"/>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" s="5" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="5" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="F261" s="5"/>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" s="5" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="5" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" s="5" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" s="5" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="5" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B267" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B268" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B269" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="E269" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="C266" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="E266" s="5" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B267" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="E267" s="5" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B268" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="E268" s="5" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B269" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="E269" s="5" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" s="5" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" s="16" t="s">
+        <v>891</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="E272" s="16" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273" s="16" t="s">
+        <v>892</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="E273" s="16" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B274" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="E274" s="16" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B275" s="16" t="s">
+        <v>894</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="E275" s="16" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B276" s="16" t="s">
+        <v>895</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="E276" s="16" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B277" s="16" t="s">
+        <v>896</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="E277" s="16" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B278" s="16" t="s">
+        <v>897</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="E278" s="16" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B279" s="16" t="s">
+        <v>898</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="E279" s="16" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B280" s="16" t="s">
+        <v>899</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="E280" s="16" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B281" s="16" t="s">
         <v>900</v>
       </c>
-      <c r="C272" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="E272" s="16" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B273" s="16" t="s">
+      <c r="C281" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="E281" s="17" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B282" s="16" t="s">
         <v>901</v>
       </c>
-      <c r="C273" s="5" t="s">
-        <v>922</v>
-      </c>
-      <c r="E273" s="16" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B274" s="16" t="s">
+      <c r="C282" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="E282" s="16" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B283" s="16" t="s">
         <v>902</v>
       </c>
-      <c r="C274" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="E274" s="16" t="s">
+      <c r="C283" s="5" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B275" s="16" t="s">
+      <c r="E283" s="16" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B284" s="16" t="s">
         <v>903</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>927</v>
-      </c>
-      <c r="E275" s="16" t="s">
+      <c r="C284" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="E284" s="16" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B285" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="E285" s="16" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B286" s="16" t="s">
+        <v>905</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="E286" s="16" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B287" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="E287" s="16" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B288" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="E288" s="16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B289" s="16" t="s">
+        <v>908</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E289" s="16" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B290" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="E290" s="16" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B276" s="16" t="s">
-        <v>904</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>928</v>
-      </c>
-      <c r="E276" s="16" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B277" s="16" t="s">
-        <v>905</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="E277" s="16" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B278" s="16" t="s">
-        <v>906</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>932</v>
-      </c>
-      <c r="E278" s="16" t="s">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B291" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="E291" s="16" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B279" s="16" t="s">
-        <v>907</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="E279" s="16" t="s">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B292" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="E292" s="16" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B280" s="16" t="s">
-        <v>908</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>933</v>
-      </c>
-      <c r="E280" s="16" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B281" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="C281" s="5" t="s">
-        <v>937</v>
-      </c>
-      <c r="E281" s="17" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B282" s="16" t="s">
-        <v>910</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="E282" s="16" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B283" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="E283" s="16" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B284" s="16" t="s">
-        <v>912</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="E284" s="16" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B285" s="16" t="s">
-        <v>913</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>939</v>
-      </c>
-      <c r="E285" s="16" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B286" s="16" t="s">
-        <v>914</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="E286" s="16" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B287" s="16" t="s">
-        <v>915</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="E287" s="16" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B288" s="16" t="s">
-        <v>916</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="E288" s="16" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B289" s="16" t="s">
-        <v>917</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="E289" s="16" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B290" s="16" t="s">
-        <v>918</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="E290" s="16" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B291" s="16" t="s">
-        <v>919</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="E291" s="16" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B292" s="16" t="s">
-        <v>920</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="E292" s="16" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" s="16"/>
       <c r="C293" s="5"/>
       <c r="E293" s="16"/>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" s="5" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="C294" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E294" s="16" t="s">
         <v>1029</v>
       </c>
-      <c r="E294" s="16" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" s="5" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" s="5" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="C296" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B298" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B299" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B300" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B301" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B302" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C302" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="C297" s="5" t="s">
+      <c r="E302" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B303" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B304" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C304" s="5" t="s">
         <v>1078</v>
       </c>
-      <c r="E297" s="5" t="s">
+      <c r="E304" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E305" s="5"/>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B306" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B307" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B308" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B309" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B310" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B311" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B312" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C312" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B298" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E298" s="5" t="s">
+      <c r="E312" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B313" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B314" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B315" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B316" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C316" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B299" s="5" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E299" s="5" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B300" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E300" s="5" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B301" s="5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E301" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B302" s="5" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E302" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B303" s="5" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E303" s="5" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B304" s="5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E304" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E305" s="5"/>
-    </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B306" s="5" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E306" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B307" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E307" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B308" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E308" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B309" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E309" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B310" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E310" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B311" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E311" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B312" s="5" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E312" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B313" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E313" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B314" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E314" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B315" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E315" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B316" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1109</v>
-      </c>
       <c r="E316" s="5" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
     </row>
   </sheetData>
@@ -7934,21 +8191,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E213"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206:XFD213"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="A258" sqref="A255:XFD258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="44.625" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7965,7 +8222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -7982,7 +8239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -7995,7 +8252,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>395</v>
       </c>
@@ -8006,7 +8263,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>398</v>
       </c>
@@ -8017,7 +8274,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>401</v>
       </c>
@@ -8028,7 +8285,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>404</v>
       </c>
@@ -8039,7 +8296,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>407</v>
       </c>
@@ -8050,7 +8307,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>410</v>
       </c>
@@ -8061,7 +8318,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>413</v>
       </c>
@@ -8072,7 +8329,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>416</v>
       </c>
@@ -8083,7 +8340,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>419</v>
       </c>
@@ -8094,7 +8351,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>422</v>
       </c>
@@ -8105,7 +8362,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>425</v>
       </c>
@@ -8116,7 +8373,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>428</v>
       </c>
@@ -8127,7 +8384,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>429</v>
       </c>
@@ -8138,7 +8395,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>432</v>
       </c>
@@ -8149,7 +8406,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>435</v>
       </c>
@@ -8160,7 +8417,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>438</v>
       </c>
@@ -8171,7 +8428,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>441</v>
       </c>
@@ -8182,7 +8439,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>444</v>
       </c>
@@ -8193,7 +8450,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>447</v>
       </c>
@@ -8204,7 +8461,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>450</v>
       </c>
@@ -8215,7 +8472,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>453</v>
       </c>
@@ -8226,7 +8483,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>456</v>
       </c>
@@ -8237,7 +8494,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>459</v>
       </c>
@@ -8248,7 +8505,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>462</v>
       </c>
@@ -8259,7 +8516,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>465</v>
       </c>
@@ -8270,7 +8527,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>468</v>
       </c>
@@ -8281,7 +8538,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>470</v>
       </c>
@@ -8292,7 +8549,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>473</v>
       </c>
@@ -8303,7 +8560,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>476</v>
       </c>
@@ -8314,7 +8571,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>479</v>
       </c>
@@ -8325,7 +8582,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>482</v>
       </c>
@@ -8336,7 +8593,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>485</v>
       </c>
@@ -8347,7 +8604,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>488</v>
       </c>
@@ -8358,7 +8615,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>491</v>
       </c>
@@ -8369,7 +8626,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>494</v>
       </c>
@@ -8380,7 +8637,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>497</v>
       </c>
@@ -8391,18 +8648,18 @@
         <v>499</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>500</v>
       </c>
@@ -8413,7 +8670,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>503</v>
       </c>
@@ -8424,7 +8681,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>506</v>
       </c>
@@ -8435,29 +8692,29 @@
         <v>508</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>509</v>
       </c>
@@ -8468,7 +8725,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>512</v>
       </c>
@@ -8479,7 +8736,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>515</v>
       </c>
@@ -8490,7 +8747,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>518</v>
       </c>
@@ -8501,7 +8758,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>521</v>
       </c>
@@ -8512,1026 +8769,1026 @@
         <v>523</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="E52" s="5" t="s">
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E54" s="5" t="s">
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>964</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C57" s="5" t="s">
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="C58" s="5" t="s">
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="C59" s="5" t="s">
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="C60" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="5" t="s">
+      <c r="E61" t="s">
         <v>544</v>
       </c>
-      <c r="C61" s="5" t="s">
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="E61" t="s">
+      <c r="C62" s="5" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="C62" s="5" t="s">
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="C63" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="5" t="s">
+      <c r="E64" t="s">
         <v>551</v>
       </c>
-      <c r="C64" s="5" t="s">
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="E64" t="s">
+      <c r="C65" s="5" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="5" t="s">
+      <c r="E65" t="s">
         <v>554</v>
       </c>
-      <c r="C65" s="5" t="s">
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C66" s="5" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="C68" s="5" t="s">
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C69" s="5" t="s">
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="C70" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="5" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="E70" s="5" t="s">
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="E71" s="5" t="s">
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E72" s="5" t="s">
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="E73" s="5" t="s">
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="E74" s="5" t="s">
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="E75" s="5" t="s">
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="E76" s="5" t="s">
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="E77" s="5" t="s">
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="E78" s="5" t="s">
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="5" t="s">
+      <c r="C80" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="E80" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="E79" s="5" t="s">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="E81" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>602</v>
+        <v>1183</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C84" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C87" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C88" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C89" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C90" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C91" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C92" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C93" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C95" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C97" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>644</v>
+        <v>1178</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C99" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C100" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C101" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C103" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C104" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="C108" s="5" t="s">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="5" t="s">
+      <c r="E110" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="C109" s="5" t="s">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="5" t="s">
+      <c r="E111" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="C110" s="5" t="s">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="C112" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="5" t="s">
+      <c r="E112" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="C111" s="5" t="s">
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="C113" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="5" t="s">
+      <c r="E113" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="C112" t="s">
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="C114" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="5" t="s">
+      <c r="C115" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C116" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="C117" s="5" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="5" t="s">
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C118" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="C116" s="5" t="s">
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="E125" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="E116" s="5" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="C123" s="5" t="s">
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="5" t="s">
+      <c r="E127" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="5" t="s">
+      <c r="C128" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="E128" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="E125" s="5" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="5" t="s">
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C129" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="E127" s="5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="5" t="s">
+      <c r="E129" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="C128" s="5" t="s">
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="C130" s="5" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="5" t="s">
+      <c r="E130" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C131" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E131" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="E129" s="5" t="s">
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="6" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="5" t="s">
+      <c r="C132" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="E132" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="E130" s="5" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="6" t="s">
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C133" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E133" s="6" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="6" t="s">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C134" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="6" t="s">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C135" t="s">
         <v>722</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E135" s="6" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="6" t="s">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C136" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E136" t="s">
         <v>725</v>
       </c>
-      <c r="E134" s="6" t="s">
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="6" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="6" t="s">
+      <c r="C137" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E137" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="C135" t="s">
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="C138" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="6" t="s">
+      <c r="E138" t="s">
         <v>730</v>
       </c>
-      <c r="C136" s="6" t="s">
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="E136" t="s">
+      <c r="C139" s="6" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="6" t="s">
+      <c r="E139" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="C137" s="6" t="s">
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="C140" s="6" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="6" t="s">
+      <c r="E140" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="C138" t="s">
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="E138" t="s">
+      <c r="C141" s="6" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="6" t="s">
+      <c r="E141" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>498</v>
@@ -9540,618 +9797,973 @@
         <v>499</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B145" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>749</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E149" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C150" t="s">
+        <v>756</v>
+      </c>
+      <c r="E150" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C152" s="5"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C155" s="6"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>762</v>
+      </c>
+      <c r="C156" t="s">
+        <v>763</v>
+      </c>
+      <c r="E156" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>764</v>
+      </c>
+      <c r="C157" t="s">
+        <v>765</v>
+      </c>
+      <c r="E157" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>767</v>
+      </c>
+      <c r="C158" t="s">
+        <v>768</v>
+      </c>
+      <c r="E158" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>769</v>
+      </c>
+      <c r="C159" t="s">
+        <v>770</v>
+      </c>
+      <c r="E159" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="E161" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="E162" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="E163" t="s">
         <v>840</v>
       </c>
-      <c r="C143" s="5" t="s">
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="E164" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E166" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="E168" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
         <v>842</v>
       </c>
-      <c r="E143" s="5" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B145" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>757</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="E149" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="C150" t="s">
-        <v>764</v>
-      </c>
-      <c r="E150" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C152" s="5"/>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="5" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="5" t="s">
+      <c r="C170" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>860</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>861</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="E179" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="C180" t="s">
+        <v>645</v>
+      </c>
+      <c r="E180" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="C182" t="s">
+        <v>875</v>
+      </c>
+      <c r="E182" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="5"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C155" s="6"/>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
-        <v>770</v>
-      </c>
-      <c r="C156" t="s">
-        <v>771</v>
-      </c>
-      <c r="E156" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
-        <v>772</v>
-      </c>
-      <c r="C157" t="s">
-        <v>773</v>
-      </c>
-      <c r="E157" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
-        <v>775</v>
-      </c>
-      <c r="C158" t="s">
-        <v>776</v>
-      </c>
-      <c r="E158" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
-        <v>777</v>
-      </c>
-      <c r="C159" t="s">
-        <v>778</v>
-      </c>
-      <c r="E159" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="15" t="s">
-        <v>779</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="E161" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="15" t="s">
-        <v>782</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="E162" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="15" t="s">
-        <v>780</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="E163" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" s="15" t="s">
-        <v>781</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="E164" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B166" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="E166" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="E168" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
-        <v>851</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B173" s="5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E173" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B174" s="5" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E174" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B175" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="E175" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
-        <v>869</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B177" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B178" s="5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B179" t="s">
-        <v>870</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="E179" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B180" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="C180" t="s">
-        <v>650</v>
-      </c>
-      <c r="E180" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B182" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C182" t="s">
-        <v>884</v>
-      </c>
-      <c r="E182" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B184" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B185" s="5" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B186" s="5" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B187" s="5" t="s">
+      <c r="C206" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E206" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E187" s="5" t="s">
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B189" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B190" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B191" s="5" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B192" s="5" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B193" s="5"/>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B194" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B195" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B197" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B198" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B199" s="5" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B201" s="5" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B202" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E202" s="5" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B204" s="5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B206" s="5" t="s">
+      <c r="C207" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C210" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="E206" s="5" t="s">
+      <c r="E210" s="5" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B207" s="5" t="s">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211" s="5" t="s">
         <v>1160</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C211" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="E207" s="5" t="s">
+      <c r="E211" s="5" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B208" s="5" t="s">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C212" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="E208" s="5" t="s">
+      <c r="E212" s="5" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B209" s="5" t="s">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213" s="5" t="s">
         <v>1166</v>
       </c>
-      <c r="C209" s="5" t="s">
+      <c r="C213" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="E209" s="5" t="s">
+      <c r="E213" s="5" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B210" s="5" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B211" s="5" t="s">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E217" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="C211" s="5" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B212" s="5" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B213" s="5" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E213" s="5" t="s">
-        <v>1180</v>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B226" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B227" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B228" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C232" t="s">
+        <v>602</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B234" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B235" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B236" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B237" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B238" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B239" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B241" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E241" s="8" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B243" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B244" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B246" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B248" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E248" s="8" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B249" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B250" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B251" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B252" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B253" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>1230</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CJ\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFAE5C9-ACD5-4BF5-BF2F-0FAB7A085F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB06B3D5-593D-4252-931F-450D70E9099F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置表中的" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1225">
   <si>
     <t>##var</t>
   </si>
@@ -1429,93 +1429,6 @@
     <t>Text_Key_Desc_Monster_Niao3</t>
   </si>
   <si>
-    <t>随处可见的黄蜂士兵</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>身强体壮的黄蜂队长</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大而凶猛的黄蜂女王</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>成群的小型蝙蝠</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>成群的巨型蝙蝠</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>强大的蝙蝠领主</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动迅速的小型蜘蛛</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速且强大的蜘蛛女王</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动迅速的巨型蜘蛛</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有强大治愈能力的魔王花</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有治疗能力的邪恶之花</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有治疗能力的邪恶种子</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能短暂隐身的小幽灵</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能短暂隐身的大型幽灵</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能短暂隐身的幽灵之王</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自深渊的恶魔士兵</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能弱化敌人的暗影恶魔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能弱化敌人的恶魔领主</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demon Lord, can weaken foes</t>
-  </si>
-  <si>
-    <t>能加速友军的雏鸟</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能加速友军的巨鸟</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能加速友军的强大的天空领主</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>终极形态，不仅威力强大，还有概率产生暴击，造成高高额伤害。</t>
   </si>
   <si>
@@ -2981,22 +2894,6 @@
   </si>
   <si>
     <t>Text_Key_Desc_Monster_WuGui3</t>
-  </si>
-  <si>
-    <t>能对城堡造成巨大伤害的幼龙</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能对城堡造成巨大伤害的飞龙</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始强大的暗影雪人，但会持续融化变弱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚不可摧的甲壳兽，在休息时会露出破绽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Diamonds  +%</t>
@@ -3465,10 +3362,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>RealityGuard官方</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>RealityGuard Official</t>
   </si>
   <si>
@@ -3776,51 +3669,6 @@
     <t>Diamond, a versatile currency</t>
   </si>
   <si>
-    <t>Evil Seed, can heal allies</t>
-  </si>
-  <si>
-    <t>Evil Flower, can heal allies</t>
-  </si>
-  <si>
-    <t>Young Flying Dragon, massive damage to castle</t>
-  </si>
-  <si>
-    <t>Flying Dragon, massive damage to castle</t>
-  </si>
-  <si>
-    <t>Flying Dragon Lord, massive damage to castle</t>
-  </si>
-  <si>
-    <t>Little Shadow Yeti, gradually melts and weakens</t>
-  </si>
-  <si>
-    <t>Shadow Yeti, gradually melts and weakens</t>
-  </si>
-  <si>
-    <t>Shadow Yeti Lord, gradually melts and weakens</t>
-  </si>
-  <si>
-    <t>Little Shell Beast, indestructible but shows vulnerabilities while resting</t>
-  </si>
-  <si>
-    <t>Shell Beast, indestructible but shows vulnerabilities while resting</t>
-  </si>
-  <si>
-    <t>Shell Beast Lord, indestructible but shows vulnerabilities while resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadow Demon, can weaken foes  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chick, speeds up allies  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giant Bird, speeds up allies  </t>
-  </si>
-  <si>
-    <t>Mighty Sky Lord, speeds up allies</t>
-  </si>
-  <si>
     <t xml:space="preserve">The ultimate form, capable of dealing critical hits on every attack, causing massive damage. </t>
   </si>
   <si>
@@ -3938,58 +3786,6 @@
     <t xml:space="preserve">Congratulations on achieving Rank {Rank} in {SeasonName}. Here are your rewards, please claim them promptly. </t>
   </si>
   <si>
-    <t xml:space="preserve">Bee Queen, gigantic and fierce </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bee Captain, mighty and strong</t>
-  </si>
-  <si>
-    <t>Little Bats, swarming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giant Bats, swarming </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bat Lord, powerful</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Small Spiders, swift</t>
-  </si>
-  <si>
-    <t>Giant Spiders, swift</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Spider Queen,fast and mighty </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demon Flower, powerful and capable of healing allies</t>
-  </si>
-  <si>
-    <t>Small Ghost, briefly invisible</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Large Ghost, briefly invisible</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ghost King, briefly invisible</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bee Soldier, commonly seen</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Demon Soldier, commonly seen  </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>终极形态，能够连续发出2发强大的炮弹，摧毁任何可怕的敌人。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4018,18 +3814,6 @@
     <t>新手指引2</t>
   </si>
   <si>
-    <t>video description video description video description video description</t>
-  </si>
-  <si>
-    <t>视频描述视频描述视频描述视频描述视频描述</t>
-  </si>
-  <si>
-    <t>Beginner's guide</t>
-  </si>
-  <si>
-    <t>新手指引</t>
-  </si>
-  <si>
     <t>Text_Key_Tutorials_VideoTitle_1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4059,6 +3843,641 @@
   </si>
   <si>
     <t>Ultimate form, the flame will ignite enemies for an extended period.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜界守卫官方</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏玩法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用现实中的物体搭建地形，并扫描作为战场。在上面布置防御塔，守护你的城堡！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build terrain using real-world objects and scan it as your battlefield. Place defense towers on it to protect your castle!</t>
+  </si>
+  <si>
+    <t>Gameplay</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄蜂士兵，随处可见</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄蜂队长，身体更为强壮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄蜂女王，能持续召唤士兵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蝙蝠，总是成群结队</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大蝙蝠，身体更为强壮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠领主，黑夜中最强大的存在</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蜘蛛，行动迅捷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大蜘蛛，身体更为强壮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛女王，迅捷且强大</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶种子，拥有自愈能力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶花，能够治疗周围友军</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔王花，大范围治疗友军</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小幽灵，能够暂时隐身</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幽灵，能让周围友军一起隐身</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵之王，强大而又难以捕捉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔士兵，死亡后使附近敌人降低攻击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影恶魔，持续弱化周围敌人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔领主，能攻击敌人使其眩晕</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雏鸟，偶尔能加速前进</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨鸟，能使周围友军一起加速</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空领主，使友军短暂加速并不受控制</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼龙，脆弱但有更强破坏力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙，能提升友军攻击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙领主，能攻击并破坏防御塔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雪人，看似坚固但会不断融化变弱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影雪人，出现时自带减伤护盾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜领主，能攻击防御塔并使其减速</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲壳兽，经常会钻入壳中难以击破</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚球兽，滚动前进，期间快速且坚固</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲壳领主，持续赋予友军减伤护盾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chick, occasionally speeds up</t>
+  </si>
+  <si>
+    <t>Wyvern, boosts ally attack</t>
+  </si>
+  <si>
+    <t>Wasp Soldier, commonly found</t>
+  </si>
+  <si>
+    <t>Wasp Captain, physically stronger</t>
+  </si>
+  <si>
+    <t>Wasp Queen, continuously summons soldiers</t>
+  </si>
+  <si>
+    <t>Small Bat, always in swarms</t>
+  </si>
+  <si>
+    <t>Large Bat, physically stronger</t>
+  </si>
+  <si>
+    <t>Bat Lord, most powerful in the night</t>
+  </si>
+  <si>
+    <t>Small Spider, moves quickly</t>
+  </si>
+  <si>
+    <t>Large Spider, physically stronger</t>
+  </si>
+  <si>
+    <t>Spider Queen, swift and powerful</t>
+  </si>
+  <si>
+    <t>Evil Seed, self-healing ability</t>
+  </si>
+  <si>
+    <t>Evil Flower, heals nearby allies</t>
+  </si>
+  <si>
+    <t>Demon Flower, heals allies in a wide area</t>
+  </si>
+  <si>
+    <t>Small Ghost, temporarily turns invisible</t>
+  </si>
+  <si>
+    <t>Ghost King, powerful and elusive</t>
+  </si>
+  <si>
+    <t>Demon Soldier, reduces nearby enemy attack upon death</t>
+  </si>
+  <si>
+    <t>Shadow Demon, continuously weakens nearby enemies</t>
+  </si>
+  <si>
+    <t>Demon Lord, stuns enemies with attacks</t>
+  </si>
+  <si>
+    <t>Giant Bird, speeds up nearby allies</t>
+  </si>
+  <si>
+    <t>Sky Lord, temporarily speeds up and controls allies</t>
+  </si>
+  <si>
+    <t>Young Dragon, fragile but more destructive</t>
+  </si>
+  <si>
+    <t>Wyvern Lord, attacks and destroys towers</t>
+  </si>
+  <si>
+    <t>Small Yeti, appears strong but melts over time</t>
+  </si>
+  <si>
+    <t>Shadow Yeti, appears with damage reduction shield</t>
+  </si>
+  <si>
+    <t>Frost Lord, slows down and attacks towers</t>
+  </si>
+  <si>
+    <t>Shell Beast, frequently retreats into shell, hard to break</t>
+  </si>
+  <si>
+    <t>Rolling Beast, moves quickly and becomes stronger while rolling</t>
+  </si>
+  <si>
+    <t>Shell Lord, grants allies a continuous damage reduction shield</t>
+  </si>
+  <si>
+    <t>Text_Key_Mail_Questionnaire1_Title</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Mail_Questionnaire1_Content</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷填写奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢您参与问卷调查，现将发放以下奖励，请及时领取。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survey Completion Reward</t>
+  </si>
+  <si>
+    <t>Thank you for participating in the survey. The following rewards will now be distributed, please claim them promptly.</t>
+  </si>
+  <si>
+    <t>Text_Key_Questionnaire1_Title</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与问卷调查并获得奖励。
+感谢您的宝贵建议！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill out our user survey and get a thank-you gift. 
+Your feedback makes a difference! </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与问卷调查</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join our user survey</t>
+  </si>
+  <si>
+    <t>Text_Key_Qusetionnaire1_Content</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Video_Beginners_Title</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Scan_Title</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Upgrade_Title</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Multiple_Title</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Slope_Title</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Platform_Title</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Invisible_Title</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Poision_Title</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Drag_Title</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Weaken_Title</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Beginners_Des</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Scan_Des</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Upgrade_Des</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Multiple_Des</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Slope_Des</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Platform_Des</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Invisible_Des</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Poision_Des</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Drag_Des</t>
+  </si>
+  <si>
+    <t>Text_Key_Video_Weaken_Des</t>
+  </si>
+  <si>
+    <t>游戏介绍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描战场</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级防御塔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多人游戏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜坡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电塔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾塔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖动防御塔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在明亮的环境下，缓慢环视目标。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个相同防御塔可融合升级，大幅增强。升至3级还有额外效果。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描其它玩家的二维码即可加入，并肩作战让战斗更加轻松！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物在上坡时会减速，下坡时加速。好好利用这点！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电塔在高处能造成额外伤害。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身的敌人无法被选中和攻击，但会被范围伤害波及。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾塔的外圈伤害最高，且无视地形。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可按住并拖动防御塔，或者通过回收、出售来改变场上防御塔。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有弱化技能的敌人，能够使周围的防御塔攻击降低，请注意躲避。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scan the Battlefield</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slopes</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade Towers</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drag Towers</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game play</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiplayer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>In a well-lit environment, slowly pan around your target.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three identical towers can be merged and upgraded, greatly enhancing their power. Reaching level 3 grants additional effects.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scan another player's QR code to join the battle. Working together makes the fight easier!</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters slow down when going uphill and speed up when going downhill. Use this to your advantage!</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thunder deals extra damage when placed at higher elevations.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invisible enemies cannot be targeted, but they can be affected by area damage.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The outer ring of the Poison deals the highest damage and ignores terrain.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can hold and drag towers or change their positions by recycling or selling them.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemies with debuff abilities can weaken nearby towers. Be sure to avoid them.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large Ghost, makes nearby allies invisible</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Demon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开相机，扫描现实物体作为战场，摆放防御塔守卫城堡。可以多人合作！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scan objects to set up the battlefield, place towers to defend your castle, and have fun with your friends.</t>
+  </si>
+  <si>
+    <t>技能1_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1_1技能1_1技能1_1技能1_1技能1_1技能1_1技能1_1描述描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能4_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Name1_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Desc1_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Name2_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Desc2_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Name3_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Desc3_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Name4_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Desc4_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Name1_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Desc1_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Name2_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Desc2_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Name3_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Desc3_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Name4_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能4_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Desc4_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Name1_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Desc1_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Name2_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Desc2_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Name3_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Name4_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能4_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Desc4_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_PlayerSkill_Desc3_3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4194,7 +4613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -4233,6 +4652,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4542,10 +4967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V545"/>
+  <dimension ref="A1:V599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A561" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C589" sqref="C589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5258,7 +5683,7 @@
         <v>420</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>1073</v>
+        <v>1031</v>
       </c>
       <c r="R59" s="16"/>
       <c r="S59" s="16"/>
@@ -5272,7 +5697,7 @@
         <v>420</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>1073</v>
+        <v>1031</v>
       </c>
       <c r="R60" s="16"/>
       <c r="S60" s="16"/>
@@ -5283,10 +5708,10 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>1040</v>
+        <v>998</v>
       </c>
       <c r="R61" s="16"/>
       <c r="S61" s="16"/>
@@ -5300,7 +5725,7 @@
         <v>419</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>1041</v>
+        <v>999</v>
       </c>
       <c r="R62" s="16"/>
       <c r="S62" s="16"/>
@@ -5314,7 +5739,7 @@
         <v>419</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>1041</v>
+        <v>999</v>
       </c>
       <c r="R63" s="16"/>
       <c r="S63" s="16"/>
@@ -5325,10 +5750,10 @@
         <v>117</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>1042</v>
+        <v>1000</v>
       </c>
       <c r="R64" s="16"/>
       <c r="S64" s="16"/>
@@ -5339,10 +5764,10 @@
         <v>118</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>1109</v>
+        <v>1049</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>1111</v>
+        <v>1051</v>
       </c>
       <c r="R65" s="16"/>
       <c r="S65" s="16"/>
@@ -5353,10 +5778,10 @@
         <v>119</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1109</v>
+        <v>1049</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>1111</v>
+        <v>1051</v>
       </c>
       <c r="R66" s="16"/>
       <c r="S66" s="16"/>
@@ -5367,10 +5792,10 @@
         <v>120</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>1110</v>
+        <v>1050</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>1112</v>
+        <v>1052</v>
       </c>
       <c r="R67" s="16"/>
       <c r="S67" s="16"/>
@@ -5384,7 +5809,7 @@
         <v>421</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>1074</v>
+        <v>1032</v>
       </c>
       <c r="R68" s="16"/>
       <c r="S68" s="16"/>
@@ -5398,7 +5823,7 @@
         <v>421</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>1074</v>
+        <v>1032</v>
       </c>
       <c r="R69" s="16"/>
       <c r="S69" s="16"/>
@@ -5409,10 +5834,10 @@
         <v>123</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>1043</v>
+        <v>1001</v>
       </c>
       <c r="R70" s="16"/>
       <c r="S70" s="16"/>
@@ -5423,10 +5848,10 @@
         <v>124</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>1044</v>
+        <v>1002</v>
       </c>
       <c r="R71" s="16"/>
       <c r="S71" s="16"/>
@@ -5437,10 +5862,10 @@
         <v>125</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>1044</v>
+        <v>1002</v>
       </c>
       <c r="R72" s="16"/>
       <c r="S72" s="16"/>
@@ -5451,10 +5876,10 @@
         <v>126</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>1093</v>
+        <v>1037</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>1094</v>
+        <v>1038</v>
       </c>
       <c r="R73" s="16"/>
       <c r="S73" s="16"/>
@@ -5465,10 +5890,10 @@
         <v>127</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1075</v>
+        <v>1033</v>
       </c>
       <c r="R74" s="16"/>
       <c r="S74" s="16"/>
@@ -5479,10 +5904,10 @@
         <v>128</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>1075</v>
+        <v>1033</v>
       </c>
       <c r="R75" s="16"/>
       <c r="S75" s="16"/>
@@ -5493,10 +5918,10 @@
         <v>129</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1076</v>
+        <v>1034</v>
       </c>
       <c r="R76" s="16"/>
       <c r="S76" s="16"/>
@@ -5510,7 +5935,7 @@
         <v>422</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1077</v>
+        <v>1035</v>
       </c>
       <c r="R77" s="16"/>
       <c r="S77" s="16"/>
@@ -5524,7 +5949,7 @@
         <v>422</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1077</v>
+        <v>1035</v>
       </c>
       <c r="R78" s="16"/>
       <c r="S78" s="16"/>
@@ -5535,10 +5960,10 @@
         <v>132</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>1045</v>
+        <v>1003</v>
       </c>
       <c r="R79" s="16"/>
       <c r="S79" s="16"/>
@@ -5552,7 +5977,7 @@
         <v>423</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="R80" s="16"/>
       <c r="S80" s="16"/>
@@ -5566,7 +5991,7 @@
         <v>423</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="R81" s="16"/>
       <c r="S81" s="16"/>
@@ -5577,10 +6002,10 @@
         <v>135</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1046</v>
+        <v>1004</v>
       </c>
       <c r="R82" s="16"/>
       <c r="S82" s="16"/>
@@ -5591,10 +6016,10 @@
         <v>136</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>864</v>
+        <v>838</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>1047</v>
+        <v>1005</v>
       </c>
       <c r="R83" s="16"/>
       <c r="S83" s="16"/>
@@ -5605,10 +6030,10 @@
         <v>137</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>864</v>
+        <v>838</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>1047</v>
+        <v>1005</v>
       </c>
       <c r="R84" s="16"/>
       <c r="S84" s="16"/>
@@ -5619,10 +6044,10 @@
         <v>138</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>865</v>
+        <v>839</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>1048</v>
+        <v>1006</v>
       </c>
       <c r="R85" s="16"/>
       <c r="S85" s="16"/>
@@ -5636,7 +6061,7 @@
         <v>140</v>
       </c>
       <c r="E86" t="s">
-        <v>1049</v>
+        <v>1007</v>
       </c>
       <c r="R86" s="16"/>
       <c r="S86" s="16"/>
@@ -5650,7 +6075,7 @@
         <v>140</v>
       </c>
       <c r="E87" t="s">
-        <v>1049</v>
+        <v>1007</v>
       </c>
       <c r="R87" s="16"/>
       <c r="S87" s="16"/>
@@ -5664,7 +6089,7 @@
         <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>1049</v>
+        <v>1007</v>
       </c>
       <c r="R88" s="16"/>
       <c r="S88" s="16"/>
@@ -5675,10 +6100,10 @@
         <v>143</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="E89" t="s">
-        <v>1050</v>
+        <v>1008</v>
       </c>
       <c r="R89" s="16"/>
       <c r="S89" s="16"/>
@@ -5689,10 +6114,10 @@
         <v>144</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="E90" t="s">
-        <v>1050</v>
+        <v>1008</v>
       </c>
       <c r="R90" s="16"/>
       <c r="S90" s="16"/>
@@ -5703,10 +6128,10 @@
         <v>145</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="E91" t="s">
-        <v>1051</v>
+        <v>1009</v>
       </c>
       <c r="R91" s="16"/>
       <c r="S91" s="16"/>
@@ -5720,7 +6145,7 @@
         <v>147</v>
       </c>
       <c r="E92" t="s">
-        <v>1052</v>
+        <v>1010</v>
       </c>
       <c r="R92" s="16"/>
       <c r="S92" s="16"/>
@@ -5734,7 +6159,7 @@
         <v>147</v>
       </c>
       <c r="E93" t="s">
-        <v>1052</v>
+        <v>1010</v>
       </c>
       <c r="R93" s="16"/>
       <c r="S93" s="16"/>
@@ -5748,7 +6173,7 @@
         <v>147</v>
       </c>
       <c r="E94" t="s">
-        <v>1052</v>
+        <v>1010</v>
       </c>
       <c r="R94" s="16"/>
       <c r="S94" s="16"/>
@@ -5762,7 +6187,7 @@
         <v>151</v>
       </c>
       <c r="E95" t="s">
-        <v>1053</v>
+        <v>1011</v>
       </c>
       <c r="R95" s="16"/>
       <c r="S95" s="16"/>
@@ -5776,7 +6201,7 @@
         <v>151</v>
       </c>
       <c r="E96" t="s">
-        <v>1053</v>
+        <v>1011</v>
       </c>
       <c r="R96" s="16"/>
       <c r="S96" s="16"/>
@@ -5790,7 +6215,7 @@
         <v>151</v>
       </c>
       <c r="E97" t="s">
-        <v>1053</v>
+        <v>1011</v>
       </c>
       <c r="R97" s="16"/>
       <c r="S97" s="16"/>
@@ -5804,7 +6229,7 @@
         <v>155</v>
       </c>
       <c r="E98" t="s">
-        <v>1054</v>
+        <v>1012</v>
       </c>
       <c r="R98" s="16"/>
       <c r="S98" s="16"/>
@@ -5818,7 +6243,7 @@
         <v>155</v>
       </c>
       <c r="E99" t="s">
-        <v>1054</v>
+        <v>1012</v>
       </c>
       <c r="R99" s="16"/>
       <c r="S99" s="16"/>
@@ -5832,7 +6257,7 @@
         <v>155</v>
       </c>
       <c r="E100" t="s">
-        <v>1054</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.25">
@@ -5843,7 +6268,7 @@
         <v>159</v>
       </c>
       <c r="E101" t="s">
-        <v>1055</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.25">
@@ -5854,7 +6279,7 @@
         <v>159</v>
       </c>
       <c r="E102" t="s">
-        <v>1055</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.25">
@@ -5865,7 +6290,7 @@
         <v>159</v>
       </c>
       <c r="E103" t="s">
-        <v>1055</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.25">
@@ -5876,7 +6301,7 @@
         <v>163</v>
       </c>
       <c r="E104" t="s">
-        <v>1056</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.25">
@@ -5887,7 +6312,7 @@
         <v>163</v>
       </c>
       <c r="E105" t="s">
-        <v>1056</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.25">
@@ -5898,7 +6323,7 @@
         <v>163</v>
       </c>
       <c r="E106" t="s">
-        <v>1056</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.25">
@@ -5906,10 +6331,10 @@
         <v>166</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>871</v>
+        <v>845</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>1057</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.25">
@@ -5917,10 +6342,10 @@
         <v>167</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>871</v>
+        <v>845</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1057</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.25">
@@ -5928,10 +6353,10 @@
         <v>168</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>866</v>
+        <v>840</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>1058</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.25">
@@ -5942,7 +6367,7 @@
         <v>170</v>
       </c>
       <c r="E110" t="s">
-        <v>1059</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.25">
@@ -5953,7 +6378,7 @@
         <v>170</v>
       </c>
       <c r="E111" t="s">
-        <v>1059</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.25">
@@ -5964,7 +6389,7 @@
         <v>170</v>
       </c>
       <c r="E112" t="s">
-        <v>1059</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
@@ -5975,7 +6400,7 @@
         <v>174</v>
       </c>
       <c r="E113" t="s">
-        <v>1060</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
@@ -5986,7 +6411,7 @@
         <v>174</v>
       </c>
       <c r="E114" t="s">
-        <v>1060</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
@@ -5997,7 +6422,7 @@
         <v>174</v>
       </c>
       <c r="E115" t="s">
-        <v>1060</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
@@ -6008,7 +6433,7 @@
         <v>178</v>
       </c>
       <c r="E116" t="s">
-        <v>1061</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
@@ -6019,7 +6444,7 @@
         <v>178</v>
       </c>
       <c r="E117" t="s">
-        <v>1061</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
@@ -6030,7 +6455,7 @@
         <v>178</v>
       </c>
       <c r="E118" t="s">
-        <v>1061</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
@@ -6041,7 +6466,7 @@
         <v>182</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>1062</v>
+        <v>1020</v>
       </c>
       <c r="I119" s="16"/>
       <c r="J119" s="16"/>
@@ -6055,7 +6480,7 @@
         <v>182</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>1062</v>
+        <v>1020</v>
       </c>
       <c r="I120" s="16"/>
       <c r="J120" s="16"/>
@@ -6066,10 +6491,10 @@
         <v>184</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>1063</v>
+        <v>1021</v>
       </c>
       <c r="I121" s="16"/>
       <c r="J121" s="16"/>
@@ -6083,7 +6508,7 @@
         <v>186</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>1064</v>
+        <v>1022</v>
       </c>
       <c r="I122" s="16"/>
       <c r="J122" s="16"/>
@@ -6097,7 +6522,7 @@
         <v>186</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>1064</v>
+        <v>1022</v>
       </c>
       <c r="I123" s="16"/>
       <c r="J123" s="16"/>
@@ -6111,7 +6536,7 @@
         <v>186</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>1064</v>
+        <v>1022</v>
       </c>
       <c r="I124" s="16"/>
       <c r="J124" s="16"/>
@@ -6122,10 +6547,10 @@
         <v>189</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>867</v>
+        <v>841</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>1065</v>
+        <v>1023</v>
       </c>
       <c r="I125" s="16"/>
       <c r="J125" s="16"/>
@@ -6136,10 +6561,10 @@
         <v>190</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>867</v>
+        <v>841</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>1065</v>
+        <v>1023</v>
       </c>
       <c r="I126" s="16"/>
       <c r="J126" s="16"/>
@@ -6150,10 +6575,10 @@
         <v>191</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>868</v>
+        <v>842</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>1066</v>
+        <v>1024</v>
       </c>
       <c r="I127" s="16"/>
       <c r="J127" s="16"/>
@@ -6167,7 +6592,7 @@
         <v>193</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>1067</v>
+        <v>1025</v>
       </c>
       <c r="I128" s="16"/>
       <c r="J128" s="16"/>
@@ -6181,7 +6606,7 @@
         <v>193</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>1067</v>
+        <v>1025</v>
       </c>
       <c r="I129" s="16"/>
       <c r="J129" s="16"/>
@@ -6195,7 +6620,7 @@
         <v>193</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>1067</v>
+        <v>1025</v>
       </c>
       <c r="I130" s="16"/>
       <c r="J130" s="16"/>
@@ -6203,13 +6628,13 @@
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>1068</v>
+        <v>1026</v>
       </c>
       <c r="I131" s="16"/>
       <c r="J131" s="16"/>
@@ -6217,13 +6642,13 @@
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>1068</v>
+        <v>1026</v>
       </c>
       <c r="I132" s="16"/>
       <c r="J132" s="16"/>
@@ -6231,13 +6656,13 @@
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>1069</v>
+        <v>1027</v>
       </c>
       <c r="I133" s="16"/>
       <c r="J133" s="16"/>
@@ -6245,13 +6670,13 @@
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>861</v>
+        <v>835</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>869</v>
+        <v>843</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>1070</v>
+        <v>1028</v>
       </c>
       <c r="I134" s="16"/>
       <c r="J134" s="16"/>
@@ -6259,13 +6684,13 @@
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>862</v>
+        <v>836</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>869</v>
+        <v>843</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>1070</v>
+        <v>1028</v>
       </c>
       <c r="I135" s="16"/>
       <c r="J135" s="16"/>
@@ -6273,13 +6698,13 @@
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>863</v>
+        <v>837</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>870</v>
+        <v>844</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>1071</v>
+        <v>1029</v>
       </c>
       <c r="I136" s="16"/>
       <c r="J136" s="16"/>
@@ -6389,7 +6814,7 @@
         <v>223</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>224</v>
@@ -6400,7 +6825,7 @@
         <v>225</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>226</v>
@@ -6463,13 +6888,13 @@
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="9" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>236</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>1095</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
@@ -6502,7 +6927,7 @@
         <v>241</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>1096</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
@@ -6513,7 +6938,7 @@
         <v>241</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>1096</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
@@ -6524,7 +6949,7 @@
         <v>241</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>1096</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
@@ -6535,7 +6960,7 @@
         <v>245</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
@@ -6546,7 +6971,7 @@
         <v>245</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
@@ -6557,7 +6982,7 @@
         <v>245</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
@@ -6568,7 +6993,7 @@
         <v>249</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
@@ -6961,10 +7386,10 @@
         <v>307</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>872</v>
+        <v>846</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.25">
@@ -6972,10 +7397,10 @@
         <v>308</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>872</v>
+        <v>846</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.25">
@@ -6983,10 +7408,10 @@
         <v>309</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>872</v>
+        <v>846</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.25">
@@ -7096,7 +7521,7 @@
         <v>326</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.25">
@@ -7107,7 +7532,7 @@
         <v>326</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.25">
@@ -7118,7 +7543,7 @@
         <v>326</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.25">
@@ -7222,68 +7647,68 @@
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>857</v>
+        <v>831</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.25">
@@ -7571,7 +7996,7 @@
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="5" t="s">
-        <v>828</v>
+        <v>806</v>
       </c>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.25">
@@ -7595,7 +8020,7 @@
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="5" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="F260" s="5"/>
     </row>
@@ -7712,14 +8137,14 @@
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" s="5" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="5" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.25">
@@ -7768,13 +8193,13 @@
     </row>
     <row r="276" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B276" s="5" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
     </row>
     <row r="278" spans="2:11" x14ac:dyDescent="0.25">
@@ -7782,11 +8207,12 @@
         <v>424</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="E278" t="s">
-        <v>1091</v>
-      </c>
+        <v>1058</v>
+      </c>
+      <c r="E278" s="16" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I278" s="16"/>
       <c r="J278" s="16"/>
     </row>
     <row r="279" spans="2:11" x14ac:dyDescent="0.25">
@@ -7794,11 +8220,12 @@
         <v>425</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="E279" t="s">
-        <v>1080</v>
-      </c>
+        <v>1059</v>
+      </c>
+      <c r="E279" s="16" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I279" s="16"/>
       <c r="J279" s="16"/>
       <c r="K279" s="16"/>
     </row>
@@ -7807,11 +8234,12 @@
         <v>426</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="E280" s="11" t="s">
-        <v>1079</v>
-      </c>
+        <v>1060</v>
+      </c>
+      <c r="E280" s="16" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I280" s="16"/>
       <c r="J280" s="16"/>
       <c r="K280" s="16"/>
     </row>
@@ -7820,11 +8248,12 @@
         <v>427</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="E281" t="s">
-        <v>1081</v>
-      </c>
+        <v>1061</v>
+      </c>
+      <c r="E281" s="16" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I281" s="16"/>
       <c r="J281" s="16"/>
       <c r="K281" s="16"/>
     </row>
@@ -7833,11 +8262,12 @@
         <v>428</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="E282" s="11" t="s">
-        <v>1082</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="E282" s="16" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I282" s="16"/>
       <c r="J282" s="16"/>
       <c r="K282" s="16"/>
     </row>
@@ -7846,11 +8276,12 @@
         <v>429</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="E283" s="11" t="s">
-        <v>1083</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="E283" s="16" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I283" s="16"/>
       <c r="J283" s="16"/>
       <c r="K283" s="16"/>
     </row>
@@ -7859,11 +8290,12 @@
         <v>430</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="E284" t="s">
-        <v>1084</v>
-      </c>
+        <v>1064</v>
+      </c>
+      <c r="E284" s="16" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I284" s="16"/>
       <c r="J284" s="16"/>
       <c r="K284" s="16"/>
     </row>
@@ -7872,11 +8304,12 @@
         <v>431</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="E285" s="11" t="s">
-        <v>1085</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="E285" s="16" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I285" s="16"/>
       <c r="J285" s="16"/>
       <c r="K285" s="16"/>
     </row>
@@ -7885,11 +8318,12 @@
         <v>432</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="E286" s="11" t="s">
-        <v>1086</v>
-      </c>
+        <v>1066</v>
+      </c>
+      <c r="E286" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I286" s="16"/>
       <c r="J286" s="16"/>
       <c r="K286" s="16"/>
     </row>
@@ -7898,275 +8332,299 @@
         <v>433</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="E287" s="12" t="s">
-        <v>1025</v>
-      </c>
+        <v>1067</v>
+      </c>
+      <c r="E287" s="16" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I287" s="16"/>
+      <c r="J287" s="16"/>
     </row>
     <row r="288" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B288" s="11" t="s">
         <v>434</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="E288" s="11" t="s">
-        <v>1026</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="E288" s="16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I288" s="16"/>
+      <c r="J288" s="16"/>
     </row>
     <row r="289" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B289" s="11" t="s">
         <v>435</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="E289" t="s">
-        <v>1087</v>
-      </c>
+        <v>1069</v>
+      </c>
+      <c r="E289" s="16" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I289" s="16"/>
+      <c r="J289" s="16"/>
     </row>
     <row r="290" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B290" s="11" t="s">
         <v>436</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="E290" s="11" t="s">
-        <v>1088</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="E290" s="16" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I290" s="16"/>
+      <c r="J290" s="16"/>
     </row>
     <row r="291" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B291" s="11" t="s">
         <v>437</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="E291" s="11" t="s">
-        <v>1089</v>
-      </c>
+        <v>1071</v>
+      </c>
+      <c r="E291" s="16" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I291" s="16"/>
+      <c r="J291" s="16"/>
     </row>
     <row r="292" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B292" s="11" t="s">
         <v>438</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="E292" s="11" t="s">
-        <v>1090</v>
-      </c>
+        <v>1072</v>
+      </c>
+      <c r="E292" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I292" s="16"/>
+      <c r="J292" s="16"/>
     </row>
     <row r="293" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B293" s="11" t="s">
         <v>439</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="E293" s="11" t="s">
-        <v>1092</v>
-      </c>
+        <v>1073</v>
+      </c>
+      <c r="E293" s="16" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I293" s="16"/>
+      <c r="J293" s="16"/>
     </row>
     <row r="294" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B294" s="11" t="s">
         <v>440</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="E294" s="11" t="s">
-        <v>1036</v>
-      </c>
+        <v>1074</v>
+      </c>
+      <c r="E294" s="16" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I294" s="16"/>
+      <c r="J294" s="16"/>
     </row>
     <row r="295" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B295" s="11" t="s">
         <v>441</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E295" s="11" t="s">
-        <v>463</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I295" s="16"/>
+      <c r="J295" s="16"/>
     </row>
     <row r="296" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B296" s="11" t="s">
         <v>442</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="E296" s="11" t="s">
-        <v>1037</v>
-      </c>
+        <v>1076</v>
+      </c>
+      <c r="E296" s="16" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I296" s="16"/>
+      <c r="J296" s="16"/>
     </row>
     <row r="297" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B297" s="11" t="s">
         <v>443</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="E297" s="11" t="s">
-        <v>1038</v>
-      </c>
+        <v>1077</v>
+      </c>
+      <c r="E297" s="16" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I297" s="16"/>
+      <c r="J297" s="16"/>
     </row>
     <row r="298" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B298" s="11" t="s">
         <v>444</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E298" s="11" t="s">
-        <v>1039</v>
-      </c>
+        <v>1078</v>
+      </c>
+      <c r="E298" s="16" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I298" s="16"/>
+      <c r="J298" s="16"/>
     </row>
     <row r="299" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B299" s="12" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>849</v>
+        <v>1079</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>1027</v>
+        <v>1109</v>
       </c>
       <c r="G299" s="5"/>
       <c r="H299" s="5"/>
-      <c r="I299" s="5"/>
-      <c r="J299"/>
+      <c r="I299" s="16"/>
+      <c r="J299" s="16"/>
       <c r="K299"/>
     </row>
     <row r="300" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B300" s="11" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>850</v>
+        <v>1080</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>1028</v>
+        <v>1089</v>
       </c>
       <c r="G300" s="5"/>
       <c r="H300"/>
-      <c r="I300" s="5"/>
-      <c r="J300"/>
+      <c r="I300" s="16"/>
+      <c r="J300" s="16"/>
       <c r="K300"/>
     </row>
     <row r="301" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B301" s="11" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>850</v>
+        <v>1081</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>1029</v>
+        <v>1110</v>
       </c>
       <c r="G301" s="5"/>
       <c r="H301"/>
-      <c r="I301" s="5"/>
-      <c r="J301"/>
+      <c r="I301" s="16"/>
+      <c r="J301" s="16"/>
       <c r="K301"/>
     </row>
     <row r="302" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B302" s="11" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>851</v>
+        <v>1082</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>1030</v>
+        <v>1111</v>
       </c>
       <c r="G302" s="5"/>
       <c r="H302" s="5"/>
-      <c r="I302" s="5"/>
-      <c r="J302"/>
+      <c r="I302" s="16"/>
+      <c r="J302" s="16"/>
       <c r="K302"/>
     </row>
     <row r="303" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B303" s="11" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>851</v>
+        <v>1083</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>1031</v>
+        <v>1112</v>
       </c>
       <c r="G303" s="5"/>
       <c r="H303"/>
-      <c r="I303" s="5"/>
-      <c r="J303"/>
+      <c r="I303" s="16"/>
+      <c r="J303" s="16"/>
       <c r="K303"/>
     </row>
     <row r="304" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B304" s="11" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>851</v>
+        <v>1084</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>1032</v>
+        <v>1113</v>
       </c>
       <c r="G304" s="5"/>
       <c r="H304"/>
-      <c r="I304" s="5"/>
-      <c r="J304"/>
+      <c r="I304" s="16"/>
+      <c r="J304" s="16"/>
       <c r="K304"/>
     </row>
     <row r="305" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B305" s="11" t="s">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>852</v>
+        <v>1085</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>1033</v>
+        <v>1114</v>
       </c>
       <c r="G305" s="5"/>
       <c r="H305" s="5"/>
-      <c r="I305" s="5"/>
-      <c r="J305"/>
+      <c r="I305" s="16"/>
+      <c r="J305" s="16"/>
       <c r="K305"/>
     </row>
     <row r="306" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B306" s="11" t="s">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>852</v>
+        <v>1086</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>1034</v>
+        <v>1115</v>
       </c>
       <c r="G306" s="5"/>
       <c r="H306"/>
-      <c r="I306" s="5"/>
-      <c r="J306"/>
+      <c r="I306" s="16"/>
+      <c r="J306" s="16"/>
       <c r="K306"/>
     </row>
     <row r="307" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B307" s="11" t="s">
-        <v>848</v>
+        <v>826</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>852</v>
+        <v>1087</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>1035</v>
+        <v>1116</v>
       </c>
       <c r="G307" s="5"/>
       <c r="H307"/>
-      <c r="I307" s="5"/>
-      <c r="J307"/>
+      <c r="I307" s="16"/>
+      <c r="J307" s="16"/>
       <c r="K307"/>
     </row>
     <row r="308" spans="2:11" x14ac:dyDescent="0.25">
@@ -8176,123 +8634,123 @@
     </row>
     <row r="309" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B309" s="5" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="C309" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
     </row>
     <row r="310" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B310" s="5" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
     </row>
     <row r="311" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B311" s="5" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="C311" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="E311" s="12" t="s">
-        <v>822</v>
+        <v>800</v>
       </c>
     </row>
     <row r="312" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B312" s="5" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
     </row>
     <row r="313" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B313" s="5" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
     </row>
     <row r="314" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B314" s="5" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
     </row>
     <row r="315" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B315" s="5" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
     </row>
     <row r="316" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B316" s="5" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="E316" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="317" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B317" s="5" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="E317" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="318" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B318" s="5" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
     </row>
     <row r="319" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B319" s="5" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="E319" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="320" spans="2:11" x14ac:dyDescent="0.25">
@@ -8300,1357 +8758,1357 @@
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" s="5" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="C321" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="E321" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B322" s="5" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="C322" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="E322" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B323" s="5" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="C323" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="E323" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B324" s="5" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="C324" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="E324" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B325" s="5" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="C325" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="E325" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B326" s="5" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="C326" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="E326" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B327" s="5" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="C327" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="E327" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B328" s="5" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="C328" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="E328" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B329" s="5" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="C329" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="E329" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B330" s="5" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="C330" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="E330" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B331" s="5" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="C331" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B333" s="5" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B334" s="5" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B335" s="5" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B336" s="5" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" s="5" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338" s="5" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" s="5" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" s="5" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341" s="5" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" s="5" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343" s="5" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" s="5" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" s="5" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" s="5" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" s="5" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" s="5" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350" s="5" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351" s="5" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" s="5" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" s="5" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" s="5" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" s="5" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" s="5" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" s="5" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" s="5" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" s="5" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361" s="5" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362" s="5" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B363" s="5" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>626</v>
+        <v>604</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364" s="5" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B365" s="5" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366" s="5" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367" s="5" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B368" s="5" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
     </row>
     <row r="369" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B369" s="5" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
     </row>
     <row r="370" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B370" s="5" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
     </row>
     <row r="372" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B372" s="13" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="C372" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="D372" s="5"/>
       <c r="E372" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B373" s="13" t="s">
-        <v>635</v>
+        <v>613</v>
       </c>
       <c r="C373" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="D373" s="5"/>
       <c r="E373" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
     </row>
     <row r="374" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B374" s="13" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="C374" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="D374" s="5"/>
       <c r="E374" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
     </row>
     <row r="375" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B375" s="16" t="s">
-        <v>915</v>
+        <v>889</v>
       </c>
       <c r="C375" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B376" s="13" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="C376" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" t="s">
-        <v>1003</v>
+        <v>976</v>
       </c>
     </row>
     <row r="377" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B377" s="13" t="s">
-        <v>638</v>
+        <v>616</v>
       </c>
       <c r="C377" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" t="s">
-        <v>1003</v>
+        <v>976</v>
       </c>
     </row>
     <row r="378" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B378" s="13" t="s">
-        <v>639</v>
+        <v>617</v>
       </c>
       <c r="C378" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" t="s">
-        <v>1003</v>
+        <v>976</v>
       </c>
     </row>
     <row r="379" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B379" s="13" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="C379" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" t="s">
-        <v>1003</v>
+        <v>976</v>
       </c>
     </row>
     <row r="380" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B380" s="13" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="C380" t="s">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="D380" s="5"/>
       <c r="E380" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
     </row>
     <row r="381" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B381" s="13" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="C381" t="s">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="D381" s="5"/>
       <c r="E381" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
     </row>
     <row r="382" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B382" s="13" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="C382" t="s">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="D382" s="5"/>
       <c r="E382" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
     </row>
     <row r="383" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B383" s="13" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="C383" t="s">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="D383" s="5"/>
       <c r="E383" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
     </row>
     <row r="384" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B384" s="13" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="C384" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B385" s="13" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="C385" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B386" s="13" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="C386" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B387" s="13" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="C387" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B388" s="13" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="C388" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B389" s="13" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="C389" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B390" s="13" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="C390" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="D390" s="5"/>
       <c r="E390" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B391" s="13" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="C391" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B392" s="13" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="C392" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="5" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B393" s="13" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="C393" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" t="s">
-        <v>824</v>
+        <v>802</v>
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B394" s="13" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="C394" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" t="s">
-        <v>824</v>
+        <v>802</v>
       </c>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B395" s="13" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="C395" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B396" s="13" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="C396" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="D396" s="5"/>
       <c r="E396" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" s="13" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="C397" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B398" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="C398" t="s">
         <v>659</v>
-      </c>
-      <c r="C398" t="s">
-        <v>681</v>
       </c>
       <c r="D398" s="5"/>
       <c r="E398" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B399" s="13" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
       <c r="C399" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="D399" s="5"/>
       <c r="E399" s="5" t="s">
-        <v>1002</v>
+        <v>975</v>
       </c>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B400" s="13" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
       <c r="C400" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="D400" s="5"/>
       <c r="E400" s="5" t="s">
-        <v>1002</v>
+        <v>975</v>
       </c>
     </row>
     <row r="401" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B401" s="13" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="C401" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="5" t="s">
-        <v>1002</v>
+        <v>975</v>
       </c>
     </row>
     <row r="402" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B402" s="13" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="C402" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="5" t="s">
-        <v>1002</v>
+        <v>975</v>
       </c>
     </row>
     <row r="403" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B403" s="13" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="C403" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="D403" s="5"/>
       <c r="E403" t="s">
-        <v>1004</v>
+        <v>977</v>
       </c>
     </row>
     <row r="404" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B404" s="13" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="C404" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="D404" s="5"/>
       <c r="E404" t="s">
-        <v>1004</v>
+        <v>977</v>
       </c>
     </row>
     <row r="405" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B405" s="13" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="C405" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="D405" s="5"/>
       <c r="E405" t="s">
-        <v>1004</v>
+        <v>977</v>
       </c>
     </row>
     <row r="406" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B406" s="13" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="C406" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
       <c r="D406" s="5"/>
       <c r="E406" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
     </row>
     <row r="407" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B407" s="13" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="C407" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
     </row>
     <row r="408" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B408" s="13" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="C408" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="D408" s="5"/>
       <c r="E408" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
     </row>
     <row r="409" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B409" s="13" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="C409" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
     </row>
     <row r="410" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B410" s="13" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="C410" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="D410" s="5"/>
       <c r="E410" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
     </row>
     <row r="411" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B411" s="16" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="C411" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="D411" s="5"/>
       <c r="E411" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
     </row>
     <row r="412" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B412" s="16" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="C412" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
     </row>
     <row r="414" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B414" s="13" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="C414" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="E414" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
     </row>
     <row r="415" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B415" s="13" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="C415" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="E415" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
     </row>
     <row r="416" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B416" s="13" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="C416" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="E416" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
     </row>
     <row r="417" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B417" s="13" t="s">
-        <v>912</v>
+        <v>886</v>
       </c>
       <c r="C417" t="s">
-        <v>913</v>
+        <v>887</v>
       </c>
       <c r="E417" t="s">
-        <v>914</v>
+        <v>888</v>
       </c>
     </row>
     <row r="418" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B418" s="13" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="C418" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="E418" t="s">
-        <v>1005</v>
+        <v>978</v>
       </c>
     </row>
     <row r="419" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B419" s="13" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="E419" s="5" t="s">
-        <v>1006</v>
+        <v>979</v>
       </c>
     </row>
     <row r="420" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B420" s="13" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="E420" s="5" t="s">
-        <v>1007</v>
+        <v>980</v>
       </c>
     </row>
     <row r="421" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B421" s="13" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>917</v>
+        <v>891</v>
       </c>
       <c r="E421" s="5" t="s">
-        <v>1008</v>
+        <v>981</v>
       </c>
     </row>
     <row r="422" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B422" s="13" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>922</v>
+        <v>896</v>
       </c>
       <c r="E422" s="5" t="s">
-        <v>926</v>
+        <v>900</v>
       </c>
     </row>
     <row r="423" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B423" s="13" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>923</v>
+        <v>897</v>
       </c>
       <c r="E423" s="5" t="s">
-        <v>927</v>
+        <v>901</v>
       </c>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B424" s="13" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="E424" s="5" t="s">
-        <v>928</v>
+        <v>902</v>
       </c>
     </row>
     <row r="425" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B425" s="13" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="E425" s="5" t="s">
-        <v>929</v>
+        <v>903</v>
       </c>
     </row>
     <row r="426" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B426" s="13" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
       <c r="C426" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="E426" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
     </row>
     <row r="427" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B427" s="13" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="E427" s="5" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
     </row>
     <row r="428" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B428" s="13" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="E428" s="5" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
     </row>
     <row r="429" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B429" s="13" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="E429" s="5" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
     </row>
     <row r="430" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B430" s="13" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="C430" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="E430" t="s">
-        <v>1014</v>
+        <v>987</v>
       </c>
     </row>
     <row r="431" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B431" s="13" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="E431" s="5" t="s">
-        <v>1015</v>
+        <v>988</v>
       </c>
     </row>
     <row r="432" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B432" s="13" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="E432" s="5" t="s">
-        <v>1016</v>
+        <v>989</v>
       </c>
     </row>
     <row r="433" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B433" s="13" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>916</v>
+        <v>890</v>
       </c>
       <c r="E433" s="5" t="s">
-        <v>1017</v>
+        <v>990</v>
       </c>
     </row>
     <row r="434" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B434" s="13" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="C434" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="E434" t="s">
-        <v>1018</v>
+        <v>991</v>
       </c>
     </row>
     <row r="435" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B435" s="13" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="E435" s="5" t="s">
-        <v>1019</v>
+        <v>992</v>
       </c>
     </row>
     <row r="436" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B436" s="13" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="E436" s="5" t="s">
-        <v>1020</v>
+        <v>993</v>
       </c>
     </row>
     <row r="437" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B437" s="13" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="C437" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="E437" s="5" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
     </row>
     <row r="438" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B438" s="13" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
       <c r="E438" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
     </row>
     <row r="439" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B439" s="13" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>918</v>
+        <v>892</v>
       </c>
       <c r="E439" s="5" t="s">
-        <v>919</v>
+        <v>893</v>
       </c>
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B440" s="13" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
       <c r="E440" s="5" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
     </row>
     <row r="441" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B441" s="13" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="E441" s="5" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B442" s="13" t="s">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="E442" s="5" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
     </row>
     <row r="443" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B443" s="13" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="E443" s="5" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
     </row>
     <row r="444" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B444" s="13" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="E444" s="5" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
     </row>
     <row r="445" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B445" s="13" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="E445" s="5" t="s">
-        <v>1009</v>
+        <v>982</v>
       </c>
     </row>
     <row r="446" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B446" s="13" t="s">
-        <v>716</v>
+        <v>694</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>895</v>
+        <v>869</v>
       </c>
       <c r="E446" s="5" t="s">
-        <v>1010</v>
+        <v>983</v>
       </c>
     </row>
     <row r="447" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B447" s="13" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="E447" s="5" t="s">
-        <v>1011</v>
+        <v>984</v>
       </c>
     </row>
     <row r="448" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B448" s="13" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
       <c r="C448" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="E448" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="449" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B449" s="13" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
       <c r="C449" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="E449" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
     </row>
     <row r="450" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B450" s="13" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
       <c r="E450" s="5" t="s">
-        <v>854</v>
+        <v>828</v>
       </c>
     </row>
     <row r="451" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B451" s="13" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>903</v>
+        <v>877</v>
       </c>
       <c r="E451" s="5" t="s">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="F451" s="14"/>
     </row>
     <row r="452" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B452" s="13" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>907</v>
+        <v>881</v>
       </c>
       <c r="E452" s="5" t="s">
-        <v>908</v>
+        <v>882</v>
       </c>
       <c r="F452" s="14"/>
     </row>
     <row r="453" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B453" s="16" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="E453" s="5" t="s">
-        <v>906</v>
+        <v>880</v>
       </c>
       <c r="F453" s="14"/>
     </row>
     <row r="454" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B454" s="16" t="s">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
       <c r="E454" s="5" t="s">
-        <v>855</v>
+        <v>829</v>
       </c>
       <c r="F454" s="14"/>
     </row>
@@ -9659,37 +10117,37 @@
     </row>
     <row r="456" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="C456" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="E456" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="F456" s="14"/>
     </row>
     <row r="457" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="C457" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="E457" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="F457" s="14"/>
     </row>
     <row r="458" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="C458" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="E458" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="F458" s="14"/>
       <c r="I458" s="5"/>
@@ -9697,13 +10155,13 @@
     </row>
     <row r="459" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B459" s="5" t="s">
-        <v>911</v>
+        <v>885</v>
       </c>
       <c r="C459" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="E459" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="F459" s="14"/>
       <c r="I459" s="5"/>
@@ -9711,13 +10169,13 @@
     </row>
     <row r="460" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="C460" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="E460" t="s">
-        <v>1012</v>
+        <v>985</v>
       </c>
       <c r="F460" s="14"/>
       <c r="I460" s="5"/>
@@ -9725,13 +10183,13 @@
     </row>
     <row r="461" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="C461" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="E461" t="s">
-        <v>1012</v>
+        <v>985</v>
       </c>
       <c r="F461" s="14"/>
       <c r="I461" s="5"/>
@@ -9739,25 +10197,25 @@
     </row>
     <row r="462" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="C462" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="E462" t="s">
-        <v>1012</v>
+        <v>985</v>
       </c>
       <c r="F462" s="14"/>
     </row>
     <row r="463" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="C463" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="E463" t="s">
-        <v>1012</v>
+        <v>985</v>
       </c>
       <c r="F463" s="14"/>
       <c r="I463" s="5"/>
@@ -9765,13 +10223,13 @@
     </row>
     <row r="464" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="C464" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="E464" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="F464" s="14"/>
       <c r="I464" s="5"/>
@@ -9779,475 +10237,475 @@
     </row>
     <row r="465" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="C465" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="E465" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="C466" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="E466" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
     </row>
     <row r="467" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B467" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="C467" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="E467" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="C468" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="E468" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="C469" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="E469" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
     </row>
     <row r="470" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="C470" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="E470" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
     </row>
     <row r="471" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="C471" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="E471" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="C472" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="E472" t="s">
-        <v>1022</v>
+        <v>995</v>
       </c>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="C473" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="E473" t="s">
-        <v>1022</v>
+        <v>995</v>
       </c>
     </row>
     <row r="474" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="C474" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="E474" t="s">
-        <v>1022</v>
+        <v>995</v>
       </c>
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B475" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="C475" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="E475" t="s">
-        <v>1022</v>
+        <v>995</v>
       </c>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="C476" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E476" s="5" t="s">
-        <v>1021</v>
+        <v>994</v>
       </c>
     </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="C477" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E477" t="s">
-        <v>1021</v>
+        <v>994</v>
       </c>
     </row>
     <row r="478" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="C478" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E478" t="s">
-        <v>1021</v>
+        <v>994</v>
       </c>
     </row>
     <row r="479" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="C479" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E479" t="s">
-        <v>1021</v>
+        <v>994</v>
       </c>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B480" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="C480" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="E480" t="s">
-        <v>897</v>
+        <v>871</v>
       </c>
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="C481" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="E481" t="s">
-        <v>897</v>
+        <v>871</v>
       </c>
     </row>
     <row r="482" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B482" t="s">
+        <v>733</v>
+      </c>
+      <c r="C482" t="s">
         <v>755</v>
       </c>
-      <c r="C482" t="s">
-        <v>777</v>
-      </c>
       <c r="E482" t="s">
-        <v>897</v>
+        <v>871</v>
       </c>
     </row>
     <row r="483" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="C483" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="E483" t="s">
-        <v>897</v>
+        <v>871</v>
       </c>
     </row>
     <row r="484" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="E484" t="s">
-        <v>898</v>
+        <v>872</v>
       </c>
     </row>
     <row r="485" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B485" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="E485" t="s">
-        <v>898</v>
+        <v>872</v>
       </c>
     </row>
     <row r="486" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="E486" t="s">
-        <v>898</v>
+        <v>872</v>
       </c>
     </row>
     <row r="487" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="E487" t="s">
-        <v>898</v>
+        <v>872</v>
       </c>
     </row>
     <row r="488" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B488" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="C488" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="E488" t="s">
-        <v>1013</v>
+        <v>986</v>
       </c>
     </row>
     <row r="489" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B489" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="C489" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="E489" t="s">
-        <v>1013</v>
+        <v>986</v>
       </c>
     </row>
     <row r="490" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="C490" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="E490" t="s">
-        <v>1013</v>
+        <v>986</v>
       </c>
     </row>
     <row r="491" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B491" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="C491" t="s">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="E491" t="s">
-        <v>1072</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="492" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="C492" t="s">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="E492" t="s">
-        <v>1072</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="493" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B493" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="C493" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="E493" s="5" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
     </row>
     <row r="494" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="C494" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="E494" s="5" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
     </row>
     <row r="495" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="C495" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="E495" s="5" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
     </row>
     <row r="496" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B496" s="5" t="s">
-        <v>899</v>
+        <v>873</v>
       </c>
       <c r="C496" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="E496" s="5" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
     </row>
     <row r="497" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B497" s="5" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
       <c r="C497" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="E497" s="5" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
     </row>
     <row r="499" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B499" s="5" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="C499" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="E499" s="5" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
     </row>
     <row r="500" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B500" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>896</v>
+        <v>870</v>
       </c>
       <c r="E500" s="5" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
     </row>
     <row r="502" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B502" s="15" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>878</v>
+        <v>852</v>
       </c>
       <c r="E502" s="5" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
     </row>
     <row r="503" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B503" s="15" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="E503" s="5" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
     </row>
     <row r="504" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B504" s="15" t="s">
-        <v>874</v>
+        <v>848</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>877</v>
+        <v>851</v>
       </c>
       <c r="E504" t="s">
-        <v>884</v>
+        <v>858</v>
       </c>
     </row>
     <row r="505" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B505" s="15" t="s">
-        <v>890</v>
+        <v>864</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>880</v>
+        <v>854</v>
       </c>
       <c r="E505" t="s">
-        <v>885</v>
+        <v>859</v>
       </c>
     </row>
     <row r="506" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B506" s="15" t="s">
-        <v>875</v>
+        <v>849</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>879</v>
+        <v>853</v>
       </c>
       <c r="E506" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
     </row>
     <row r="507" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B507" s="15" t="s">
-        <v>891</v>
+        <v>865</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="E507" t="s">
-        <v>887</v>
+        <v>861</v>
       </c>
     </row>
     <row r="508" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B508" s="15" t="s">
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>882</v>
+        <v>856</v>
       </c>
       <c r="E508" t="s">
-        <v>888</v>
+        <v>862</v>
       </c>
     </row>
     <row r="509" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B509" s="15" t="s">
-        <v>892</v>
+        <v>866</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>883</v>
+        <v>857</v>
       </c>
       <c r="E509" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
     </row>
     <row r="510" spans="2:5" x14ac:dyDescent="0.25">
@@ -10256,24 +10714,24 @@
     </row>
     <row r="511" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B511" s="15" t="s">
-        <v>938</v>
+        <v>911</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
       <c r="E511" s="5" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="512" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B512" s="12" t="s">
-        <v>920</v>
+        <v>894</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>921</v>
+        <v>895</v>
       </c>
       <c r="E512" s="5" t="s">
-        <v>941</v>
+        <v>914</v>
       </c>
     </row>
     <row r="513" spans="2:5" x14ac:dyDescent="0.25">
@@ -10283,57 +10741,57 @@
     </row>
     <row r="514" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B514" s="15" t="s">
-        <v>957</v>
+        <v>930</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>962</v>
+        <v>935</v>
       </c>
       <c r="E514" s="5" t="s">
-        <v>982</v>
+        <v>955</v>
       </c>
     </row>
     <row r="515" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B515" s="15" t="s">
-        <v>958</v>
+        <v>931</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>963</v>
+        <v>936</v>
       </c>
       <c r="E515" t="s">
-        <v>983</v>
+        <v>956</v>
       </c>
     </row>
     <row r="516" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B516" s="15" t="s">
-        <v>959</v>
+        <v>932</v>
       </c>
       <c r="C516" s="5" t="s">
-        <v>964</v>
+        <v>937</v>
       </c>
       <c r="E516" t="s">
-        <v>984</v>
+        <v>957</v>
       </c>
     </row>
     <row r="517" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B517" s="15" t="s">
-        <v>960</v>
+        <v>933</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>965</v>
+        <v>938</v>
       </c>
       <c r="E517" t="s">
-        <v>985</v>
+        <v>958</v>
       </c>
     </row>
     <row r="518" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B518" s="15" t="s">
-        <v>961</v>
+        <v>934</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>966</v>
+        <v>939</v>
       </c>
       <c r="E518" s="5" t="s">
-        <v>986</v>
+        <v>959</v>
       </c>
     </row>
     <row r="519" spans="2:5" x14ac:dyDescent="0.25">
@@ -10343,57 +10801,57 @@
     </row>
     <row r="520" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B520" s="15" t="s">
-        <v>942</v>
+        <v>915</v>
       </c>
       <c r="C520" s="5" t="s">
-        <v>967</v>
+        <v>940</v>
       </c>
       <c r="E520" s="5" t="s">
-        <v>987</v>
+        <v>960</v>
       </c>
     </row>
     <row r="521" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B521" s="15" t="s">
-        <v>943</v>
+        <v>916</v>
       </c>
       <c r="C521" s="5" t="s">
-        <v>968</v>
+        <v>941</v>
       </c>
       <c r="E521" t="s">
-        <v>988</v>
+        <v>961</v>
       </c>
     </row>
     <row r="522" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B522" s="15" t="s">
-        <v>944</v>
+        <v>917</v>
       </c>
       <c r="C522" s="5" t="s">
-        <v>969</v>
+        <v>942</v>
       </c>
       <c r="E522" t="s">
-        <v>989</v>
+        <v>962</v>
       </c>
     </row>
     <row r="523" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B523" s="15" t="s">
-        <v>945</v>
+        <v>918</v>
       </c>
       <c r="C523" s="5" t="s">
-        <v>970</v>
+        <v>943</v>
       </c>
       <c r="E523" t="s">
-        <v>990</v>
+        <v>963</v>
       </c>
     </row>
     <row r="524" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B524" s="15" t="s">
-        <v>946</v>
+        <v>919</v>
       </c>
       <c r="C524" s="5" t="s">
-        <v>971</v>
+        <v>944</v>
       </c>
       <c r="E524" s="5" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
     </row>
     <row r="525" spans="2:5" x14ac:dyDescent="0.25">
@@ -10403,57 +10861,57 @@
     </row>
     <row r="526" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B526" s="15" t="s">
-        <v>947</v>
+        <v>920</v>
       </c>
       <c r="C526" s="5" t="s">
-        <v>972</v>
+        <v>945</v>
       </c>
       <c r="E526" s="5" t="s">
-        <v>992</v>
+        <v>965</v>
       </c>
     </row>
     <row r="527" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B527" s="15" t="s">
-        <v>948</v>
+        <v>921</v>
       </c>
       <c r="C527" s="5" t="s">
-        <v>973</v>
+        <v>946</v>
       </c>
       <c r="E527" t="s">
-        <v>993</v>
+        <v>966</v>
       </c>
     </row>
     <row r="528" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B528" s="15" t="s">
-        <v>949</v>
+        <v>922</v>
       </c>
       <c r="C528" s="5" t="s">
-        <v>974</v>
+        <v>947</v>
       </c>
       <c r="E528" t="s">
-        <v>994</v>
+        <v>967</v>
       </c>
     </row>
     <row r="529" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B529" s="15" t="s">
-        <v>950</v>
+        <v>923</v>
       </c>
       <c r="C529" s="5" t="s">
-        <v>975</v>
+        <v>948</v>
       </c>
       <c r="E529" t="s">
-        <v>995</v>
+        <v>968</v>
       </c>
     </row>
     <row r="530" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B530" s="15" t="s">
-        <v>951</v>
+        <v>924</v>
       </c>
       <c r="C530" s="5" t="s">
-        <v>976</v>
+        <v>949</v>
       </c>
       <c r="E530" s="5" t="s">
-        <v>996</v>
+        <v>969</v>
       </c>
     </row>
     <row r="531" spans="2:6" x14ac:dyDescent="0.25">
@@ -10463,57 +10921,57 @@
     </row>
     <row r="532" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B532" s="15" t="s">
-        <v>952</v>
+        <v>925</v>
       </c>
       <c r="C532" s="5" t="s">
-        <v>977</v>
+        <v>950</v>
       </c>
       <c r="E532" s="5" t="s">
-        <v>997</v>
+        <v>970</v>
       </c>
     </row>
     <row r="533" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B533" s="15" t="s">
-        <v>953</v>
+        <v>926</v>
       </c>
       <c r="C533" s="5" t="s">
-        <v>978</v>
+        <v>951</v>
       </c>
       <c r="E533" t="s">
-        <v>998</v>
+        <v>971</v>
       </c>
     </row>
     <row r="534" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B534" s="15" t="s">
-        <v>954</v>
+        <v>927</v>
       </c>
       <c r="C534" s="5" t="s">
-        <v>979</v>
+        <v>952</v>
       </c>
       <c r="E534" t="s">
-        <v>999</v>
+        <v>972</v>
       </c>
     </row>
     <row r="535" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B535" s="15" t="s">
-        <v>955</v>
+        <v>928</v>
       </c>
       <c r="C535" s="5" t="s">
-        <v>980</v>
+        <v>953</v>
       </c>
       <c r="E535" t="s">
-        <v>1000</v>
+        <v>973</v>
       </c>
     </row>
     <row r="536" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B536" s="15" t="s">
-        <v>956</v>
+        <v>929</v>
       </c>
       <c r="C536" s="5" t="s">
-        <v>981</v>
+        <v>954</v>
       </c>
       <c r="E536" s="5" t="s">
-        <v>1001</v>
+        <v>974</v>
       </c>
     </row>
     <row r="537" spans="2:6" x14ac:dyDescent="0.25">
@@ -10521,88 +10979,620 @@
     </row>
     <row r="538" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B538" s="15" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
       <c r="C538" s="5" t="s">
-        <v>936</v>
+        <v>1053</v>
       </c>
       <c r="E538" s="5" t="s">
-        <v>937</v>
+        <v>910</v>
       </c>
     </row>
     <row r="539" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B539" s="12" t="s">
-        <v>931</v>
+        <v>905</v>
       </c>
       <c r="C539" t="s">
-        <v>930</v>
+        <v>904</v>
       </c>
       <c r="E539" s="5" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
     </row>
     <row r="540" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B540" s="12" t="s">
-        <v>932</v>
+        <v>906</v>
       </c>
       <c r="C540" s="5" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="E540" t="s">
-        <v>1078</v>
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="541" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B541" s="12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C541" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E541" s="19" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="542" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B542" s="18" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C542" s="17" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D542" s="17"/>
-      <c r="E542" s="17" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F542" s="17"/>
-    </row>
-    <row r="543" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B543" s="18" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C543" s="17" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D543" s="17"/>
-      <c r="E543" s="17" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F543" s="17"/>
+      <c r="B542" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E542" s="16" t="s">
+        <v>1122</v>
+      </c>
     </row>
     <row r="544" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B544" s="18" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C544" s="17" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D544" s="17"/>
-      <c r="E544" s="17" t="s">
-        <v>1099</v>
+        <v>1045</v>
+      </c>
+      <c r="C544" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E544" s="5" t="s">
+        <v>1057</v>
       </c>
       <c r="F544" s="17"/>
     </row>
     <row r="545" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B545" s="18" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C545" s="17" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D545" s="17"/>
-      <c r="E545" s="17" t="s">
-        <v>1097</v>
+        <v>1046</v>
+      </c>
+      <c r="C545" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1056</v>
       </c>
       <c r="F545" s="17"/>
+    </row>
+    <row r="546" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B546" s="18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C546" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D546" s="17"/>
+      <c r="E546" s="17" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F546" s="17"/>
+    </row>
+    <row r="547" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B547" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C547" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D547" s="17"/>
+      <c r="E547" s="17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F547" s="17"/>
+    </row>
+    <row r="549" spans="2:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B549" s="18" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C549" s="20" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E549" s="20" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="550" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B550" s="18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C550" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="551" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D551" s="19"/>
+    </row>
+    <row r="552" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D552" s="19"/>
+    </row>
+    <row r="553" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B553" s="16" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E553" s="5" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="554" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B554" s="16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E554" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="555" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B555" s="16" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C555" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E555" s="5" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="556" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B556" s="16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E556" s="5" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="557" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B557" s="16" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C557" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E557" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="558" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B558" s="16" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E558" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="559" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B559" s="16" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C559" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E559" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="560" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B560" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E560" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="561" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B561" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E561" s="5" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="562" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B562" s="16" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E562" s="5" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="564" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B564" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C564" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E564" s="5" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="565" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B565" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C565" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E565" s="5" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="566" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B566" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E566" s="5" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="567" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B567" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C567" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E567" s="5" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="568" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B568" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C568" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E568" s="5" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="569" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B569" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C569" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E569" s="5" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="570" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B570" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E570" s="5" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="571" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B571" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C571" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E571" s="5" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="572" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B572" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E572" s="5" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="573" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B573" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C573" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E573" s="5" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="575" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B575" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C575" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E575" s="5" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="576" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B576" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C576" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E576" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="577" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B577" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C577" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E577" s="5" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="578" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B578" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C578" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E578" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="579" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B579" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C579" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E579" s="5" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="580" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B580" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E580" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="581" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B581" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C581" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E581" s="5" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="582" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B582" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C582" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E582" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="583" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B583" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C583" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E583" s="5" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="584" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B584" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C584" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E584" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="585" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B585" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C585" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E585" s="5" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="586" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B586" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C586" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E586" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="587" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B587" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C587" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E587" s="5" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="588" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B588" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C588" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E588" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="589" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B589" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C589" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E589" s="5" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="590" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B590" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C590" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E590" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="592" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B592" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C592" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E592" s="5" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="593" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B593" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C593" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E593" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="594" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B594" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C594" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E594" s="5" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="595" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B595" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C595" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E595" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="596" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B596" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C596" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E596" s="5" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="597" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B597" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C597" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E597" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="598" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B598" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C598" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E598" s="5" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="599" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B599" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C599" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E599" s="5" t="s">
+        <v>1189</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CJ\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB06B3D5-593D-4252-931F-450D70E9099F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AAC8E6-C595-464E-B650-784E8EC91E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置表中的" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="1188">
   <si>
     <t>##var</t>
   </si>
@@ -4331,154 +4331,6 @@
   </si>
   <si>
     <t>Scan objects to set up the battlefield, place towers to defend your castle, and have fun with your friends.</t>
-  </si>
-  <si>
-    <t>技能1_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能1_1技能1_1技能1_1技能1_1技能1_1技能1_1技能1_1描述描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能1_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能1_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能2_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能3_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能4_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Name1_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Desc1_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Name2_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Desc2_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Name3_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Desc3_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Name4_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Desc4_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Name1_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Desc1_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Name2_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能2_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Desc2_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Name3_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能3_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Desc3_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Name4_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能4_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Desc4_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Name1_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Desc1_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Name2_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能2_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Desc2_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Name3_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能3_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Name4_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能4_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Desc4_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_PlayerSkill_Desc3_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4967,10 +4819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V599"/>
+  <dimension ref="A1:V573"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A561" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C589" sqref="C589"/>
+      <selection activeCell="C577" sqref="C577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11330,270 +11182,6 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="575" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B575" s="5" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C575" s="5" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E575" s="5" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="576" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B576" s="5" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C576" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E576" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="577" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B577" s="5" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C577" s="5" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E577" s="5" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="578" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B578" s="5" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C578" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E578" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="579" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B579" s="5" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C579" s="5" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E579" s="5" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="580" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B580" s="5" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C580" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E580" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="581" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B581" s="5" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C581" s="5" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E581" s="5" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="582" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B582" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C582" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E582" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="583" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B583" s="5" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C583" s="5" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E583" s="5" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="584" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B584" s="5" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C584" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E584" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="585" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B585" s="5" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C585" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E585" s="5" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="586" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B586" s="5" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C586" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E586" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="587" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B587" s="5" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C587" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E587" s="5" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="588" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B588" s="5" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C588" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E588" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="589" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B589" s="5" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C589" s="5" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E589" s="5" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="590" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B590" s="5" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C590" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E590" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="592" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B592" s="5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C592" s="5" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E592" s="5" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="593" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B593" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C593" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E593" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="594" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B594" s="5" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C594" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E594" s="5" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="595" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B595" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C595" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E595" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="596" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B596" s="5" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C596" s="5" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E596" s="5" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="597" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B597" s="5" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C597" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E597" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="598" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B598" s="5" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C598" s="5" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E598" s="5" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="599" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B599" s="5" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C599" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E599" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B299:B307">

--- a/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/TextKeyValue/LocalizeConfig_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\TextKeyValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232E343D-B256-42A2-8AEA-9B8B2DF4401E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019AA2AC-6878-4E2F-8F51-F9A27DE5B7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="1347">
   <si>
     <t>##var</t>
   </si>
@@ -3356,9 +3356,6 @@
     <t>Text_Key_Season1_Frame3_Des</t>
   </si>
   <si>
-    <t>Text_Key_Season1_Frame4_Des</t>
-  </si>
-  <si>
     <t>Text_Key_Season1_Frame5_Des</t>
   </si>
   <si>
@@ -3621,10 +3618,6 @@
   </si>
   <si>
     <t>Build terrain using real-world objects and scan it as your battlefield. Place defense towers on it to protect your castle!</t>
-  </si>
-  <si>
-    <t>Gameplay</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>黄蜂女王，能持续召唤士兵</t>
@@ -4844,6 +4837,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4871,11 +4865,71 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> enemies at once.</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身</t>
+  </si>
+  <si>
+    <t>Text_Key_FloatingText_Damage</t>
+  </si>
+  <si>
+    <t>Text_Key_FloatingText_Invisible</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invisible</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Season1_Frame4_Des</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alchemy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myst Orb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice Tower</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Mail_Thanksgiving_Title</t>
+  </si>
+  <si>
+    <t>Text_Key_Mail_Thanksgiving_Content</t>
+  </si>
+  <si>
+    <t>感恩节奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节快乐！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;Dear Player,&lt;/b&gt;&lt;br&gt;Happy Thanksgiving! To celebrate, we’ve prepared a special gift just for you. We’re also thrilled to share that &lt;b&gt;RealityGuard&lt;/b&gt; is a finalist for "Best VR/AR/XR/MR Games" at the TIGA Games Industry Awards 2024!&lt;br&gt;Thank you for your support. We’re excited to keep delivering the best AR gaming experiences. Stay tuned for more!&lt;br&gt;Warm regards,&lt;br&gt;&lt;b&gt;The RealityGuard Team.&lt;/b&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gameplay</t>
+  </si>
+  <si>
+    <t>Happy Thanksgiving! &amp; Exciting News</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5375,10 +5429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V612"/>
+  <dimension ref="A1:V617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6088,10 +6142,10 @@
         <v>112</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="F59" s="14"/>
       <c r="R59" s="16"/>
@@ -6103,10 +6157,10 @@
         <v>113</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F60" s="14"/>
       <c r="R60" s="16"/>
@@ -6118,10 +6172,10 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F61" s="14"/>
       <c r="R61" s="16"/>
@@ -6133,10 +6187,10 @@
         <v>115</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F62" s="14"/>
       <c r="R62" s="16"/>
@@ -6148,10 +6202,10 @@
         <v>116</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="F63" s="14"/>
       <c r="R63" s="16"/>
@@ -6163,10 +6217,10 @@
         <v>117</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F64" s="14"/>
       <c r="R64" s="16"/>
@@ -6178,10 +6232,10 @@
         <v>118</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F65" s="14"/>
       <c r="R65" s="16"/>
@@ -6193,10 +6247,10 @@
         <v>119</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F66" s="14"/>
       <c r="R66" s="16"/>
@@ -6208,10 +6262,10 @@
         <v>120</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F67" s="14"/>
       <c r="R67" s="16"/>
@@ -6223,10 +6277,10 @@
         <v>121</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F68" s="14"/>
       <c r="R68" s="16"/>
@@ -6238,10 +6292,10 @@
         <v>122</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F69" s="14"/>
       <c r="R69" s="16"/>
@@ -6253,10 +6307,10 @@
         <v>123</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F70" s="14"/>
       <c r="R70" s="16"/>
@@ -6268,10 +6322,10 @@
         <v>124</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F71" s="14"/>
       <c r="R71" s="16"/>
@@ -6283,10 +6337,10 @@
         <v>125</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F72" s="14"/>
       <c r="R72" s="16"/>
@@ -6298,10 +6352,10 @@
         <v>126</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="F73" s="14"/>
       <c r="R73" s="16"/>
@@ -6313,10 +6367,10 @@
         <v>127</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="F74" s="14"/>
       <c r="R74" s="16"/>
@@ -6328,10 +6382,10 @@
         <v>128</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="F75" s="14"/>
       <c r="R75" s="16"/>
@@ -6343,10 +6397,10 @@
         <v>129</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="F76" s="14"/>
       <c r="R76" s="16"/>
@@ -6358,10 +6412,10 @@
         <v>130</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F77" s="14"/>
       <c r="R77" s="16"/>
@@ -6373,10 +6427,10 @@
         <v>131</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F78" s="14"/>
       <c r="R78" s="16"/>
@@ -6388,10 +6442,10 @@
         <v>132</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F79" s="14"/>
       <c r="R79" s="16"/>
@@ -6403,10 +6457,10 @@
         <v>133</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F80" s="14"/>
       <c r="R80" s="16"/>
@@ -6418,10 +6472,10 @@
         <v>134</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F81" s="14"/>
       <c r="R81" s="16"/>
@@ -6433,10 +6487,10 @@
         <v>135</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="F82" s="14"/>
       <c r="R82" s="16"/>
@@ -6448,10 +6502,10 @@
         <v>136</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F83" s="14"/>
       <c r="R83" s="16"/>
@@ -6463,10 +6517,10 @@
         <v>137</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F84" s="14"/>
       <c r="R84" s="16"/>
@@ -6478,10 +6532,10 @@
         <v>138</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F85" s="14"/>
       <c r="R85" s="16"/>
@@ -6493,10 +6547,10 @@
         <v>139</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E86" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F86" s="14"/>
       <c r="R86" s="16"/>
@@ -6508,10 +6562,10 @@
         <v>140</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E87" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F87" s="14"/>
       <c r="R87" s="16"/>
@@ -6523,10 +6577,10 @@
         <v>141</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E88" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F88" s="14"/>
       <c r="R88" s="16"/>
@@ -6541,7 +6595,7 @@
         <v>441</v>
       </c>
       <c r="E89" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F89" s="14"/>
       <c r="R89" s="16"/>
@@ -6553,10 +6607,10 @@
         <v>143</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F90" s="14"/>
       <c r="R90" s="16"/>
@@ -6568,10 +6622,10 @@
         <v>144</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="F91" s="14"/>
       <c r="R91" s="16"/>
@@ -6586,7 +6640,7 @@
         <v>146</v>
       </c>
       <c r="E92" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F92" s="14"/>
       <c r="R92" s="16"/>
@@ -6601,7 +6655,7 @@
         <v>146</v>
       </c>
       <c r="E93" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F93" s="14"/>
       <c r="R93" s="16"/>
@@ -6616,7 +6670,7 @@
         <v>146</v>
       </c>
       <c r="E94" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F94" s="14"/>
       <c r="R94" s="16"/>
@@ -6631,7 +6685,7 @@
         <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F95" s="14"/>
       <c r="R95" s="16"/>
@@ -6646,7 +6700,7 @@
         <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F96" s="14"/>
       <c r="R96" s="16"/>
@@ -6661,7 +6715,7 @@
         <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F97" s="14"/>
       <c r="R97" s="16"/>
@@ -6676,7 +6730,7 @@
         <v>154</v>
       </c>
       <c r="E98" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F98" s="14"/>
       <c r="R98" s="16"/>
@@ -6691,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="E99" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F99" s="14"/>
       <c r="R99" s="16"/>
@@ -6706,7 +6760,7 @@
         <v>154</v>
       </c>
       <c r="E100" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F100" s="14"/>
     </row>
@@ -6718,7 +6772,7 @@
         <v>158</v>
       </c>
       <c r="E101" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F101" s="14"/>
     </row>
@@ -6730,7 +6784,7 @@
         <v>158</v>
       </c>
       <c r="E102" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F102" s="14"/>
     </row>
@@ -6742,7 +6796,7 @@
         <v>158</v>
       </c>
       <c r="E103" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F103" s="14"/>
     </row>
@@ -6754,7 +6808,7 @@
         <v>162</v>
       </c>
       <c r="E104" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F104" s="14"/>
     </row>
@@ -6766,7 +6820,7 @@
         <v>162</v>
       </c>
       <c r="E105" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F105" s="14"/>
     </row>
@@ -6778,7 +6832,7 @@
         <v>162</v>
       </c>
       <c r="E106" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F106" s="14"/>
     </row>
@@ -6790,7 +6844,7 @@
         <v>818</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F107" s="14"/>
     </row>
@@ -6799,10 +6853,10 @@
         <v>166</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F108" s="14"/>
     </row>
@@ -6811,10 +6865,10 @@
         <v>167</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F109" s="14"/>
     </row>
@@ -6826,7 +6880,7 @@
         <v>169</v>
       </c>
       <c r="E110" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F110" s="14"/>
     </row>
@@ -6838,7 +6892,7 @@
         <v>169</v>
       </c>
       <c r="E111" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F111" s="14"/>
     </row>
@@ -6850,7 +6904,7 @@
         <v>169</v>
       </c>
       <c r="E112" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F112" s="14"/>
     </row>
@@ -6862,7 +6916,7 @@
         <v>173</v>
       </c>
       <c r="E113" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F113" s="14"/>
     </row>
@@ -6874,7 +6928,7 @@
         <v>173</v>
       </c>
       <c r="E114" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F114" s="14"/>
     </row>
@@ -6886,7 +6940,7 @@
         <v>173</v>
       </c>
       <c r="E115" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F115" s="14"/>
     </row>
@@ -6898,7 +6952,7 @@
         <v>177</v>
       </c>
       <c r="E116" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F116" s="14"/>
     </row>
@@ -6910,7 +6964,7 @@
         <v>177</v>
       </c>
       <c r="E117" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F117" s="14"/>
     </row>
@@ -6922,7 +6976,7 @@
         <v>177</v>
       </c>
       <c r="E118" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F118" s="14"/>
     </row>
@@ -6931,10 +6985,10 @@
         <v>180</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F119" s="14"/>
       <c r="J119" s="16"/>
@@ -6945,10 +6999,10 @@
         <v>181</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="F120" s="14"/>
       <c r="J120" s="16"/>
@@ -6959,10 +7013,10 @@
         <v>182</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F121" s="14"/>
       <c r="J121" s="16"/>
@@ -6976,7 +7030,7 @@
         <v>184</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F122" s="14"/>
       <c r="J122" s="16"/>
@@ -6990,7 +7044,7 @@
         <v>184</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F123" s="14"/>
       <c r="J123" s="16"/>
@@ -7004,7 +7058,7 @@
         <v>184</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F124" s="14"/>
       <c r="J124" s="16"/>
@@ -7015,10 +7069,10 @@
         <v>187</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="F125" s="14"/>
       <c r="J125" s="16"/>
@@ -7029,10 +7083,10 @@
         <v>188</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F126" s="14"/>
       <c r="J126" s="16"/>
@@ -7043,10 +7097,10 @@
         <v>189</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="F127" s="14"/>
       <c r="J127" s="16"/>
@@ -7060,7 +7114,7 @@
         <v>191</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F128" s="14"/>
       <c r="J128" s="16"/>
@@ -7074,7 +7128,7 @@
         <v>191</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F129" s="14"/>
       <c r="J129" s="16"/>
@@ -7088,7 +7142,7 @@
         <v>191</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F130" s="14"/>
       <c r="J130" s="16"/>
@@ -7099,10 +7153,10 @@
         <v>451</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="F131" s="14"/>
       <c r="J131" s="16"/>
@@ -7113,10 +7167,10 @@
         <v>452</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F132" s="14"/>
       <c r="J132" s="16"/>
@@ -7127,10 +7181,10 @@
         <v>453</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F133" s="14"/>
       <c r="J133" s="16"/>
@@ -7141,10 +7195,10 @@
         <v>815</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="F134" s="14"/>
       <c r="J134" s="16"/>
@@ -7155,10 +7209,10 @@
         <v>816</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F135" s="14"/>
       <c r="J135" s="16"/>
@@ -7169,10 +7223,10 @@
         <v>817</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="F136" s="14"/>
       <c r="J136" s="16"/>
@@ -7363,7 +7417,7 @@
         <v>234</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
@@ -7396,7 +7450,7 @@
         <v>239</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
@@ -7407,7 +7461,7 @@
         <v>239</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
@@ -7418,7 +7472,7 @@
         <v>239</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
@@ -7429,7 +7483,7 @@
         <v>243</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>778</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
@@ -7528,7 +7582,7 @@
         <v>257</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>258</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
@@ -7594,7 +7648,7 @@
         <v>266</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>267</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
@@ -7627,7 +7681,7 @@
         <v>271</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>272</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
@@ -8676,10 +8730,10 @@
         <v>417</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="I278" s="16"/>
       <c r="J278" s="16"/>
@@ -8689,10 +8743,10 @@
         <v>418</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="I279" s="16"/>
       <c r="J279" s="16"/>
@@ -8703,10 +8757,10 @@
         <v>419</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="I280" s="16"/>
       <c r="J280" s="16"/>
@@ -8717,10 +8771,10 @@
         <v>420</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I281" s="16"/>
       <c r="J281" s="16"/>
@@ -8731,10 +8785,10 @@
         <v>421</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I282" s="16"/>
       <c r="J282" s="16"/>
@@ -8745,10 +8799,10 @@
         <v>422</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="I283" s="16"/>
       <c r="J283" s="16"/>
@@ -8759,10 +8813,10 @@
         <v>423</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I284" s="16"/>
       <c r="J284" s="16"/>
@@ -8773,10 +8827,10 @@
         <v>424</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I285" s="16"/>
       <c r="J285" s="16"/>
@@ -8787,10 +8841,10 @@
         <v>425</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="I286" s="16"/>
       <c r="J286" s="16"/>
@@ -8801,10 +8855,10 @@
         <v>426</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="I287" s="16"/>
       <c r="J287" s="16"/>
@@ -8814,10 +8868,10 @@
         <v>427</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I288" s="16"/>
       <c r="J288" s="16"/>
@@ -8827,10 +8881,10 @@
         <v>428</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="I289" s="16"/>
       <c r="J289" s="16"/>
@@ -8840,10 +8894,10 @@
         <v>429</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I290" s="16"/>
       <c r="J290" s="16"/>
@@ -8853,10 +8907,10 @@
         <v>430</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="I291" s="16"/>
       <c r="J291" s="16"/>
@@ -8866,10 +8920,10 @@
         <v>431</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I292" s="16"/>
       <c r="J292" s="16"/>
@@ -8879,10 +8933,10 @@
         <v>432</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="I293" s="16"/>
       <c r="J293" s="16"/>
@@ -8892,10 +8946,10 @@
         <v>433</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I294" s="16"/>
       <c r="J294" s="16"/>
@@ -8905,10 +8959,10 @@
         <v>434</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I295" s="16"/>
       <c r="J295" s="16"/>
@@ -8918,10 +8972,10 @@
         <v>435</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I296" s="16"/>
       <c r="J296" s="16"/>
@@ -8931,10 +8985,10 @@
         <v>436</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I297" s="16"/>
       <c r="J297" s="16"/>
@@ -8944,10 +8998,10 @@
         <v>437</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I298" s="16"/>
       <c r="J298" s="16"/>
@@ -8957,10 +9011,10 @@
         <v>798</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="G299" s="5"/>
       <c r="H299" s="5"/>
@@ -8973,10 +9027,10 @@
         <v>799</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G300" s="5"/>
       <c r="H300"/>
@@ -8989,10 +9043,10 @@
         <v>800</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G301" s="5"/>
       <c r="H301"/>
@@ -9005,10 +9059,10 @@
         <v>801</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="G302" s="5"/>
       <c r="H302" s="5"/>
@@ -9021,10 +9075,10 @@
         <v>802</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G303" s="5"/>
       <c r="H303"/>
@@ -9037,10 +9091,10 @@
         <v>803</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="G304" s="5"/>
       <c r="H304"/>
@@ -9053,10 +9107,10 @@
         <v>804</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G305" s="5"/>
       <c r="H305" s="5"/>
@@ -9069,10 +9123,10 @@
         <v>805</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="G306" s="5"/>
       <c r="H306"/>
@@ -9085,10 +9139,10 @@
         <v>806</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G307" s="5"/>
       <c r="H307"/>
@@ -9098,211 +9152,211 @@
     </row>
     <row r="308" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="309" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="310" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="311" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="312" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="313" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="314" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="315" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="316" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="317" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="318" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="319" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="320" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="321" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="322" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="323" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="324" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="325" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="326" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.2">
@@ -9900,7 +9954,7 @@
       </c>
       <c r="D395" s="5"/>
       <c r="E395" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.2">
@@ -9912,7 +9966,7 @@
       </c>
       <c r="D396" s="5"/>
       <c r="E396" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.2">
@@ -9924,7 +9978,7 @@
       </c>
       <c r="D397" s="5"/>
       <c r="E397" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.2">
@@ -9936,7 +9990,7 @@
       </c>
       <c r="D398" s="5"/>
       <c r="E398" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.2">
@@ -10176,7 +10230,7 @@
       </c>
       <c r="D418" s="5"/>
       <c r="E418" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="419" spans="2:5" x14ac:dyDescent="0.2">
@@ -10188,7 +10242,7 @@
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="420" spans="2:5" x14ac:dyDescent="0.2">
@@ -10200,7 +10254,7 @@
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="421" spans="2:5" x14ac:dyDescent="0.2">
@@ -10212,7 +10266,7 @@
       </c>
       <c r="D421" s="5"/>
       <c r="E421" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="422" spans="2:5" x14ac:dyDescent="0.2">
@@ -10224,7 +10278,7 @@
       </c>
       <c r="D422" s="5"/>
       <c r="E422" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="423" spans="2:5" x14ac:dyDescent="0.2">
@@ -10236,7 +10290,7 @@
       </c>
       <c r="D423" s="5"/>
       <c r="E423" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.2">
@@ -10248,7 +10302,7 @@
       </c>
       <c r="D424" s="5"/>
       <c r="E424" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="425" spans="2:5" x14ac:dyDescent="0.2">
@@ -10387,7 +10441,7 @@
         <v>743</v>
       </c>
       <c r="E437" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="438" spans="2:5" x14ac:dyDescent="0.2">
@@ -10398,7 +10452,7 @@
         <v>755</v>
       </c>
       <c r="E438" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="439" spans="2:5" x14ac:dyDescent="0.2">
@@ -10409,7 +10463,7 @@
         <v>756</v>
       </c>
       <c r="E439" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.2">
@@ -10420,7 +10474,7 @@
         <v>864</v>
       </c>
       <c r="E440" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="441" spans="2:5" x14ac:dyDescent="0.2">
@@ -10519,7 +10573,7 @@
         <v>746</v>
       </c>
       <c r="E449" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="450" spans="2:5" x14ac:dyDescent="0.2">
@@ -10530,7 +10584,7 @@
         <v>751</v>
       </c>
       <c r="E450" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="451" spans="2:5" x14ac:dyDescent="0.2">
@@ -10541,7 +10595,7 @@
         <v>752</v>
       </c>
       <c r="E451" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.2">
@@ -10552,7 +10606,7 @@
         <v>863</v>
       </c>
       <c r="E452" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="453" spans="2:5" x14ac:dyDescent="0.2">
@@ -10563,7 +10617,7 @@
         <v>747</v>
       </c>
       <c r="E453" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="454" spans="2:5" x14ac:dyDescent="0.2">
@@ -10574,7 +10628,7 @@
         <v>753</v>
       </c>
       <c r="E454" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.2">
@@ -10585,7 +10639,7 @@
         <v>754</v>
       </c>
       <c r="E455" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="456" spans="2:5" x14ac:dyDescent="0.2">
@@ -10684,7 +10738,7 @@
         <v>764</v>
       </c>
       <c r="E464" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="465" spans="2:17" x14ac:dyDescent="0.2">
@@ -10695,7 +10749,7 @@
         <v>842</v>
       </c>
       <c r="E465" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="466" spans="2:17" x14ac:dyDescent="0.2">
@@ -10706,7 +10760,7 @@
         <v>763</v>
       </c>
       <c r="E466" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="467" spans="2:17" x14ac:dyDescent="0.2">
@@ -10853,7 +10907,7 @@
         <v>732</v>
       </c>
       <c r="E479" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F479" s="14"/>
       <c r="I479" s="5"/>
@@ -10867,7 +10921,7 @@
         <v>732</v>
       </c>
       <c r="E480" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F480" s="14"/>
       <c r="I480" s="5"/>
@@ -10881,7 +10935,7 @@
         <v>732</v>
       </c>
       <c r="E481" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F481" s="14"/>
     </row>
@@ -10893,7 +10947,7 @@
         <v>732</v>
       </c>
       <c r="E482" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F482" s="14"/>
       <c r="I482" s="5"/>
@@ -10998,7 +11052,7 @@
         <v>731</v>
       </c>
       <c r="E491" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="492" spans="2:17" x14ac:dyDescent="0.2">
@@ -11009,7 +11063,7 @@
         <v>731</v>
       </c>
       <c r="E492" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="493" spans="2:17" x14ac:dyDescent="0.2">
@@ -11020,7 +11074,7 @@
         <v>731</v>
       </c>
       <c r="E493" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="494" spans="2:17" x14ac:dyDescent="0.2">
@@ -11031,7 +11085,7 @@
         <v>731</v>
       </c>
       <c r="E494" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="495" spans="2:17" x14ac:dyDescent="0.2">
@@ -11042,7 +11096,7 @@
         <v>735</v>
       </c>
       <c r="E495" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="496" spans="2:17" x14ac:dyDescent="0.2">
@@ -11053,7 +11107,7 @@
         <v>735</v>
       </c>
       <c r="E496" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="497" spans="2:5" x14ac:dyDescent="0.2">
@@ -11064,7 +11118,7 @@
         <v>735</v>
       </c>
       <c r="E497" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="498" spans="2:5" x14ac:dyDescent="0.2">
@@ -11075,7 +11129,7 @@
         <v>735</v>
       </c>
       <c r="E498" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="499" spans="2:5" x14ac:dyDescent="0.2">
@@ -11174,7 +11228,7 @@
         <v>733</v>
       </c>
       <c r="E507" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="508" spans="2:5" x14ac:dyDescent="0.2">
@@ -11185,7 +11239,7 @@
         <v>733</v>
       </c>
       <c r="E508" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="509" spans="2:5" x14ac:dyDescent="0.2">
@@ -11196,7 +11250,7 @@
         <v>733</v>
       </c>
       <c r="E509" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="510" spans="2:5" x14ac:dyDescent="0.2">
@@ -11207,7 +11261,7 @@
         <v>737</v>
       </c>
       <c r="E510" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="511" spans="2:5" x14ac:dyDescent="0.2">
@@ -11218,7 +11272,7 @@
         <v>737</v>
       </c>
       <c r="E511" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="512" spans="2:5" x14ac:dyDescent="0.2">
@@ -11229,7 +11283,7 @@
         <v>734</v>
       </c>
       <c r="E512" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="513" spans="2:5" x14ac:dyDescent="0.2">
@@ -11240,7 +11294,7 @@
         <v>734</v>
       </c>
       <c r="E513" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="514" spans="2:5" x14ac:dyDescent="0.2">
@@ -11251,7 +11305,7 @@
         <v>734</v>
       </c>
       <c r="E514" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="515" spans="2:5" x14ac:dyDescent="0.2">
@@ -11262,7 +11316,7 @@
         <v>734</v>
       </c>
       <c r="E515" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="516" spans="2:5" x14ac:dyDescent="0.2">
@@ -11273,7 +11327,7 @@
         <v>734</v>
       </c>
       <c r="E516" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="518" spans="2:5" x14ac:dyDescent="0.2">
@@ -11295,7 +11349,7 @@
         <v>843</v>
       </c>
       <c r="E519" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="521" spans="2:5" x14ac:dyDescent="0.2">
@@ -11419,24 +11473,24 @@
     </row>
     <row r="533" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B533" s="15" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C533" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E533" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="534" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B534" s="15" t="s">
-        <v>904</v>
+        <v>1335</v>
       </c>
       <c r="C534" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E534" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="535" spans="2:5" x14ac:dyDescent="0.2">
@@ -11444,32 +11498,32 @@
         <v>905</v>
       </c>
       <c r="C535" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E535" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="536" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B536" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C536" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E536" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="537" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B537" s="15" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C537" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E537" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="538" spans="2:5" x14ac:dyDescent="0.2">
@@ -11479,24 +11533,24 @@
     </row>
     <row r="539" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B539" s="15" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="C539" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E539" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="540" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B540" s="15" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C540" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E540" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="541" spans="2:5" x14ac:dyDescent="0.2">
@@ -11504,32 +11558,32 @@
         <v>890</v>
       </c>
       <c r="C541" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E541" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="542" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B542" s="15" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C542" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E542" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="543" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B543" s="15" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C543" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E543" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="544" spans="2:5" x14ac:dyDescent="0.2">
@@ -11539,24 +11593,24 @@
     </row>
     <row r="545" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B545" s="15" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="C545" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E545" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="546" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B546" s="15" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C546" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E546" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="547" spans="2:5" x14ac:dyDescent="0.2">
@@ -11564,32 +11618,32 @@
         <v>895</v>
       </c>
       <c r="C547" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E547" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="548" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B548" s="15" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C548" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E548" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="549" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B549" s="15" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C549" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E549" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="550" spans="2:5" x14ac:dyDescent="0.2">
@@ -11599,24 +11653,24 @@
     </row>
     <row r="551" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B551" s="15" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C551" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E551" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="552" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B552" s="15" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C552" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E552" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="553" spans="2:5" x14ac:dyDescent="0.2">
@@ -11624,32 +11678,32 @@
         <v>900</v>
       </c>
       <c r="C553" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E553" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="554" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B554" s="15" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C554" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E554" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="555" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B555" s="15" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C555" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E555" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="556" spans="2:5" x14ac:dyDescent="0.2">
@@ -11660,7 +11714,7 @@
         <v>882</v>
       </c>
       <c r="C557" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E557" s="5" t="s">
         <v>883</v>
@@ -11685,137 +11739,137 @@
         <v>881</v>
       </c>
       <c r="E559" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="560" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B560" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C560" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="C560" s="5" t="s">
+      <c r="E560" s="19" t="s">
         <v>1045</v>
-      </c>
-      <c r="E560" s="19" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="561" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B561" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C561" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="C561" s="5" t="s">
+      <c r="E561" s="16" t="s">
         <v>1046</v>
       </c>
-      <c r="E561" s="16" t="s">
-        <v>1048</v>
+    </row>
+    <row r="562" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B562" s="12" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E562" s="5" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="563" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B563" s="18" t="s">
-        <v>979</v>
+      <c r="B563" s="12" t="s">
+        <v>1341</v>
       </c>
       <c r="C563" s="5" t="s">
-        <v>984</v>
+        <v>1343</v>
       </c>
       <c r="E563" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="F563" s="17"/>
-    </row>
-    <row r="564" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B564" s="18" t="s">
-        <v>980</v>
-      </c>
-      <c r="C564" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="E564" t="s">
-        <v>986</v>
-      </c>
-      <c r="F564" s="17"/>
+        <v>1344</v>
+      </c>
     </row>
     <row r="565" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B565" s="18" t="s">
-        <v>981</v>
-      </c>
-      <c r="C565" s="17" t="s">
         <v>978</v>
       </c>
-      <c r="D565" s="17"/>
-      <c r="E565" s="17" t="s">
-        <v>977</v>
+      <c r="C565" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="E565" t="s">
+        <v>1345</v>
       </c>
       <c r="F565" s="17"/>
     </row>
     <row r="566" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B566" s="18" t="s">
-        <v>982</v>
-      </c>
-      <c r="C566" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="E566" t="s">
+        <v>985</v>
+      </c>
+      <c r="F566" s="17"/>
+    </row>
+    <row r="567" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B567" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="C567" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="D567" s="17"/>
+      <c r="E567" s="17" t="s">
         <v>976</v>
       </c>
-      <c r="D566" s="17"/>
-      <c r="E566" s="17" t="s">
+      <c r="F567" s="17"/>
+    </row>
+    <row r="568" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B568" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="C568" s="17" t="s">
         <v>975</v>
       </c>
-      <c r="F566" s="17"/>
-    </row>
-    <row r="568" spans="2:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B568" s="18" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C568" s="20" t="s">
+      <c r="D568" s="17"/>
+      <c r="E568" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="F568" s="17"/>
+    </row>
+    <row r="570" spans="2:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B570" s="18" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C570" s="20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E570" s="20" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="571" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B571" s="18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C571" s="5" t="s">
         <v>1050</v>
       </c>
-      <c r="E568" s="20" t="s">
+      <c r="E571" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="569" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B569" s="18" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C569" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E569" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="570" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D570" s="19"/>
-    </row>
-    <row r="571" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D571" s="19"/>
-    </row>
     <row r="572" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B572" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C572" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E572" s="5" t="s">
-        <v>1096</v>
-      </c>
+      <c r="D572" s="19"/>
     </row>
     <row r="573" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B573" s="16" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E573" t="s">
-        <v>1092</v>
-      </c>
+      <c r="D573" s="19"/>
     </row>
     <row r="574" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B574" s="16" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C574" s="5" t="s">
-        <v>1077</v>
+        <v>1053</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1073</v>
       </c>
       <c r="E574" s="5" t="s">
         <v>1094</v>
@@ -11823,388 +11877,428 @@
     </row>
     <row r="575" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B575" s="16" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C575" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E575" s="5" t="s">
-        <v>1097</v>
+        <v>1074</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="576" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B576" s="16" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C576" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E576" t="s">
-        <v>1093</v>
+        <v>1075</v>
+      </c>
+      <c r="E576" s="5" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="577" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B577" s="16" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C577" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="E577" s="5" t="s">
-        <v>253</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="578" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B578" s="16" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C578" s="5" t="s">
-        <v>1107</v>
+        <v>1077</v>
       </c>
       <c r="E578" t="s">
-        <v>1110</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="579" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B579" s="16" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C579" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E579" s="5" t="s">
-        <v>778</v>
+        <v>253</v>
       </c>
     </row>
     <row r="580" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B580" s="16" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C580" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E580" s="5" t="s">
-        <v>1095</v>
+        <v>1059</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="581" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B581" s="16" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C581" s="5" t="s">
-        <v>1108</v>
+        <v>1060</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1079</v>
       </c>
       <c r="E581" s="5" t="s">
-        <v>1111</v>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="582" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B582" s="16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E582" s="5" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="583" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B583" t="s">
-        <v>1065</v>
+      <c r="B583" s="16" t="s">
+        <v>1062</v>
       </c>
       <c r="C583" s="5" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="E583" s="5" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="584" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B584" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C584" s="5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E584" s="5" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="585" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B585" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C585" s="5" t="s">
-        <v>1084</v>
+        <v>1110</v>
       </c>
       <c r="E585" s="5" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="586" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B586" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C586" s="5" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E586" s="5" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="587" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B587" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C587" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="E587" s="5" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="588" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B588" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C588" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E588" s="5" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="589" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B589" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E589" s="5" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="590" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B590" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C590" s="5" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E590" s="5" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="591" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B591" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C591" s="5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E591" s="5" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="592" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B592" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C592" s="5" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="E592" s="5" t="s">
-        <v>1106</v>
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="593" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B593" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C593" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E593" s="5" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="594" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B594" s="16" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C594" s="13" t="s">
-        <v>1141</v>
+      <c r="B594" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C594" s="5" t="s">
+        <v>1089</v>
       </c>
       <c r="E594" s="5" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="595" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B595" s="16" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C595" s="13" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E595" t="s">
-        <v>1151</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="596" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B596" s="16" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C596" s="13" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E596" t="s">
-        <v>1152</v>
+        <v>1139</v>
+      </c>
+      <c r="E596" s="5" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="597" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B597" s="16" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C597" s="13" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="E597" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="598" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B598" s="16" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C598" s="13" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E598" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="599" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B599" s="16" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C599" s="13" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="E599" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="600" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B600" s="16" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C600" s="13" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E600" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="601" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B601" s="16" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C601" s="13" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E601" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="602" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B602" s="16" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C602" s="13" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E602" t="s">
-        <v>1158</v>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="603" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B603" s="16" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C603" s="13" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E603" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="604" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B604" s="13" t="s">
-        <v>1123</v>
+      <c r="B604" s="16" t="s">
+        <v>1120</v>
       </c>
       <c r="C604" s="13" t="s">
-        <v>1132</v>
+        <v>1147</v>
       </c>
       <c r="E604" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="605" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B605" s="13" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C605" s="13" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E605" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="606" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B606" s="13" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C606" s="13" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="E606" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="607" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B607" s="13" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C607" s="16" t="s">
-        <v>1135</v>
+        <v>1122</v>
+      </c>
+      <c r="C607" s="13" t="s">
+        <v>1131</v>
       </c>
       <c r="E607" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="608" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B608" s="13" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C608" s="13" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="E608" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="609" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B609" s="13" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C609" s="13" t="s">
-        <v>1137</v>
+        <v>1124</v>
+      </c>
+      <c r="C609" s="16" t="s">
+        <v>1133</v>
       </c>
       <c r="E609" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="610" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B610" s="13" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C610" s="13" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="E610" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="611" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B611" s="13" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C611" s="13" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E611" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="612" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B612" s="13" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C612" s="13" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E612" t="s">
-        <v>1167</v>
-      </c>
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="613" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B613" s="13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C613" s="13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="614" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B614" s="13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C614" s="13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E614" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="616" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B616" s="16" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C616" s="13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E616" s="16" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="617" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B617" s="13" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C617" s="16"/>
+      <c r="E617" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
